--- a/assets/Pitcher_Stats.xlsx
+++ b/assets/Pitcher_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="203">
   <si>
     <t>Season</t>
   </si>
@@ -398,9 +398,6 @@
   </si>
   <si>
     <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Colorado Rockies</t>
@@ -1242,7 +1239,7 @@
         <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M2">
         <v>85</v>
@@ -1254,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1308,7 +1305,7 @@
         <v>0.047</v>
       </c>
       <c r="AH2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AI2">
         <v>0.84</v>
@@ -1460,7 +1457,7 @@
         <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M3">
         <v>64</v>
@@ -1472,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1526,7 +1523,7 @@
         <v>0.031</v>
       </c>
       <c r="AH3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -1678,7 +1675,7 @@
         <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M4">
         <v>374</v>
@@ -1690,7 +1687,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>43</v>
@@ -1744,7 +1741,7 @@
         <v>0.107</v>
       </c>
       <c r="AH4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI4">
         <v>1.44</v>
@@ -1896,7 +1893,7 @@
         <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M5">
         <v>192</v>
@@ -1908,7 +1905,7 @@
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>21</v>
@@ -1962,7 +1959,7 @@
         <v>0.078</v>
       </c>
       <c r="AH5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI5">
         <v>1.17</v>
@@ -2114,7 +2111,7 @@
         <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M6">
         <v>124</v>
@@ -2126,7 +2123,7 @@
         <v>26</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -2180,7 +2177,7 @@
         <v>0.113</v>
       </c>
       <c r="AH6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI6">
         <v>1.43</v>
@@ -2332,7 +2329,7 @@
         <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M7">
         <v>88</v>
@@ -2344,7 +2341,7 @@
         <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2398,7 +2395,7 @@
         <v>0.125</v>
       </c>
       <c r="AH7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AI7">
         <v>1.82</v>
@@ -2550,7 +2547,7 @@
         <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M8">
         <v>190</v>
@@ -2562,7 +2559,7 @@
         <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>13</v>
@@ -2616,7 +2613,7 @@
         <v>0.042</v>
       </c>
       <c r="AH8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AI8">
         <v>0.86</v>
@@ -2768,7 +2765,7 @@
         <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M9">
         <v>111</v>
@@ -2780,7 +2777,7 @@
         <v>17</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2834,7 +2831,7 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="AH9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AI9">
         <v>0.85</v>
@@ -2986,7 +2983,7 @@
         <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M10">
         <v>221</v>
@@ -2998,7 +2995,7 @@
         <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>34</v>
@@ -3052,7 +3049,7 @@
         <v>0.109</v>
       </c>
       <c r="AH10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AI10">
         <v>1.57</v>
@@ -3204,7 +3201,7 @@
         <v>76</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M11">
         <v>105</v>
@@ -3216,7 +3213,7 @@
         <v>21</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -3270,7 +3267,7 @@
         <v>0.114</v>
       </c>
       <c r="AH11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI11">
         <v>1.32</v>
@@ -3422,7 +3419,7 @@
         <v>76</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M12">
         <v>294</v>
@@ -3434,7 +3431,7 @@
         <v>67</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>28</v>
@@ -3488,7 +3485,7 @@
         <v>0.061</v>
       </c>
       <c r="AH12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AI12">
         <v>1.18</v>
@@ -3640,7 +3637,7 @@
         <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M13">
         <v>114</v>
@@ -3652,7 +3649,7 @@
         <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3706,7 +3703,7 @@
         <v>0.079</v>
       </c>
       <c r="AH13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AI13">
         <v>1.35</v>
@@ -3858,7 +3855,7 @@
         <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M14">
         <v>303</v>
@@ -3870,7 +3867,7 @@
         <v>60</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>23</v>
@@ -3924,7 +3921,7 @@
         <v>0.059</v>
       </c>
       <c r="AH14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AI14">
         <v>1.05</v>
@@ -4076,7 +4073,7 @@
         <v>77</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M15">
         <v>92</v>
@@ -4088,7 +4085,7 @@
         <v>14</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -4142,7 +4139,7 @@
         <v>0.109</v>
       </c>
       <c r="AH15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI15">
         <v>1.04</v>
@@ -4294,7 +4291,7 @@
         <v>77</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M16">
         <v>366</v>
@@ -4306,7 +4303,7 @@
         <v>79</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>40</v>
@@ -4360,7 +4357,7 @@
         <v>0.07400000000000001</v>
       </c>
       <c r="AH16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AI16">
         <v>1.2</v>
@@ -4512,7 +4509,7 @@
         <v>77</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M17">
         <v>100</v>
@@ -4524,7 +4521,7 @@
         <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -4578,7 +4575,7 @@
         <v>0.05</v>
       </c>
       <c r="AH17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AI17">
         <v>1.21</v>
@@ -4730,7 +4727,7 @@
         <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M18">
         <v>349</v>
@@ -4742,7 +4739,7 @@
         <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>39</v>
@@ -4796,7 +4793,7 @@
         <v>0.08</v>
       </c>
       <c r="AH18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AI18">
         <v>1.33</v>
@@ -4948,7 +4945,7 @@
         <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M19">
         <v>101</v>
@@ -4960,7 +4957,7 @@
         <v>30</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5014,7 +5011,7 @@
         <v>0.079</v>
       </c>
       <c r="AH19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI19">
         <v>1.75</v>
@@ -5166,7 +5163,7 @@
         <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M20">
         <v>414</v>
@@ -5178,7 +5175,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>33</v>
@@ -5232,7 +5229,7 @@
         <v>0.065</v>
       </c>
       <c r="AH20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AI20">
         <v>1.06</v>
@@ -5384,7 +5381,7 @@
         <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M21">
         <v>132</v>
@@ -5396,7 +5393,7 @@
         <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>15</v>
@@ -5450,7 +5447,7 @@
         <v>0.045</v>
       </c>
       <c r="AH21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI21">
         <v>1.1</v>
@@ -5602,7 +5599,7 @@
         <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M22">
         <v>401</v>
@@ -5614,7 +5611,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>52</v>
@@ -5668,7 +5665,7 @@
         <v>0.065</v>
       </c>
       <c r="AH22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AI22">
         <v>1.42</v>
@@ -5820,7 +5817,7 @@
         <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M23">
         <v>150</v>
@@ -5832,7 +5829,7 @@
         <v>30</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>21</v>
@@ -5886,7 +5883,7 @@
         <v>0.107</v>
       </c>
       <c r="AH23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI23">
         <v>1.3</v>
@@ -6038,7 +6035,7 @@
         <v>79</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M24">
         <v>406</v>
@@ -6050,7 +6047,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>49</v>
@@ -6104,7 +6101,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="AH24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI24">
         <v>1.22</v>
@@ -6256,7 +6253,7 @@
         <v>79</v>
       </c>
       <c r="L25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M25">
         <v>118</v>
@@ -6268,7 +6265,7 @@
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -6322,7 +6319,7 @@
         <v>0.076</v>
       </c>
       <c r="AH25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI25">
         <v>1.11</v>
@@ -6474,7 +6471,7 @@
         <v>127</v>
       </c>
       <c r="L26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M26">
         <v>132</v>
@@ -6486,7 +6483,7 @@
         <v>36</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6540,7 +6537,7 @@
         <v>0.136</v>
       </c>
       <c r="AH26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI26">
         <v>1.98</v>
@@ -6692,7 +6689,7 @@
         <v>127</v>
       </c>
       <c r="L27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M27">
         <v>57</v>
@@ -6704,7 +6701,7 @@
         <v>13</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6758,7 +6755,7 @@
         <v>0.123</v>
       </c>
       <c r="AH27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AI27">
         <v>1.46</v>
@@ -6910,7 +6907,7 @@
         <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M28">
         <v>450</v>
@@ -6922,7 +6919,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>62</v>
@@ -6976,7 +6973,7 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="AH28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI28">
         <v>1.26</v>
@@ -7128,7 +7125,7 @@
         <v>127</v>
       </c>
       <c r="L29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M29">
         <v>190</v>
@@ -7140,7 +7137,7 @@
         <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>21</v>
@@ -7194,7 +7191,7 @@
         <v>0.053</v>
       </c>
       <c r="AH29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI29">
         <v>1.22</v>
@@ -7346,7 +7343,7 @@
         <v>81</v>
       </c>
       <c r="L30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M30">
         <v>85</v>
@@ -7358,7 +7355,7 @@
         <v>20</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7412,7 +7409,7 @@
         <v>0.106</v>
       </c>
       <c r="AH30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI30">
         <v>1.53</v>
@@ -7564,7 +7561,7 @@
         <v>81</v>
       </c>
       <c r="L31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M31">
         <v>124</v>
@@ -7576,7 +7573,7 @@
         <v>35</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>14</v>
@@ -7630,7 +7627,7 @@
         <v>0.08900000000000001</v>
       </c>
       <c r="AH31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI31">
         <v>1.79</v>
@@ -7782,7 +7779,7 @@
         <v>81</v>
       </c>
       <c r="L32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M32">
         <v>88</v>
@@ -7794,7 +7791,7 @@
         <v>19</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>15</v>
@@ -7848,7 +7845,7 @@
         <v>0.034</v>
       </c>
       <c r="AH32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI32">
         <v>0.99</v>
@@ -8000,7 +7997,7 @@
         <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M33">
         <v>124</v>
@@ -8012,7 +8009,7 @@
         <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>15</v>
@@ -8066,7 +8063,7 @@
         <v>0.065</v>
       </c>
       <c r="AH33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI33">
         <v>1.02</v>
@@ -8218,7 +8215,7 @@
         <v>82</v>
       </c>
       <c r="L34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M34">
         <v>264</v>
@@ -8230,7 +8227,7 @@
         <v>49</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>30</v>
@@ -8284,7 +8281,7 @@
         <v>0.064</v>
       </c>
       <c r="AH34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AI34">
         <v>0.97</v>
@@ -8436,7 +8433,7 @@
         <v>82</v>
       </c>
       <c r="L35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M35">
         <v>77</v>
@@ -8448,7 +8445,7 @@
         <v>13</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8502,7 +8499,7 @@
         <v>0.091</v>
       </c>
       <c r="AH35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI35">
         <v>1</v>
@@ -8654,7 +8651,7 @@
         <v>82</v>
       </c>
       <c r="L36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M36">
         <v>313</v>
@@ -8666,7 +8663,7 @@
         <v>68</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>29</v>
@@ -8720,7 +8717,7 @@
         <v>0.096</v>
       </c>
       <c r="AH36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AI36">
         <v>1.29</v>
@@ -8872,7 +8869,7 @@
         <v>82</v>
       </c>
       <c r="L37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M37">
         <v>105</v>
@@ -8884,7 +8881,7 @@
         <v>21</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8938,7 +8935,7 @@
         <v>0.114</v>
       </c>
       <c r="AH37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI37">
         <v>1.36</v>
@@ -9090,7 +9087,7 @@
         <v>83</v>
       </c>
       <c r="L38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M38">
         <v>110</v>
@@ -9102,7 +9099,7 @@
         <v>24</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -9156,7 +9153,7 @@
         <v>0.164</v>
       </c>
       <c r="AH38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AI38">
         <v>1.83</v>
@@ -9308,7 +9305,7 @@
         <v>83</v>
       </c>
       <c r="L39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M39">
         <v>136</v>
@@ -9320,7 +9317,7 @@
         <v>39</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>21</v>
@@ -9374,7 +9371,7 @@
         <v>0.066</v>
       </c>
       <c r="AH39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI39">
         <v>1.58</v>
@@ -9526,7 +9523,7 @@
         <v>83</v>
       </c>
       <c r="L40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M40">
         <v>91</v>
@@ -9538,7 +9535,7 @@
         <v>21</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>18</v>
@@ -9592,7 +9589,7 @@
         <v>0.11</v>
       </c>
       <c r="AH40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AI40">
         <v>1.52</v>
@@ -9744,7 +9741,7 @@
         <v>83</v>
       </c>
       <c r="L41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M41">
         <v>128</v>
@@ -9756,7 +9753,7 @@
         <v>32</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>19</v>
@@ -9810,7 +9807,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AH41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AI41">
         <v>1.41</v>
@@ -9962,7 +9959,7 @@
         <v>84</v>
       </c>
       <c r="L42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M42">
         <v>304</v>
@@ -9974,7 +9971,7 @@
         <v>77</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>43</v>
@@ -10028,7 +10025,7 @@
         <v>0.109</v>
       </c>
       <c r="AH42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AI42">
         <v>1.6</v>
@@ -10180,7 +10177,7 @@
         <v>84</v>
       </c>
       <c r="L43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M43">
         <v>97</v>
@@ -10192,7 +10189,7 @@
         <v>24</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>18</v>
@@ -10246,7 +10243,7 @@
         <v>0.062</v>
       </c>
       <c r="AH43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AI43">
         <v>1.29</v>
@@ -10398,7 +10395,7 @@
         <v>84</v>
       </c>
       <c r="L44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M44">
         <v>315</v>
@@ -10410,7 +10407,7 @@
         <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>44</v>
@@ -10464,7 +10461,7 @@
         <v>0.04099999999999999</v>
       </c>
       <c r="AH44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI44">
         <v>1.26</v>
@@ -10616,7 +10613,7 @@
         <v>84</v>
       </c>
       <c r="L45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M45">
         <v>91</v>
@@ -10628,7 +10625,7 @@
         <v>34</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -10682,7 +10679,7 @@
         <v>0.077</v>
       </c>
       <c r="AH45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AI45">
         <v>2.41</v>
@@ -10831,10 +10828,10 @@
         <v>85</v>
       </c>
       <c r="K46" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="L46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M46">
         <v>4</v>
@@ -10846,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10900,7 +10897,7 @@
         <v>0.25</v>
       </c>
       <c r="AH46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI46">
         <v>3</v>
@@ -11049,10 +11046,10 @@
         <v>85</v>
       </c>
       <c r="K47" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="L47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M47">
         <v>9</v>
@@ -11064,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -11118,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="AH47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI47">
         <v>0</v>
@@ -11267,10 +11264,10 @@
         <v>85</v>
       </c>
       <c r="K48" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="L48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M48">
         <v>14</v>
@@ -11282,7 +11279,7 @@
         <v>3</v>
       </c>
       <c r="P48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11336,7 +11333,7 @@
         <v>0.143</v>
       </c>
       <c r="AH48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AI48">
         <v>1.88</v>
@@ -11485,10 +11482,10 @@
         <v>85</v>
       </c>
       <c r="K49" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="L49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M49">
         <v>7</v>
@@ -11500,7 +11497,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11554,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AH49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI49">
         <v>7.5</v>
@@ -11706,7 +11703,7 @@
         <v>86</v>
       </c>
       <c r="L50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M50">
         <v>42</v>
@@ -11718,7 +11715,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11772,7 +11769,7 @@
         <v>0.048</v>
       </c>
       <c r="AH50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI50">
         <v>0.58</v>
@@ -11924,7 +11921,7 @@
         <v>86</v>
       </c>
       <c r="L51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M51">
         <v>42</v>
@@ -11936,7 +11933,7 @@
         <v>6</v>
       </c>
       <c r="P51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11990,7 +11987,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="AH51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI51">
         <v>0.82</v>
@@ -12142,7 +12139,7 @@
         <v>86</v>
       </c>
       <c r="L52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M52">
         <v>268</v>
@@ -12154,7 +12151,7 @@
         <v>53</v>
       </c>
       <c r="P52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q52">
         <v>22</v>
@@ -12208,7 +12205,7 @@
         <v>0.045</v>
       </c>
       <c r="AH52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI52">
         <v>0.95</v>
@@ -12360,7 +12357,7 @@
         <v>86</v>
       </c>
       <c r="L53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M53">
         <v>214</v>
@@ -12372,7 +12369,7 @@
         <v>38</v>
       </c>
       <c r="P53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q53">
         <v>16</v>
@@ -12426,7 +12423,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="AH53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI53">
         <v>0.82</v>
@@ -12578,7 +12575,7 @@
         <v>87</v>
       </c>
       <c r="L54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M54">
         <v>140</v>
@@ -12590,7 +12587,7 @@
         <v>31</v>
       </c>
       <c r="P54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q54">
         <v>27</v>
@@ -12644,7 +12641,7 @@
         <v>0.143</v>
       </c>
       <c r="AH54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI54">
         <v>1.72</v>
@@ -12796,7 +12793,7 @@
         <v>87</v>
       </c>
       <c r="L55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M55">
         <v>82</v>
@@ -12808,7 +12805,7 @@
         <v>11</v>
       </c>
       <c r="P55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12862,7 +12859,7 @@
         <v>0.122</v>
       </c>
       <c r="AH55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI55">
         <v>1.03</v>
@@ -13014,7 +13011,7 @@
         <v>87</v>
       </c>
       <c r="L56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M56">
         <v>489</v>
@@ -13026,7 +13023,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q56">
         <v>63</v>
@@ -13080,7 +13077,7 @@
         <v>0.09</v>
       </c>
       <c r="AH56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI56">
         <v>1.43</v>
@@ -13232,7 +13229,7 @@
         <v>87</v>
       </c>
       <c r="L57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M57">
         <v>198</v>
@@ -13244,7 +13241,7 @@
         <v>38</v>
       </c>
       <c r="P57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q57">
         <v>12</v>
@@ -13298,7 +13295,7 @@
         <v>0.096</v>
       </c>
       <c r="AH57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI57">
         <v>1.16</v>
@@ -13450,7 +13447,7 @@
         <v>88</v>
       </c>
       <c r="L58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M58">
         <v>286</v>
@@ -13462,7 +13459,7 @@
         <v>72</v>
       </c>
       <c r="P58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q58">
         <v>39</v>
@@ -13516,7 +13513,7 @@
         <v>0.108</v>
       </c>
       <c r="AH58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI58">
         <v>1.66</v>
@@ -13668,7 +13665,7 @@
         <v>88</v>
       </c>
       <c r="L59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M59">
         <v>35</v>
@@ -13680,7 +13677,7 @@
         <v>5</v>
       </c>
       <c r="P59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -13734,7 +13731,7 @@
         <v>0.114</v>
       </c>
       <c r="AH59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AI59">
         <v>1.08</v>
@@ -13886,7 +13883,7 @@
         <v>88</v>
       </c>
       <c r="L60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M60">
         <v>281</v>
@@ -13898,7 +13895,7 @@
         <v>69</v>
       </c>
       <c r="P60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q60">
         <v>37</v>
@@ -13952,7 +13949,7 @@
         <v>0.096</v>
       </c>
       <c r="AH60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AI60">
         <v>1.49</v>
@@ -14104,7 +14101,7 @@
         <v>88</v>
       </c>
       <c r="L61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M61">
         <v>29</v>
@@ -14116,7 +14113,7 @@
         <v>5</v>
       </c>
       <c r="P61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14170,7 +14167,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="AH61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI61">
         <v>0.91</v>
@@ -14322,7 +14319,7 @@
         <v>89</v>
       </c>
       <c r="L62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M62">
         <v>413</v>
@@ -14334,7 +14331,7 @@
         <v>99</v>
       </c>
       <c r="P62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q62">
         <v>39</v>
@@ -14388,7 +14385,7 @@
         <v>0.061</v>
       </c>
       <c r="AH62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AI62">
         <v>1.3</v>
@@ -14540,7 +14537,7 @@
         <v>89</v>
       </c>
       <c r="L63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M63">
         <v>151</v>
@@ -14552,7 +14549,7 @@
         <v>30</v>
       </c>
       <c r="P63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q63">
         <v>16</v>
@@ -14606,7 +14603,7 @@
         <v>0.113</v>
       </c>
       <c r="AH63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI63">
         <v>1.36</v>
@@ -14758,7 +14755,7 @@
         <v>89</v>
       </c>
       <c r="L64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M64">
         <v>374</v>
@@ -14770,7 +14767,7 @@
         <v>69</v>
       </c>
       <c r="P64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q64">
         <v>43</v>
@@ -14824,7 +14821,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="AH64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI64">
         <v>0.86</v>
@@ -14976,7 +14973,7 @@
         <v>89</v>
       </c>
       <c r="L65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M65">
         <v>142</v>
@@ -14988,7 +14985,7 @@
         <v>17</v>
       </c>
       <c r="P65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -15042,7 +15039,7 @@
         <v>0.042</v>
       </c>
       <c r="AH65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI65">
         <v>0.59</v>

--- a/assets/Pitcher_Stats.xlsx
+++ b/assets/Pitcher_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="293">
   <si>
     <t>Season</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>S. Woods Richardson</t>
+  </si>
+  <si>
+    <t>Roddery Muñoz</t>
   </si>
   <si>
     <t>Seattle Mariners</t>
@@ -1506,7 +1509,7 @@
         <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M2">
         <v>164</v>
@@ -1518,7 +1521,7 @@
         <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>29</v>
@@ -1572,7 +1575,7 @@
         <v>0.159</v>
       </c>
       <c r="AH2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AI2">
         <v>1.95</v>
@@ -1724,7 +1727,7 @@
         <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M3">
         <v>143</v>
@@ -1736,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1790,7 +1793,7 @@
         <v>0.063</v>
       </c>
       <c r="AH3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AI3">
         <v>0.89</v>
@@ -1942,7 +1945,7 @@
         <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M4">
         <v>178</v>
@@ -1954,7 +1957,7 @@
         <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>21</v>
@@ -2008,7 +2011,7 @@
         <v>0.073</v>
       </c>
       <c r="AH4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI4">
         <v>1.26</v>
@@ -2160,7 +2163,7 @@
         <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M5">
         <v>83</v>
@@ -2172,7 +2175,7 @@
         <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2226,7 +2229,7 @@
         <v>0.096</v>
       </c>
       <c r="AH5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI5">
         <v>1.67</v>
@@ -2378,7 +2381,7 @@
         <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M6">
         <v>85</v>
@@ -2390,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2444,7 +2447,7 @@
         <v>0.047</v>
       </c>
       <c r="AH6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI6">
         <v>0.84</v>
@@ -2596,7 +2599,7 @@
         <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M7">
         <v>64</v>
@@ -2608,7 +2611,7 @@
         <v>14</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2662,7 +2665,7 @@
         <v>0.031</v>
       </c>
       <c r="AH7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2814,7 +2817,7 @@
         <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M8">
         <v>374</v>
@@ -2826,7 +2829,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>43</v>
@@ -2880,7 +2883,7 @@
         <v>0.107</v>
       </c>
       <c r="AH8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AI8">
         <v>1.44</v>
@@ -3032,7 +3035,7 @@
         <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M9">
         <v>218</v>
@@ -3044,7 +3047,7 @@
         <v>47</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>24</v>
@@ -3098,7 +3101,7 @@
         <v>0.073</v>
       </c>
       <c r="AH9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AI9">
         <v>1.19</v>
@@ -3250,7 +3253,7 @@
         <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M10">
         <v>128</v>
@@ -3262,7 +3265,7 @@
         <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3316,7 +3319,7 @@
         <v>0.172</v>
       </c>
       <c r="AH10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI10">
         <v>1.94</v>
@@ -3468,7 +3471,7 @@
         <v>76</v>
       </c>
       <c r="L11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M11">
         <v>46</v>
@@ -3480,7 +3483,7 @@
         <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3534,7 +3537,7 @@
         <v>0.109</v>
       </c>
       <c r="AH11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI11">
         <v>1.76</v>
@@ -3686,7 +3689,7 @@
         <v>76</v>
       </c>
       <c r="L12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M12">
         <v>513</v>
@@ -3698,7 +3701,7 @@
         <v>114</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>62</v>
@@ -3752,7 +3755,7 @@
         <v>0.07400000000000001</v>
       </c>
       <c r="AH12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AI12">
         <v>1.26</v>
@@ -3904,7 +3907,7 @@
         <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M13">
         <v>198</v>
@@ -3916,7 +3919,7 @@
         <v>47</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>24</v>
@@ -3970,7 +3973,7 @@
         <v>0.045</v>
       </c>
       <c r="AH13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI13">
         <v>1.2</v>
@@ -4122,7 +4125,7 @@
         <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14">
         <v>107</v>
@@ -4134,7 +4137,7 @@
         <v>21</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4188,7 +4191,7 @@
         <v>0.121</v>
       </c>
       <c r="AH14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AI14">
         <v>1.4</v>
@@ -4340,7 +4343,7 @@
         <v>77</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15">
         <v>99</v>
@@ -4352,7 +4355,7 @@
         <v>17</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>11</v>
@@ -4406,7 +4409,7 @@
         <v>0.051</v>
       </c>
       <c r="AH15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI15">
         <v>0.8100000000000001</v>
@@ -4558,7 +4561,7 @@
         <v>78</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16">
         <v>201</v>
@@ -4570,7 +4573,7 @@
         <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>32</v>
@@ -4624,7 +4627,7 @@
         <v>0.075</v>
       </c>
       <c r="AH16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI16">
         <v>1.58</v>
@@ -4776,7 +4779,7 @@
         <v>78</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17">
         <v>97</v>
@@ -4788,7 +4791,7 @@
         <v>15</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4842,7 +4845,7 @@
         <v>0.08199999999999999</v>
       </c>
       <c r="AH17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI17">
         <v>0.88</v>
@@ -4994,7 +4997,7 @@
         <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M18">
         <v>182</v>
@@ -5006,7 +5009,7 @@
         <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>21</v>
@@ -5060,7 +5063,7 @@
         <v>0.055</v>
       </c>
       <c r="AH18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI18">
         <v>1.15</v>
@@ -5212,7 +5215,7 @@
         <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19">
         <v>105</v>
@@ -5224,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5278,7 +5281,7 @@
         <v>0.067</v>
       </c>
       <c r="AH19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI19">
         <v>1.46</v>
@@ -5430,7 +5433,7 @@
         <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M20">
         <v>322</v>
@@ -5442,7 +5445,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>35</v>
@@ -5496,7 +5499,7 @@
         <v>0.065</v>
       </c>
       <c r="AH20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AI20">
         <v>1.56</v>
@@ -5648,7 +5651,7 @@
         <v>79</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M21">
         <v>122</v>
@@ -5660,7 +5663,7 @@
         <v>26</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>14</v>
@@ -5714,7 +5717,7 @@
         <v>0.098</v>
       </c>
       <c r="AH21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI21">
         <v>1.36</v>
@@ -5866,7 +5869,7 @@
         <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M22">
         <v>346</v>
@@ -5878,7 +5881,7 @@
         <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>42</v>
@@ -5932,7 +5935,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="AH22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI22">
         <v>1.14</v>
@@ -6084,7 +6087,7 @@
         <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M23">
         <v>106</v>
@@ -6096,7 +6099,7 @@
         <v>23</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>14</v>
@@ -6150,7 +6153,7 @@
         <v>0.057</v>
       </c>
       <c r="AH23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AI23">
         <v>1.13</v>
@@ -6302,7 +6305,7 @@
         <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M24">
         <v>120</v>
@@ -6314,7 +6317,7 @@
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -6368,7 +6371,7 @@
         <v>0.1</v>
       </c>
       <c r="AH24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AI24">
         <v>1.22</v>
@@ -6520,7 +6523,7 @@
         <v>80</v>
       </c>
       <c r="L25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25">
         <v>119</v>
@@ -6532,7 +6535,7 @@
         <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>18</v>
@@ -6586,7 +6589,7 @@
         <v>0.034</v>
       </c>
       <c r="AH25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AI25">
         <v>1.8</v>
@@ -6738,7 +6741,7 @@
         <v>81</v>
       </c>
       <c r="L26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26">
         <v>351</v>
@@ -6750,7 +6753,7 @@
         <v>68</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>36</v>
@@ -6804,7 +6807,7 @@
         <v>0.134</v>
       </c>
       <c r="AH26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AI26">
         <v>1.46</v>
@@ -6956,7 +6959,7 @@
         <v>81</v>
       </c>
       <c r="L27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M27">
         <v>155</v>
@@ -6968,7 +6971,7 @@
         <v>31</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>18</v>
@@ -7022,7 +7025,7 @@
         <v>0.129</v>
       </c>
       <c r="AH27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AI27">
         <v>1.44</v>
@@ -7174,7 +7177,7 @@
         <v>81</v>
       </c>
       <c r="L28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M28">
         <v>365</v>
@@ -7186,7 +7189,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>34</v>
@@ -7240,7 +7243,7 @@
         <v>0.099</v>
       </c>
       <c r="AH28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AI28">
         <v>1.4</v>
@@ -7392,7 +7395,7 @@
         <v>81</v>
       </c>
       <c r="L29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M29">
         <v>106</v>
@@ -7404,7 +7407,7 @@
         <v>22</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -7458,7 +7461,7 @@
         <v>0.075</v>
       </c>
       <c r="AH29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AI29">
         <v>1.1</v>
@@ -7610,7 +7613,7 @@
         <v>82</v>
       </c>
       <c r="L30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M30">
         <v>362</v>
@@ -7622,7 +7625,7 @@
         <v>70</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>38</v>
@@ -7676,7 +7679,7 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="AH30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AI30">
         <v>1.22</v>
@@ -7828,7 +7831,7 @@
         <v>82</v>
       </c>
       <c r="L31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M31">
         <v>135</v>
@@ -7840,7 +7843,7 @@
         <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7894,7 +7897,7 @@
         <v>0.07400000000000001</v>
       </c>
       <c r="AH31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI31">
         <v>0.99</v>
@@ -8046,7 +8049,7 @@
         <v>82</v>
       </c>
       <c r="L32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M32">
         <v>318</v>
@@ -8058,7 +8061,7 @@
         <v>61</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>39</v>
@@ -8112,7 +8115,7 @@
         <v>0.06</v>
       </c>
       <c r="AH32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI32">
         <v>1.01</v>
@@ -8264,7 +8267,7 @@
         <v>82</v>
       </c>
       <c r="L33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M33">
         <v>137</v>
@@ -8276,7 +8279,7 @@
         <v>26</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>17</v>
@@ -8330,7 +8333,7 @@
         <v>0.08</v>
       </c>
       <c r="AH33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI33">
         <v>1.12</v>
@@ -8482,7 +8485,7 @@
         <v>83</v>
       </c>
       <c r="L34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M34">
         <v>65</v>
@@ -8494,7 +8497,7 @@
         <v>19</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>14</v>
@@ -8548,7 +8551,7 @@
         <v>0.077</v>
       </c>
       <c r="AH34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AI34">
         <v>1.64</v>
@@ -8700,7 +8703,7 @@
         <v>83</v>
       </c>
       <c r="L35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M35">
         <v>114</v>
@@ -8712,7 +8715,7 @@
         <v>24</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -8766,7 +8769,7 @@
         <v>0.123</v>
       </c>
       <c r="AH35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AI35">
         <v>1.46</v>
@@ -8918,7 +8921,7 @@
         <v>83</v>
       </c>
       <c r="L36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M36">
         <v>87</v>
@@ -8930,7 +8933,7 @@
         <v>27</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>18</v>
@@ -8984,7 +8987,7 @@
         <v>0.092</v>
       </c>
       <c r="AH36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI36">
         <v>2.14</v>
@@ -9136,7 +9139,7 @@
         <v>83</v>
       </c>
       <c r="L37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M37">
         <v>139</v>
@@ -9148,7 +9151,7 @@
         <v>31</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>11</v>
@@ -9202,7 +9205,7 @@
         <v>0.036</v>
       </c>
       <c r="AH37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AI37">
         <v>1</v>
@@ -9354,7 +9357,7 @@
         <v>84</v>
       </c>
       <c r="L38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M38">
         <v>310</v>
@@ -9366,7 +9369,7 @@
         <v>68</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>37</v>
@@ -9420,7 +9423,7 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="AH38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AI38">
         <v>1.34</v>
@@ -9572,7 +9575,7 @@
         <v>84</v>
       </c>
       <c r="L39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M39">
         <v>140</v>
@@ -9584,7 +9587,7 @@
         <v>34</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>18</v>
@@ -9638,7 +9641,7 @@
         <v>0.107</v>
       </c>
       <c r="AH39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI39">
         <v>1.53</v>
@@ -9790,7 +9793,7 @@
         <v>84</v>
       </c>
       <c r="L40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M40">
         <v>355</v>
@@ -9802,7 +9805,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>57</v>
@@ -9856,7 +9859,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AH40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AI40">
         <v>1.38</v>
@@ -10008,7 +10011,7 @@
         <v>84</v>
       </c>
       <c r="L41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M41">
         <v>107</v>
@@ -10020,7 +10023,7 @@
         <v>28</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>21</v>
@@ -10074,7 +10077,7 @@
         <v>0.09300000000000001</v>
       </c>
       <c r="AH41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AI41">
         <v>1.63</v>
@@ -10226,7 +10229,7 @@
         <v>85</v>
       </c>
       <c r="L42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M42">
         <v>349</v>
@@ -10238,7 +10241,7 @@
         <v>80</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>39</v>
@@ -10292,7 +10295,7 @@
         <v>0.08</v>
       </c>
       <c r="AH42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AI42">
         <v>1.33</v>
@@ -10444,7 +10447,7 @@
         <v>85</v>
       </c>
       <c r="L43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M43">
         <v>116</v>
@@ -10456,7 +10459,7 @@
         <v>33</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>18</v>
@@ -10510,7 +10513,7 @@
         <v>0.078</v>
       </c>
       <c r="AH43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AI43">
         <v>1.66</v>
@@ -10662,7 +10665,7 @@
         <v>85</v>
       </c>
       <c r="L44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M44">
         <v>414</v>
@@ -10674,7 +10677,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>33</v>
@@ -10728,7 +10731,7 @@
         <v>0.065</v>
       </c>
       <c r="AH44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AI44">
         <v>1.06</v>
@@ -10880,7 +10883,7 @@
         <v>85</v>
       </c>
       <c r="L45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M45">
         <v>144</v>
@@ -10892,7 +10895,7 @@
         <v>33</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>18</v>
@@ -10946,7 +10949,7 @@
         <v>0.042</v>
       </c>
       <c r="AH45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AI45">
         <v>1.1</v>
@@ -11098,7 +11101,7 @@
         <v>86</v>
       </c>
       <c r="L46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M46">
         <v>303</v>
@@ -11110,7 +11113,7 @@
         <v>60</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>22</v>
@@ -11164,7 +11167,7 @@
         <v>0.08900000000000001</v>
       </c>
       <c r="AH46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI46">
         <v>1.18</v>
@@ -11316,7 +11319,7 @@
         <v>86</v>
       </c>
       <c r="L47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M47">
         <v>58</v>
@@ -11328,7 +11331,7 @@
         <v>10</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -11382,7 +11385,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="AH47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI47">
         <v>1.13</v>
@@ -11534,7 +11537,7 @@
         <v>86</v>
       </c>
       <c r="L48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M48">
         <v>368</v>
@@ -11546,7 +11549,7 @@
         <v>72</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>32</v>
@@ -11600,7 +11603,7 @@
         <v>0.046</v>
       </c>
       <c r="AH48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI48">
         <v>0.9399999999999999</v>
@@ -11752,7 +11755,7 @@
         <v>86</v>
       </c>
       <c r="L49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M49">
         <v>67</v>
@@ -11764,7 +11767,7 @@
         <v>13</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -11818,7 +11821,7 @@
         <v>0.134</v>
       </c>
       <c r="AH49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI49">
         <v>1.47</v>
@@ -11970,7 +11973,7 @@
         <v>87</v>
       </c>
       <c r="L50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M50">
         <v>401</v>
@@ -11982,7 +11985,7 @@
         <v>107</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>52</v>
@@ -12036,7 +12039,7 @@
         <v>0.065</v>
       </c>
       <c r="AH50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AI50">
         <v>1.42</v>
@@ -12188,7 +12191,7 @@
         <v>87</v>
       </c>
       <c r="L51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M51">
         <v>157</v>
@@ -12200,7 +12203,7 @@
         <v>33</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>23</v>
@@ -12254,7 +12257,7 @@
         <v>0.115</v>
       </c>
       <c r="AH51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AI51">
         <v>1.42</v>
@@ -12406,7 +12409,7 @@
         <v>87</v>
       </c>
       <c r="L52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M52">
         <v>406</v>
@@ -12418,7 +12421,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>49</v>
@@ -12472,7 +12475,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="AH52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AI52">
         <v>1.22</v>
@@ -12624,7 +12627,7 @@
         <v>87</v>
       </c>
       <c r="L53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M53">
         <v>136</v>
@@ -12636,7 +12639,7 @@
         <v>26</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -12690,7 +12693,7 @@
         <v>0.07400000000000001</v>
       </c>
       <c r="AH53" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI53">
         <v>1.04</v>
@@ -12842,7 +12845,7 @@
         <v>88</v>
       </c>
       <c r="L54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M54">
         <v>431</v>
@@ -12854,7 +12857,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>54</v>
@@ -12908,7 +12911,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="AH54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI54">
         <v>1.21</v>
@@ -13060,7 +13063,7 @@
         <v>88</v>
       </c>
       <c r="L55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M55">
         <v>152</v>
@@ -13072,7 +13075,7 @@
         <v>36</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>14</v>
@@ -13126,7 +13129,7 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="AH55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AI55">
         <v>1.34</v>
@@ -13278,7 +13281,7 @@
         <v>88</v>
       </c>
       <c r="L56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M56">
         <v>371</v>
@@ -13290,7 +13293,7 @@
         <v>71</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>27</v>
@@ -13344,7 +13347,7 @@
         <v>0.05400000000000001</v>
       </c>
       <c r="AH56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AI56">
         <v>0.97</v>
@@ -13496,7 +13499,7 @@
         <v>88</v>
       </c>
       <c r="L57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M57">
         <v>168</v>
@@ -13508,7 +13511,7 @@
         <v>32</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>14</v>
@@ -13562,7 +13565,7 @@
         <v>0.065</v>
       </c>
       <c r="AH57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AI57">
         <v>0.99</v>
@@ -13714,7 +13717,7 @@
         <v>89</v>
       </c>
       <c r="L58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M58">
         <v>217</v>
@@ -13726,7 +13729,7 @@
         <v>49</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>35</v>
@@ -13780,7 +13783,7 @@
         <v>0.124</v>
       </c>
       <c r="AH58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AI58">
         <v>1.61</v>
@@ -13932,7 +13935,7 @@
         <v>89</v>
       </c>
       <c r="L59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M59">
         <v>9</v>
@@ -13944,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -13998,7 +14001,7 @@
         <v>0.111</v>
       </c>
       <c r="AH59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AI59">
         <v>0.86</v>
@@ -14150,7 +14153,7 @@
         <v>89</v>
       </c>
       <c r="L60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M60">
         <v>278</v>
@@ -14162,7 +14165,7 @@
         <v>60</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>38</v>
@@ -14216,7 +14219,7 @@
         <v>0.108</v>
       </c>
       <c r="AH60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AI60">
         <v>1.44</v>
@@ -14368,7 +14371,7 @@
         <v>89</v>
       </c>
       <c r="L61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M61">
         <v>12</v>
@@ -14380,7 +14383,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -14434,7 +14437,7 @@
         <v>0.083</v>
       </c>
       <c r="AH61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AI61">
         <v>0.6</v>
@@ -14586,7 +14589,7 @@
         <v>90</v>
       </c>
       <c r="L62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M62">
         <v>177</v>
@@ -14598,7 +14601,7 @@
         <v>50</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>30</v>
@@ -14652,7 +14655,7 @@
         <v>0.136</v>
       </c>
       <c r="AH62" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AI62">
         <v>2.07</v>
@@ -14804,7 +14807,7 @@
         <v>90</v>
       </c>
       <c r="L63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M63">
         <v>49</v>
@@ -14816,7 +14819,7 @@
         <v>6</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -14870,7 +14873,7 @@
         <v>0.224</v>
       </c>
       <c r="AH63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI63">
         <v>1.7</v>
@@ -15022,7 +15025,7 @@
         <v>90</v>
       </c>
       <c r="L64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M64">
         <v>223</v>
@@ -15034,7 +15037,7 @@
         <v>49</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>20</v>
@@ -15088,7 +15091,7 @@
         <v>0.108</v>
       </c>
       <c r="AH64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AI64">
         <v>1.43</v>
@@ -15240,7 +15243,7 @@
         <v>90</v>
       </c>
       <c r="L65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M65">
         <v>95</v>
@@ -15252,7 +15255,7 @@
         <v>17</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -15306,7 +15309,7 @@
         <v>0.053</v>
       </c>
       <c r="AH65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI65">
         <v>0.93</v>
@@ -15458,7 +15461,7 @@
         <v>168</v>
       </c>
       <c r="L66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M66">
         <v>132</v>
@@ -15470,7 +15473,7 @@
         <v>36</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -15524,7 +15527,7 @@
         <v>0.136</v>
       </c>
       <c r="AH66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI66">
         <v>1.98</v>
@@ -15676,7 +15679,7 @@
         <v>168</v>
       </c>
       <c r="L67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M67">
         <v>60</v>
@@ -15688,7 +15691,7 @@
         <v>14</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15742,7 +15745,7 @@
         <v>0.117</v>
       </c>
       <c r="AH67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AI67">
         <v>1.47</v>
@@ -15894,7 +15897,7 @@
         <v>168</v>
       </c>
       <c r="L68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M68">
         <v>450</v>
@@ -15906,7 +15909,7 @@
         <v>98</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>62</v>
@@ -15960,7 +15963,7 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="AH68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AI68">
         <v>1.26</v>
@@ -16112,7 +16115,7 @@
         <v>168</v>
       </c>
       <c r="L69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M69">
         <v>211</v>
@@ -16124,7 +16127,7 @@
         <v>51</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>27</v>
@@ -16178,7 +16181,7 @@
         <v>0.066</v>
       </c>
       <c r="AH69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AI69">
         <v>1.34</v>
@@ -16330,7 +16333,7 @@
         <v>92</v>
       </c>
       <c r="L70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M70">
         <v>85</v>
@@ -16342,7 +16345,7 @@
         <v>20</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -16396,7 +16399,7 @@
         <v>0.106</v>
       </c>
       <c r="AH70" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AI70">
         <v>1.53</v>
@@ -16548,7 +16551,7 @@
         <v>92</v>
       </c>
       <c r="L71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M71">
         <v>134</v>
@@ -16560,7 +16563,7 @@
         <v>37</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>15</v>
@@ -16614,7 +16617,7 @@
         <v>0.08199999999999999</v>
       </c>
       <c r="AH71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI71">
         <v>1.69</v>
@@ -16766,7 +16769,7 @@
         <v>92</v>
       </c>
       <c r="L72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M72">
         <v>88</v>
@@ -16778,7 +16781,7 @@
         <v>19</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>15</v>
@@ -16832,7 +16835,7 @@
         <v>0.034</v>
       </c>
       <c r="AH72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI72">
         <v>0.99</v>
@@ -16984,7 +16987,7 @@
         <v>92</v>
       </c>
       <c r="L73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M73">
         <v>135</v>
@@ -16996,7 +16999,7 @@
         <v>24</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>15</v>
@@ -17050,7 +17053,7 @@
         <v>0.059</v>
       </c>
       <c r="AH73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AI73">
         <v>0.91</v>
@@ -17202,7 +17205,7 @@
         <v>93</v>
       </c>
       <c r="L74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M74">
         <v>45</v>
@@ -17214,7 +17217,7 @@
         <v>7</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -17268,7 +17271,7 @@
         <v>0.044</v>
       </c>
       <c r="AH74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI74">
         <v>0.73</v>
@@ -17420,7 +17423,7 @@
         <v>93</v>
       </c>
       <c r="L75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M75">
         <v>50</v>
@@ -17432,7 +17435,7 @@
         <v>10</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -17486,7 +17489,7 @@
         <v>0.08</v>
       </c>
       <c r="AH75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AI75">
         <v>1.2</v>
@@ -17638,7 +17641,7 @@
         <v>93</v>
       </c>
       <c r="L76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M76">
         <v>221</v>
@@ -17650,7 +17653,7 @@
         <v>52</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>27</v>
@@ -17704,7 +17707,7 @@
         <v>0.081</v>
       </c>
       <c r="AH76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI76">
         <v>1.37</v>
@@ -17856,7 +17859,7 @@
         <v>93</v>
       </c>
       <c r="L77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M77">
         <v>254</v>
@@ -17868,7 +17871,7 @@
         <v>57</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>28</v>
@@ -17922,7 +17925,7 @@
         <v>0.043</v>
       </c>
       <c r="AH77" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AI77">
         <v>1.07</v>
@@ -18074,7 +18077,7 @@
         <v>94</v>
       </c>
       <c r="L78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M78">
         <v>38</v>
@@ -18086,7 +18089,7 @@
         <v>7</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -18140,7 +18143,7 @@
         <v>0.342</v>
       </c>
       <c r="AH78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AI78">
         <v>3.33</v>
@@ -18292,7 +18295,7 @@
         <v>94</v>
       </c>
       <c r="L79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M79">
         <v>65</v>
@@ -18304,7 +18307,7 @@
         <v>15</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>16</v>
@@ -18358,7 +18361,7 @@
         <v>0.108</v>
       </c>
       <c r="AH79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AI79">
         <v>1.53</v>
@@ -18510,7 +18513,7 @@
         <v>95</v>
       </c>
       <c r="L80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M80">
         <v>93</v>
@@ -18522,7 +18525,7 @@
         <v>19</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>9</v>
@@ -18576,7 +18579,7 @@
         <v>0.032</v>
       </c>
       <c r="AH80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AI80">
         <v>0.88</v>
@@ -18728,7 +18731,7 @@
         <v>95</v>
       </c>
       <c r="L81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M81">
         <v>55</v>
@@ -18740,7 +18743,7 @@
         <v>8</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -18794,7 +18797,7 @@
         <v>0.018</v>
       </c>
       <c r="AH81" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI81">
         <v>0.59</v>
@@ -18946,7 +18949,7 @@
         <v>95</v>
       </c>
       <c r="L82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M82">
         <v>447</v>
@@ -18958,7 +18961,7 @@
         <v>110</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>50</v>
@@ -19012,7 +19015,7 @@
         <v>0.101</v>
       </c>
       <c r="AH82" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AI82">
         <v>1.55</v>
@@ -19164,7 +19167,7 @@
         <v>95</v>
       </c>
       <c r="L83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M83">
         <v>222</v>
@@ -19176,7 +19179,7 @@
         <v>35</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>13</v>
@@ -19230,7 +19233,7 @@
         <v>0.068</v>
       </c>
       <c r="AH83" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AI83">
         <v>0.85</v>
@@ -19379,10 +19382,10 @@
         <v>96</v>
       </c>
       <c r="K84" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="L84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M84">
         <v>25</v>
@@ -19394,7 +19397,7 @@
         <v>6</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -19448,7 +19451,7 @@
         <v>0.12</v>
       </c>
       <c r="AH84" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AI84">
         <v>1.69</v>
@@ -19597,10 +19600,10 @@
         <v>96</v>
       </c>
       <c r="K85" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="L85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M85">
         <v>41</v>
@@ -19612,7 +19615,7 @@
         <v>6</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19666,7 +19669,7 @@
         <v>0.098</v>
       </c>
       <c r="AH85" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AI85">
         <v>0.97</v>
@@ -19818,7 +19821,7 @@
         <v>97</v>
       </c>
       <c r="L86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M86">
         <v>110</v>
@@ -19830,7 +19833,7 @@
         <v>24</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>11</v>
@@ -19884,7 +19887,7 @@
         <v>0.164</v>
       </c>
       <c r="AH86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AI86">
         <v>1.83</v>
@@ -20036,7 +20039,7 @@
         <v>97</v>
       </c>
       <c r="L87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M87">
         <v>151</v>
@@ -20048,7 +20051,7 @@
         <v>46</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>28</v>
@@ -20102,7 +20105,7 @@
         <v>0.06</v>
       </c>
       <c r="AH87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AI87">
         <v>1.67</v>
@@ -20254,7 +20257,7 @@
         <v>97</v>
       </c>
       <c r="L88" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M88">
         <v>91</v>
@@ -20266,7 +20269,7 @@
         <v>21</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>18</v>
@@ -20320,7 +20323,7 @@
         <v>0.11</v>
       </c>
       <c r="AH88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI88">
         <v>1.52</v>
@@ -20472,7 +20475,7 @@
         <v>97</v>
       </c>
       <c r="L89" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M89">
         <v>135</v>
@@ -20484,7 +20487,7 @@
         <v>35</v>
       </c>
       <c r="P89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>20</v>
@@ -20538,7 +20541,7 @@
         <v>0.067</v>
       </c>
       <c r="AH89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AI89">
         <v>1.43</v>
@@ -20690,7 +20693,7 @@
         <v>98</v>
       </c>
       <c r="L90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M90">
         <v>304</v>
@@ -20702,7 +20705,7 @@
         <v>77</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>43</v>
@@ -20756,7 +20759,7 @@
         <v>0.109</v>
       </c>
       <c r="AH90" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AI90">
         <v>1.6</v>
@@ -20908,7 +20911,7 @@
         <v>98</v>
       </c>
       <c r="L91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M91">
         <v>112</v>
@@ -20920,7 +20923,7 @@
         <v>26</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q91">
         <v>18</v>
@@ -20974,7 +20977,7 @@
         <v>0.05400000000000001</v>
       </c>
       <c r="AH91" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AI91">
         <v>1.13</v>
@@ -21126,7 +21129,7 @@
         <v>98</v>
       </c>
       <c r="L92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M92">
         <v>315</v>
@@ -21138,7 +21141,7 @@
         <v>82</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q92">
         <v>44</v>
@@ -21192,7 +21195,7 @@
         <v>0.04099999999999999</v>
       </c>
       <c r="AH92" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AI92">
         <v>1.26</v>
@@ -21344,7 +21347,7 @@
         <v>98</v>
       </c>
       <c r="L93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M93">
         <v>103</v>
@@ -21356,7 +21359,7 @@
         <v>38</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q93">
         <v>12</v>
@@ -21410,7 +21413,7 @@
         <v>0.068</v>
       </c>
       <c r="AH93" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AI93">
         <v>2.29</v>
@@ -21562,7 +21565,7 @@
         <v>99</v>
       </c>
       <c r="L94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M94">
         <v>172</v>
@@ -21574,7 +21577,7 @@
         <v>31</v>
       </c>
       <c r="P94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q94">
         <v>16</v>
@@ -21628,7 +21631,7 @@
         <v>0.081</v>
       </c>
       <c r="AH94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI94">
         <v>1.08</v>
@@ -21780,7 +21783,7 @@
         <v>99</v>
       </c>
       <c r="L95" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M95">
         <v>37</v>
@@ -21792,7 +21795,7 @@
         <v>9</v>
       </c>
       <c r="P95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21846,7 +21849,7 @@
         <v>0.081</v>
       </c>
       <c r="AH95" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AI95">
         <v>1.38</v>
@@ -21998,7 +22001,7 @@
         <v>99</v>
       </c>
       <c r="L96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M96">
         <v>327</v>
@@ -22010,7 +22013,7 @@
         <v>73</v>
       </c>
       <c r="P96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q96">
         <v>52</v>
@@ -22064,7 +22067,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="AH96" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI96">
         <v>1.33</v>
@@ -22216,7 +22219,7 @@
         <v>99</v>
       </c>
       <c r="L97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M97">
         <v>205</v>
@@ -22228,7 +22231,7 @@
         <v>41</v>
       </c>
       <c r="P97" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q97">
         <v>22</v>
@@ -22282,7 +22285,7 @@
         <v>0.102</v>
       </c>
       <c r="AH97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AI97">
         <v>1.28</v>
@@ -22434,7 +22437,7 @@
         <v>100</v>
       </c>
       <c r="L98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M98">
         <v>11</v>
@@ -22446,7 +22449,7 @@
         <v>3</v>
       </c>
       <c r="P98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -22500,7 +22503,7 @@
         <v>0.091</v>
       </c>
       <c r="AH98" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AI98">
         <v>1.71</v>
@@ -22652,7 +22655,7 @@
         <v>100</v>
       </c>
       <c r="L99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M99">
         <v>72</v>
@@ -22664,7 +22667,7 @@
         <v>12</v>
       </c>
       <c r="P99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -22718,7 +22721,7 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="AH99" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AI99">
         <v>1.12</v>
@@ -22870,7 +22873,7 @@
         <v>100</v>
       </c>
       <c r="L100" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M100">
         <v>13</v>
@@ -22882,7 +22885,7 @@
         <v>4</v>
       </c>
       <c r="P100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -22936,7 +22939,7 @@
         <v>0.154</v>
       </c>
       <c r="AH100" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI100">
         <v>2.57</v>
@@ -23088,7 +23091,7 @@
         <v>100</v>
       </c>
       <c r="L101" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M101">
         <v>109</v>
@@ -23100,7 +23103,7 @@
         <v>26</v>
       </c>
       <c r="P101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q101">
         <v>13</v>
@@ -23154,7 +23157,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="AH101" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AI101">
         <v>1.1</v>
@@ -23306,7 +23309,7 @@
         <v>101</v>
       </c>
       <c r="L102" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M102">
         <v>4</v>
@@ -23318,7 +23321,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -23372,7 +23375,7 @@
         <v>0.25</v>
       </c>
       <c r="AH102" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AI102">
         <v>3</v>
@@ -23524,7 +23527,7 @@
         <v>101</v>
       </c>
       <c r="L103" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M103">
         <v>17</v>
@@ -23536,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="P103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -23590,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="AH103" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AI103">
         <v>0</v>
@@ -23742,7 +23745,7 @@
         <v>101</v>
       </c>
       <c r="L104" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M104">
         <v>14</v>
@@ -23754,7 +23757,7 @@
         <v>3</v>
       </c>
       <c r="P104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -23808,7 +23811,7 @@
         <v>0.143</v>
       </c>
       <c r="AH104" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AI104">
         <v>1.88</v>
@@ -23960,7 +23963,7 @@
         <v>101</v>
       </c>
       <c r="L105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M105">
         <v>17</v>
@@ -23972,7 +23975,7 @@
         <v>9</v>
       </c>
       <c r="P105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -24026,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="AH105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AI105">
         <v>3.38</v>
@@ -24178,7 +24181,7 @@
         <v>102</v>
       </c>
       <c r="L106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M106">
         <v>230</v>
@@ -24190,7 +24193,7 @@
         <v>47</v>
       </c>
       <c r="P106" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q106">
         <v>31</v>
@@ -24244,7 +24247,7 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="AH106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AI106">
         <v>1.23</v>
@@ -24396,7 +24399,7 @@
         <v>102</v>
       </c>
       <c r="L107" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M107">
         <v>60</v>
@@ -24408,7 +24411,7 @@
         <v>15</v>
       </c>
       <c r="P107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -24462,7 +24465,7 @@
         <v>0.05</v>
       </c>
       <c r="AH107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI107">
         <v>1.29</v>
@@ -24614,7 +24617,7 @@
         <v>102</v>
       </c>
       <c r="L108" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M108">
         <v>230</v>
@@ -24626,7 +24629,7 @@
         <v>59</v>
       </c>
       <c r="P108" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q108">
         <v>38</v>
@@ -24680,7 +24683,7 @@
         <v>0.083</v>
       </c>
       <c r="AH108" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI108">
         <v>1.56</v>
@@ -24832,7 +24835,7 @@
         <v>102</v>
       </c>
       <c r="L109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M109">
         <v>52</v>
@@ -24844,7 +24847,7 @@
         <v>9</v>
       </c>
       <c r="P109" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -24898,7 +24901,7 @@
         <v>0.115</v>
       </c>
       <c r="AH109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AI109">
         <v>1.22</v>
@@ -25050,7 +25053,7 @@
         <v>103</v>
       </c>
       <c r="L110" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M110">
         <v>140</v>
@@ -25062,7 +25065,7 @@
         <v>31</v>
       </c>
       <c r="P110" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q110">
         <v>27</v>
@@ -25116,7 +25119,7 @@
         <v>0.143</v>
       </c>
       <c r="AH110" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI110">
         <v>1.72</v>
@@ -25268,7 +25271,7 @@
         <v>103</v>
       </c>
       <c r="L111" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M111">
         <v>88</v>
@@ -25280,7 +25283,7 @@
         <v>11</v>
       </c>
       <c r="P111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -25334,7 +25337,7 @@
         <v>0.114</v>
       </c>
       <c r="AH111" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AI111">
         <v>0.9399999999999999</v>
@@ -25486,7 +25489,7 @@
         <v>103</v>
       </c>
       <c r="L112" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M112">
         <v>489</v>
@@ -25498,7 +25501,7 @@
         <v>115</v>
       </c>
       <c r="P112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q112">
         <v>63</v>
@@ -25552,7 +25555,7 @@
         <v>0.09</v>
       </c>
       <c r="AH112" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI112">
         <v>1.43</v>
@@ -25704,7 +25707,7 @@
         <v>103</v>
       </c>
       <c r="L113" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M113">
         <v>218</v>
@@ -25716,7 +25719,7 @@
         <v>43</v>
       </c>
       <c r="P113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q113">
         <v>13</v>
@@ -25770,7 +25773,7 @@
         <v>0.101</v>
       </c>
       <c r="AH113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AI113">
         <v>1.21</v>

--- a/assets/Pitcher_Stats.xlsx
+++ b/assets/Pitcher_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="186">
   <si>
     <t>Season</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>S. Arrighetti</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
   </si>
   <si>
     <t>José Berríos</t>
@@ -1182,10 +1185,10 @@
         <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M2">
         <v>50</v>
@@ -1197,7 +1200,7 @@
         <v>8</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1251,7 +1254,7 @@
         <v>0.12</v>
       </c>
       <c r="AH2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI2">
         <v>1.24</v>
@@ -1400,10 +1403,10 @@
         <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M3">
         <v>47</v>
@@ -1415,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1469,7 +1472,7 @@
         <v>0.064</v>
       </c>
       <c r="AH3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -1618,10 +1621,10 @@
         <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="L4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M4">
         <v>236</v>
@@ -1633,7 +1636,7 @@
         <v>57</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>40</v>
@@ -1687,7 +1690,7 @@
         <v>0.09300000000000001</v>
       </c>
       <c r="AH4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AI4">
         <v>1.49</v>
@@ -1836,10 +1839,10 @@
         <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="L5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M5">
         <v>253</v>
@@ -1851,7 +1854,7 @@
         <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>22</v>
@@ -1905,7 +1908,7 @@
         <v>0.067</v>
       </c>
       <c r="AH5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AI5">
         <v>1.1</v>
@@ -2057,7 +2060,7 @@
         <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -2069,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2123,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AH6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI6">
         <v>0.75</v>
@@ -2275,7 +2278,7 @@
         <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7">
         <v>147</v>
@@ -2287,7 +2290,7 @@
         <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>16</v>
@@ -2341,7 +2344,7 @@
         <v>0.05400000000000001</v>
       </c>
       <c r="AH7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI7">
         <v>1.42</v>
@@ -2493,7 +2496,7 @@
         <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8">
         <v>17</v>
@@ -2505,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2559,7 +2562,7 @@
         <v>0.059</v>
       </c>
       <c r="AH8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI8">
         <v>1.64</v>
@@ -2711,7 +2714,7 @@
         <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M9">
         <v>139</v>
@@ -2723,7 +2726,7 @@
         <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>22</v>
@@ -2777,7 +2780,7 @@
         <v>0.043</v>
       </c>
       <c r="AH9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI9">
         <v>1.41</v>
@@ -2929,7 +2932,7 @@
         <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M10">
         <v>247</v>
@@ -2941,7 +2944,7 @@
         <v>56</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>43</v>
@@ -2995,7 +2998,7 @@
         <v>0.077</v>
       </c>
       <c r="AH10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI10">
         <v>1.31</v>
@@ -3147,7 +3150,7 @@
         <v>76</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M11">
         <v>155</v>
@@ -3159,7 +3162,7 @@
         <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>20</v>
@@ -3213,7 +3216,7 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="AH11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI11">
         <v>1.51</v>
@@ -3365,7 +3368,7 @@
         <v>76</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12">
         <v>270</v>
@@ -3377,7 +3380,7 @@
         <v>54</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>22</v>
@@ -3431,7 +3434,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AH12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI12">
         <v>1.08</v>
@@ -3583,7 +3586,7 @@
         <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13">
         <v>123</v>
@@ -3595,7 +3598,7 @@
         <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3649,7 +3652,7 @@
         <v>0.065</v>
       </c>
       <c r="AH13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI13">
         <v>1.16</v>
@@ -3801,7 +3804,7 @@
         <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M14">
         <v>388</v>
@@ -3813,7 +3816,7 @@
         <v>58</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>29</v>
@@ -3867,7 +3870,7 @@
         <v>0.103</v>
       </c>
       <c r="AH14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI14">
         <v>1</v>
@@ -4019,7 +4022,7 @@
         <v>77</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M15">
         <v>131</v>
@@ -4031,7 +4034,7 @@
         <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4085,7 +4088,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="AH15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AI15">
         <v>0.84</v>
@@ -4237,7 +4240,7 @@
         <v>77</v>
       </c>
       <c r="L16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M16">
         <v>396</v>
@@ -4249,7 +4252,7 @@
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>48</v>
@@ -4303,7 +4306,7 @@
         <v>0.066</v>
       </c>
       <c r="AH16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AI16">
         <v>1.14</v>
@@ -4455,7 +4458,7 @@
         <v>77</v>
       </c>
       <c r="L17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M17">
         <v>183</v>
@@ -4467,7 +4470,7 @@
         <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>17</v>
@@ -4521,7 +4524,7 @@
         <v>0.055</v>
       </c>
       <c r="AH17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AI17">
         <v>1.16</v>
@@ -4673,7 +4676,7 @@
         <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18">
         <v>174</v>
@@ -4685,7 +4688,7 @@
         <v>47</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>25</v>
@@ -4739,7 +4742,7 @@
         <v>0.109</v>
       </c>
       <c r="AH18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AI18">
         <v>1.71</v>
@@ -4891,7 +4894,7 @@
         <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19">
         <v>134</v>
@@ -4903,7 +4906,7 @@
         <v>32</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>22</v>
@@ -4957,7 +4960,7 @@
         <v>0.149</v>
       </c>
       <c r="AH19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AI19">
         <v>1.86</v>
@@ -5109,7 +5112,7 @@
         <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20">
         <v>180</v>
@@ -5121,7 +5124,7 @@
         <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>21</v>
@@ -5175,7 +5178,7 @@
         <v>0.083</v>
       </c>
       <c r="AH20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI20">
         <v>1.31</v>
@@ -5327,7 +5330,7 @@
         <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M21">
         <v>144</v>
@@ -5339,7 +5342,7 @@
         <v>29</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>18</v>
@@ -5393,7 +5396,7 @@
         <v>0.09</v>
       </c>
       <c r="AH21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI21">
         <v>1.25</v>
@@ -5545,7 +5548,7 @@
         <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22">
         <v>397</v>
@@ -5557,7 +5560,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>62</v>
@@ -5611,7 +5614,7 @@
         <v>0.076</v>
       </c>
       <c r="AH22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AI22">
         <v>1.44</v>
@@ -5763,7 +5766,7 @@
         <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M23">
         <v>143</v>
@@ -5775,7 +5778,7 @@
         <v>27</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>15</v>
@@ -5829,7 +5832,7 @@
         <v>0.091</v>
       </c>
       <c r="AH23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AI23">
         <v>1.17</v>
@@ -5981,7 +5984,7 @@
         <v>79</v>
       </c>
       <c r="L24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M24">
         <v>387</v>
@@ -5993,7 +5996,7 @@
         <v>76</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>36</v>
@@ -6047,7 +6050,7 @@
         <v>0.127</v>
       </c>
       <c r="AH24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AI24">
         <v>1.39</v>
@@ -6199,7 +6202,7 @@
         <v>79</v>
       </c>
       <c r="L25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25">
         <v>162</v>
@@ -6211,7 +6214,7 @@
         <v>25</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>18</v>
@@ -6265,7 +6268,7 @@
         <v>0.05599999999999999</v>
       </c>
       <c r="AH25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AI25">
         <v>0.8</v>
@@ -6417,7 +6420,7 @@
         <v>80</v>
       </c>
       <c r="L26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M26">
         <v>162</v>
@@ -6429,7 +6432,7 @@
         <v>33</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>14</v>
@@ -6483,7 +6486,7 @@
         <v>0.08</v>
       </c>
       <c r="AH26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AI26">
         <v>1.2</v>
@@ -6635,7 +6638,7 @@
         <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M27">
         <v>149</v>
@@ -6647,7 +6650,7 @@
         <v>33</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>14</v>
@@ -6701,7 +6704,7 @@
         <v>0.06</v>
       </c>
       <c r="AH27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AI27">
         <v>1.17</v>
@@ -6853,7 +6856,7 @@
         <v>81</v>
       </c>
       <c r="L28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28">
         <v>26</v>
@@ -6865,7 +6868,7 @@
         <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6919,7 +6922,7 @@
         <v>0.077</v>
       </c>
       <c r="AH28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AI28">
         <v>1.59</v>
@@ -7071,7 +7074,7 @@
         <v>81</v>
       </c>
       <c r="L29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M29">
         <v>43</v>
@@ -7083,7 +7086,7 @@
         <v>7</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -7137,7 +7140,7 @@
         <v>0.116</v>
       </c>
       <c r="AH29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AI29">
         <v>1.16</v>
@@ -7289,7 +7292,7 @@
         <v>81</v>
       </c>
       <c r="L30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M30">
         <v>21</v>
@@ -7301,7 +7304,7 @@
         <v>5</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7355,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AH30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AI30">
         <v>1.15</v>
@@ -7507,7 +7510,7 @@
         <v>81</v>
       </c>
       <c r="L31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M31">
         <v>64</v>
@@ -7519,7 +7522,7 @@
         <v>13</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7573,7 +7576,7 @@
         <v>0.016</v>
       </c>
       <c r="AH31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI31">
         <v>0.84</v>
@@ -7722,10 +7725,10 @@
         <v>82</v>
       </c>
       <c r="K32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M32">
         <v>406</v>
@@ -7737,7 +7740,7 @@
         <v>97</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>44</v>
@@ -7791,7 +7794,7 @@
         <v>0.076</v>
       </c>
       <c r="AH32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AI32">
         <v>1.32</v>
@@ -7940,10 +7943,10 @@
         <v>82</v>
       </c>
       <c r="K33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M33">
         <v>150</v>
@@ -7955,7 +7958,7 @@
         <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>14</v>
@@ -8009,7 +8012,7 @@
         <v>0.09300000000000001</v>
       </c>
       <c r="AH33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AI33">
         <v>0.96</v>
@@ -8158,10 +8161,10 @@
         <v>82</v>
       </c>
       <c r="K34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M34">
         <v>376</v>
@@ -8173,7 +8176,7 @@
         <v>76</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>38</v>
@@ -8227,7 +8230,7 @@
         <v>0.05599999999999999</v>
       </c>
       <c r="AH34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AI34">
         <v>1.04</v>
@@ -8376,10 +8379,10 @@
         <v>82</v>
       </c>
       <c r="K35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M35">
         <v>167</v>
@@ -8391,7 +8394,7 @@
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>11</v>
@@ -8445,7 +8448,7 @@
         <v>0.042</v>
       </c>
       <c r="AH35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AI35">
         <v>1.25</v>
@@ -8597,7 +8600,7 @@
         <v>83</v>
       </c>
       <c r="L36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M36">
         <v>42</v>
@@ -8609,7 +8612,7 @@
         <v>12</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8663,7 +8666,7 @@
         <v>0.119</v>
       </c>
       <c r="AH36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AI36">
         <v>2.04</v>
@@ -8815,7 +8818,7 @@
         <v>83</v>
       </c>
       <c r="L37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M37">
         <v>69</v>
@@ -8827,7 +8830,7 @@
         <v>17</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8881,7 +8884,7 @@
         <v>0.043</v>
       </c>
       <c r="AH37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI37">
         <v>1.28</v>
@@ -9033,7 +9036,7 @@
         <v>83</v>
       </c>
       <c r="L38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M38">
         <v>105</v>
@@ -9045,7 +9048,7 @@
         <v>17</v>
       </c>
       <c r="P38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q38">
         <v>14</v>
@@ -9099,7 +9102,7 @@
         <v>0.057</v>
       </c>
       <c r="AH38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AI38">
         <v>0.87</v>
@@ -9251,7 +9254,7 @@
         <v>83</v>
       </c>
       <c r="L39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M39">
         <v>238</v>
@@ -9263,7 +9266,7 @@
         <v>60</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q39">
         <v>30</v>
@@ -9317,7 +9320,7 @@
         <v>0.08</v>
       </c>
       <c r="AH39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AI39">
         <v>1.43</v>
@@ -9469,7 +9472,7 @@
         <v>84</v>
       </c>
       <c r="L40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M40">
         <v>383</v>
@@ -9481,7 +9484,7 @@
         <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q40">
         <v>40</v>
@@ -9535,7 +9538,7 @@
         <v>0.047</v>
       </c>
       <c r="AH40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI40">
         <v>1.08</v>
@@ -9687,7 +9690,7 @@
         <v>84</v>
       </c>
       <c r="L41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M41">
         <v>146</v>
@@ -9699,7 +9702,7 @@
         <v>30</v>
       </c>
       <c r="P41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -9753,7 +9756,7 @@
         <v>0.055</v>
       </c>
       <c r="AH41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AI41">
         <v>1.01</v>
@@ -9905,7 +9908,7 @@
         <v>84</v>
       </c>
       <c r="L42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M42">
         <v>387</v>
@@ -9917,7 +9920,7 @@
         <v>85</v>
       </c>
       <c r="P42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q42">
         <v>42</v>
@@ -9971,7 +9974,7 @@
         <v>0.047</v>
       </c>
       <c r="AH42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI42">
         <v>1.07</v>
@@ -10123,7 +10126,7 @@
         <v>84</v>
       </c>
       <c r="L43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M43">
         <v>176</v>
@@ -10135,7 +10138,7 @@
         <v>32</v>
       </c>
       <c r="P43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q43">
         <v>19</v>
@@ -10189,7 +10192,7 @@
         <v>0.068</v>
       </c>
       <c r="AH43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI43">
         <v>0.96</v>
@@ -10341,7 +10344,7 @@
         <v>85</v>
       </c>
       <c r="L44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M44">
         <v>75</v>
@@ -10353,7 +10356,7 @@
         <v>8</v>
       </c>
       <c r="P44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10407,7 +10410,7 @@
         <v>0.027</v>
       </c>
       <c r="AH44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AI44">
         <v>0.45</v>
@@ -10559,7 +10562,7 @@
         <v>85</v>
       </c>
       <c r="L45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M45">
         <v>102</v>
@@ -10571,7 +10574,7 @@
         <v>17</v>
       </c>
       <c r="P45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -10625,7 +10628,7 @@
         <v>0.108</v>
       </c>
       <c r="AH45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI45">
         <v>1.12</v>
@@ -10777,7 +10780,7 @@
         <v>85</v>
       </c>
       <c r="L46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M46">
         <v>84</v>
@@ -10789,7 +10792,7 @@
         <v>19</v>
       </c>
       <c r="P46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10843,7 +10846,7 @@
         <v>0.036</v>
       </c>
       <c r="AH46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AI46">
         <v>1.1</v>
@@ -10995,7 +10998,7 @@
         <v>85</v>
       </c>
       <c r="L47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M47">
         <v>102</v>
@@ -11007,7 +11010,7 @@
         <v>17</v>
       </c>
       <c r="P47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q47">
         <v>13</v>
@@ -11061,7 +11064,7 @@
         <v>0.049</v>
       </c>
       <c r="AH47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI47">
         <v>0.8</v>
@@ -11213,7 +11216,7 @@
         <v>86</v>
       </c>
       <c r="L48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M48">
         <v>307</v>
@@ -11225,7 +11228,7 @@
         <v>72</v>
       </c>
       <c r="P48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q48">
         <v>30</v>
@@ -11279,7 +11282,7 @@
         <v>0.059</v>
       </c>
       <c r="AH48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI48">
         <v>1.23</v>
@@ -11431,7 +11434,7 @@
         <v>86</v>
       </c>
       <c r="L49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M49">
         <v>173</v>
@@ -11443,7 +11446,7 @@
         <v>36</v>
       </c>
       <c r="P49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -11497,7 +11500,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="AH49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AI49">
         <v>1.13</v>
@@ -11649,7 +11652,7 @@
         <v>86</v>
       </c>
       <c r="L50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M50">
         <v>297</v>
@@ -11661,7 +11664,7 @@
         <v>68</v>
       </c>
       <c r="P50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q50">
         <v>32</v>
@@ -11715,7 +11718,7 @@
         <v>0.061</v>
       </c>
       <c r="AH50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AI50">
         <v>1.18</v>
@@ -11867,7 +11870,7 @@
         <v>86</v>
       </c>
       <c r="L51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M51">
         <v>164</v>
@@ -11879,7 +11882,7 @@
         <v>31</v>
       </c>
       <c r="P51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q51">
         <v>13</v>
@@ -11933,7 +11936,7 @@
         <v>0.043</v>
       </c>
       <c r="AH51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI51">
         <v>0.9</v>
@@ -12085,7 +12088,7 @@
         <v>87</v>
       </c>
       <c r="L52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M52">
         <v>122</v>
@@ -12097,7 +12100,7 @@
         <v>29</v>
       </c>
       <c r="P52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q52">
         <v>18</v>
@@ -12151,7 +12154,7 @@
         <v>0.139</v>
       </c>
       <c r="AH52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AI52">
         <v>1.75</v>
@@ -12303,7 +12306,7 @@
         <v>87</v>
       </c>
       <c r="L53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M53">
         <v>93</v>
@@ -12315,7 +12318,7 @@
         <v>23</v>
       </c>
       <c r="P53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -12369,7 +12372,7 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="AH53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AI53">
         <v>1.57</v>

--- a/assets/Pitcher_Stats.xlsx
+++ b/assets/Pitcher_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="297">
   <si>
     <t>Season</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Kevin Gausman</t>
   </si>
   <si>
-    <t>Kyle Gibson</t>
-  </si>
-  <si>
     <t>Kyle Hendricks</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
     <t>Matt Waldron</t>
   </si>
   <si>
+    <t>Matthew Liberatore</t>
+  </si>
+  <si>
     <t>Mitch Keller</t>
   </si>
   <si>
@@ -373,18 +373,18 @@
     <t>TOR</t>
   </si>
   <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>OAK</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
     <t>STL</t>
   </si>
   <si>
-    <t>CHC</t>
-  </si>
-  <si>
-    <t>OAK</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>PIT</t>
   </si>
   <si>
@@ -463,9 +463,6 @@
     <t>14107</t>
   </si>
   <si>
-    <t>10123</t>
-  </si>
-  <si>
     <t>12049</t>
   </si>
   <si>
@@ -475,6 +472,9 @@
     <t>25550</t>
   </si>
   <si>
+    <t>22294</t>
+  </si>
+  <si>
     <t>17594</t>
   </si>
   <si>
@@ -520,6 +520,12 @@
     <t>L</t>
   </si>
   <si>
+    <t>M. Liberatore</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
+  </si>
+  <si>
     <t>New York Mets</t>
   </si>
   <si>
@@ -559,18 +565,18 @@
     <t>Boston Red Sox</t>
   </si>
   <si>
+    <t>San Francisco Giants</t>
+  </si>
+  <si>
+    <t>Kansas City Royals</t>
+  </si>
+  <si>
+    <t>Philadelphia Phillies</t>
+  </si>
+  <si>
     <t>Miami Marlins</t>
   </si>
   <si>
-    <t>San Francisco Giants</t>
-  </si>
-  <si>
-    <t>Kansas City Royals</t>
-  </si>
-  <si>
-    <t>Philadelphia Phillies</t>
-  </si>
-  <si>
     <t>Cincinnati Reds</t>
   </si>
   <si>
@@ -757,18 +763,6 @@
     <t>20.7%</t>
   </si>
   <si>
-    <t>11.7%</t>
-  </si>
-  <si>
-    <t>9.4%</t>
-  </si>
-  <si>
-    <t>13.5%</t>
-  </si>
-  <si>
-    <t>15.3%</t>
-  </si>
-  <si>
     <t>12.3%</t>
   </si>
   <si>
@@ -805,6 +799,18 @@
     <t>15.8%</t>
   </si>
   <si>
+    <t>14.5%</t>
+  </si>
+  <si>
+    <t>18.0%</t>
+  </si>
+  <si>
+    <t>5.9%</t>
+  </si>
+  <si>
+    <t>4.4%</t>
+  </si>
+  <si>
     <t>22.0%</t>
   </si>
   <si>
@@ -875,9 +881,6 @@
   </si>
   <si>
     <t>14.6%</t>
-  </si>
-  <si>
-    <t>18.0%</t>
   </si>
   <si>
     <t>28.2%</t>
@@ -1518,7 +1521,7 @@
         <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M2">
         <v>128</v>
@@ -1530,7 +1533,7 @@
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1584,7 +1587,7 @@
         <v>0.172</v>
       </c>
       <c r="AH2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AI2">
         <v>1.94</v>
@@ -1736,7 +1739,7 @@
         <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M3">
         <v>52</v>
@@ -1748,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1802,7 +1805,7 @@
         <v>0.115</v>
       </c>
       <c r="AH3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AI3">
         <v>1.73</v>
@@ -1954,7 +1957,7 @@
         <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M4">
         <v>513</v>
@@ -1966,7 +1969,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>62</v>
@@ -2020,7 +2023,7 @@
         <v>0.07400000000000001</v>
       </c>
       <c r="AH4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AI4">
         <v>1.26</v>
@@ -2172,7 +2175,7 @@
         <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M5">
         <v>238</v>
@@ -2184,7 +2187,7 @@
         <v>57</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>30</v>
@@ -2238,7 +2241,7 @@
         <v>0.05</v>
       </c>
       <c r="AH5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AI5">
         <v>1.24</v>
@@ -2390,7 +2393,7 @@
         <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M6">
         <v>268</v>
@@ -2402,7 +2405,7 @@
         <v>49</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>23</v>
@@ -2456,7 +2459,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="AH6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AI6">
         <v>1.1</v>
@@ -2608,7 +2611,7 @@
         <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M7">
         <v>20</v>
@@ -2620,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2674,7 +2677,7 @@
         <v>0.1</v>
       </c>
       <c r="AH7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AI7">
         <v>0.9399999999999999</v>
@@ -2826,7 +2829,7 @@
         <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M8">
         <v>237</v>
@@ -2838,7 +2841,7 @@
         <v>56</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>30</v>
@@ -2892,7 +2895,7 @@
         <v>0.038</v>
       </c>
       <c r="AH8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI8">
         <v>1.11</v>
@@ -3044,7 +3047,7 @@
         <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M9">
         <v>30</v>
@@ -3056,7 +3059,7 @@
         <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3110,7 +3113,7 @@
         <v>0.133</v>
       </c>
       <c r="AH9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI9">
         <v>1.89</v>
@@ -3262,7 +3265,7 @@
         <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M10">
         <v>195</v>
@@ -3274,7 +3277,7 @@
         <v>48</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>31</v>
@@ -3328,7 +3331,7 @@
         <v>0.08199999999999999</v>
       </c>
       <c r="AH10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AI10">
         <v>1.43</v>
@@ -3480,7 +3483,7 @@
         <v>76</v>
       </c>
       <c r="L11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M11">
         <v>177</v>
@@ -3492,7 +3495,7 @@
         <v>49</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>21</v>
@@ -3546,7 +3549,7 @@
         <v>0.05599999999999999</v>
       </c>
       <c r="AH11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AI11">
         <v>1.5</v>
@@ -3698,7 +3701,7 @@
         <v>76</v>
       </c>
       <c r="L12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M12">
         <v>226</v>
@@ -3710,7 +3713,7 @@
         <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>32</v>
@@ -3764,7 +3767,7 @@
         <v>0.044</v>
       </c>
       <c r="AH12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI12">
         <v>1.38</v>
@@ -3916,7 +3919,7 @@
         <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M13">
         <v>174</v>
@@ -3928,7 +3931,7 @@
         <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>24</v>
@@ -3982,7 +3985,7 @@
         <v>0.046</v>
       </c>
       <c r="AH13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AI13">
         <v>0.87</v>
@@ -4134,7 +4137,7 @@
         <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M14">
         <v>322</v>
@@ -4146,7 +4149,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>35</v>
@@ -4200,7 +4203,7 @@
         <v>0.065</v>
       </c>
       <c r="AH14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AI14">
         <v>1.56</v>
@@ -4352,7 +4355,7 @@
         <v>77</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M15">
         <v>141</v>
@@ -4364,7 +4367,7 @@
         <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>23</v>
@@ -4418,7 +4421,7 @@
         <v>0.099</v>
       </c>
       <c r="AH15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AI15">
         <v>1.57</v>
@@ -4570,7 +4573,7 @@
         <v>77</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16">
         <v>346</v>
@@ -4582,7 +4585,7 @@
         <v>72</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>42</v>
@@ -4636,7 +4639,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="AH16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AI16">
         <v>1.14</v>
@@ -4788,7 +4791,7 @@
         <v>77</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M17">
         <v>135</v>
@@ -4800,7 +4803,7 @@
         <v>30</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>15</v>
@@ -4854,7 +4857,7 @@
         <v>0.07400000000000001</v>
       </c>
       <c r="AH17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AI17">
         <v>1.24</v>
@@ -5006,7 +5009,7 @@
         <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M18">
         <v>180</v>
@@ -5018,7 +5021,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>29</v>
@@ -5072,7 +5075,7 @@
         <v>0.128</v>
       </c>
       <c r="AH18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AI18">
         <v>1.75</v>
@@ -5224,7 +5227,7 @@
         <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M19">
         <v>70</v>
@@ -5236,7 +5239,7 @@
         <v>11</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5290,7 +5293,7 @@
         <v>0.029</v>
       </c>
       <c r="AH19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AI19">
         <v>0.67</v>
@@ -5442,7 +5445,7 @@
         <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M20">
         <v>191</v>
@@ -5454,7 +5457,7 @@
         <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>15</v>
@@ -5508,7 +5511,7 @@
         <v>0.042</v>
       </c>
       <c r="AH20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AI20">
         <v>0.8</v>
@@ -5660,7 +5663,7 @@
         <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M21">
         <v>49</v>
@@ -5672,7 +5675,7 @@
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5726,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="AH21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AI21">
         <v>0.35</v>
@@ -5878,7 +5881,7 @@
         <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M22">
         <v>93</v>
@@ -5890,7 +5893,7 @@
         <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5944,7 +5947,7 @@
         <v>0.118</v>
       </c>
       <c r="AH22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AI22">
         <v>1.48</v>
@@ -6096,7 +6099,7 @@
         <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M23">
         <v>53</v>
@@ -6108,7 +6111,7 @@
         <v>17</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6162,7 +6165,7 @@
         <v>0.019</v>
       </c>
       <c r="AH23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AI23">
         <v>1.59</v>
@@ -6314,7 +6317,7 @@
         <v>79</v>
       </c>
       <c r="L24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M24">
         <v>299</v>
@@ -6326,7 +6329,7 @@
         <v>50</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>31</v>
@@ -6380,7 +6383,7 @@
         <v>0.1</v>
       </c>
       <c r="AH24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AI24">
         <v>1.07</v>
@@ -6532,7 +6535,7 @@
         <v>79</v>
       </c>
       <c r="L25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25">
         <v>298</v>
@@ -6544,7 +6547,7 @@
         <v>55</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>27</v>
@@ -6598,7 +6601,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="AH25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AI25">
         <v>1.07</v>
@@ -6750,7 +6753,7 @@
         <v>80</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M26">
         <v>362</v>
@@ -6762,7 +6765,7 @@
         <v>70</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>38</v>
@@ -6816,7 +6819,7 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="AH26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AI26">
         <v>1.22</v>
@@ -6968,7 +6971,7 @@
         <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M27">
         <v>160</v>
@@ -6980,7 +6983,7 @@
         <v>33</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>16</v>
@@ -7034,7 +7037,7 @@
         <v>0.075</v>
       </c>
       <c r="AH27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AI27">
         <v>1.14</v>
@@ -7186,7 +7189,7 @@
         <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M28">
         <v>318</v>
@@ -7198,7 +7201,7 @@
         <v>61</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>39</v>
@@ -7252,7 +7255,7 @@
         <v>0.06</v>
       </c>
       <c r="AH28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AI28">
         <v>1.01</v>
@@ -7404,7 +7407,7 @@
         <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29">
         <v>159</v>
@@ -7416,7 +7419,7 @@
         <v>31</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>22</v>
@@ -7470,7 +7473,7 @@
         <v>0.094</v>
       </c>
       <c r="AH29" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AI29">
         <v>1.25</v>
@@ -7622,7 +7625,7 @@
         <v>81</v>
       </c>
       <c r="L30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M30">
         <v>22</v>
@@ -7634,7 +7637,7 @@
         <v>7</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7688,7 +7691,7 @@
         <v>0.136</v>
       </c>
       <c r="AH30" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AI30">
         <v>2.73</v>
@@ -7840,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="L31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M31">
         <v>52</v>
@@ -7852,7 +7855,7 @@
         <v>8</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7906,7 +7909,7 @@
         <v>0.096</v>
       </c>
       <c r="AH31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AI31">
         <v>1.03</v>
@@ -8058,7 +8061,7 @@
         <v>81</v>
       </c>
       <c r="L32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M32">
         <v>42</v>
@@ -8070,7 +8073,7 @@
         <v>5</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -8124,7 +8127,7 @@
         <v>0.238</v>
       </c>
       <c r="AH32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AI32">
         <v>1.67</v>
@@ -8276,7 +8279,7 @@
         <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M33">
         <v>273</v>
@@ -8288,7 +8291,7 @@
         <v>47</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>28</v>
@@ -8342,7 +8345,7 @@
         <v>0.051</v>
       </c>
       <c r="AH33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI33">
         <v>0.87</v>
@@ -8494,7 +8497,7 @@
         <v>82</v>
       </c>
       <c r="L34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M34">
         <v>385</v>
@@ -8506,7 +8509,7 @@
         <v>71</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>33</v>
@@ -8560,7 +8563,7 @@
         <v>0.068</v>
       </c>
       <c r="AH34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AI34">
         <v>1</v>
@@ -8712,7 +8715,7 @@
         <v>82</v>
       </c>
       <c r="L35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M35">
         <v>436</v>
@@ -8724,7 +8727,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>31</v>
@@ -8778,7 +8781,7 @@
         <v>0.05</v>
       </c>
       <c r="AH35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AI35">
         <v>0.97</v>
@@ -8930,7 +8933,7 @@
         <v>83</v>
       </c>
       <c r="L36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M36">
         <v>310</v>
@@ -8942,7 +8945,7 @@
         <v>68</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>37</v>
@@ -8996,7 +8999,7 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="AH36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AI36">
         <v>1.34</v>
@@ -9148,7 +9151,7 @@
         <v>83</v>
       </c>
       <c r="L37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M37">
         <v>165</v>
@@ -9160,7 +9163,7 @@
         <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>18</v>
@@ -9214,7 +9217,7 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="AH37" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AI37">
         <v>1.43</v>
@@ -9366,7 +9369,7 @@
         <v>83</v>
       </c>
       <c r="L38" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M38">
         <v>355</v>
@@ -9378,7 +9381,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>57</v>
@@ -9432,7 +9435,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AH38" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AI38">
         <v>1.38</v>
@@ -9584,7 +9587,7 @@
         <v>83</v>
       </c>
       <c r="L39" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M39">
         <v>132</v>
@@ -9596,7 +9599,7 @@
         <v>30</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>21</v>
@@ -9650,7 +9653,7 @@
         <v>0.098</v>
       </c>
       <c r="AH39" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AI39">
         <v>1.43</v>
@@ -9802,7 +9805,7 @@
         <v>84</v>
       </c>
       <c r="L40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M40">
         <v>244</v>
@@ -9814,7 +9817,7 @@
         <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>29</v>
@@ -9868,7 +9871,7 @@
         <v>0.115</v>
       </c>
       <c r="AH40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AI40">
         <v>1.31</v>
@@ -10020,7 +10023,7 @@
         <v>84</v>
       </c>
       <c r="L41" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M41">
         <v>183</v>
@@ -10032,7 +10035,7 @@
         <v>27</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>11</v>
@@ -10086,7 +10089,7 @@
         <v>0.098</v>
       </c>
       <c r="AH41" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AI41">
         <v>0.98</v>
@@ -10238,7 +10241,7 @@
         <v>84</v>
       </c>
       <c r="L42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M42">
         <v>254</v>
@@ -10250,7 +10253,7 @@
         <v>66</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>36</v>
@@ -10304,7 +10307,7 @@
         <v>0.079</v>
       </c>
       <c r="AH42" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AI42">
         <v>1.53</v>
@@ -10456,7 +10459,7 @@
         <v>84</v>
       </c>
       <c r="L43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M43">
         <v>162</v>
@@ -10468,7 +10471,7 @@
         <v>33</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>23</v>
@@ -10522,7 +10525,7 @@
         <v>0.117</v>
       </c>
       <c r="AH43" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AI43">
         <v>1.43</v>
@@ -10674,7 +10677,7 @@
         <v>85</v>
       </c>
       <c r="L44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M44">
         <v>315</v>
@@ -10686,7 +10689,7 @@
         <v>64</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>32</v>
@@ -10740,7 +10743,7 @@
         <v>0.063</v>
       </c>
       <c r="AH44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI44">
         <v>1.1</v>
@@ -10892,7 +10895,7 @@
         <v>85</v>
       </c>
       <c r="L45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M45">
         <v>159</v>
@@ -10904,7 +10907,7 @@
         <v>31</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>17</v>
@@ -10958,7 +10961,7 @@
         <v>0.044</v>
       </c>
       <c r="AH45" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI45">
         <v>0.93</v>
@@ -11110,7 +11113,7 @@
         <v>85</v>
       </c>
       <c r="L46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M46">
         <v>357</v>
@@ -11122,7 +11125,7 @@
         <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>51</v>
@@ -11176,7 +11179,7 @@
         <v>0.039</v>
       </c>
       <c r="AH46" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AI46">
         <v>1.24</v>
@@ -11328,7 +11331,7 @@
         <v>85</v>
       </c>
       <c r="L47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M47">
         <v>176</v>
@@ -11340,7 +11343,7 @@
         <v>36</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>17</v>
@@ -11394,7 +11397,7 @@
         <v>0.04</v>
       </c>
       <c r="AH47" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AI47">
         <v>0.95</v>
@@ -11546,7 +11549,7 @@
         <v>86</v>
       </c>
       <c r="L48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M48">
         <v>349</v>
@@ -11558,7 +11561,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>39</v>
@@ -11612,7 +11615,7 @@
         <v>0.08</v>
       </c>
       <c r="AH48" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AI48">
         <v>1.33</v>
@@ -11764,7 +11767,7 @@
         <v>86</v>
       </c>
       <c r="L49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M49">
         <v>151</v>
@@ -11776,7 +11779,7 @@
         <v>42</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>21</v>
@@ -11830,7 +11833,7 @@
         <v>0.06</v>
       </c>
       <c r="AH49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AI49">
         <v>1.49</v>
@@ -11982,7 +11985,7 @@
         <v>86</v>
       </c>
       <c r="L50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M50">
         <v>414</v>
@@ -11994,7 +11997,7 @@
         <v>83</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>33</v>
@@ -12048,7 +12051,7 @@
         <v>0.065</v>
       </c>
       <c r="AH50" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AI50">
         <v>1.06</v>
@@ -12200,7 +12203,7 @@
         <v>86</v>
       </c>
       <c r="L51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M51">
         <v>164</v>
@@ -12212,7 +12215,7 @@
         <v>37</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>18</v>
@@ -12266,7 +12269,7 @@
         <v>0.043</v>
       </c>
       <c r="AH51" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AI51">
         <v>1.08</v>
@@ -12418,187 +12421,187 @@
         <v>87</v>
       </c>
       <c r="L52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M52">
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="N52">
-        <v>93.2</v>
+        <v>74</v>
       </c>
       <c r="O52">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="P52" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q52">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="R52">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="S52">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T52">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="X52">
-        <v>0.292</v>
+        <v>0.225</v>
       </c>
       <c r="Y52">
-        <v>0.338</v>
+        <v>0.264</v>
       </c>
       <c r="Z52">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="AA52">
-        <v>0.349</v>
+        <v>0.266</v>
       </c>
       <c r="AB52">
-        <v>7.01</v>
+        <v>6.45</v>
       </c>
       <c r="AC52">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="AD52">
-        <v>2.81</v>
+        <v>3.31</v>
       </c>
       <c r="AE52">
-        <v>1.25</v>
+        <v>0.73</v>
       </c>
       <c r="AF52">
-        <v>0.182</v>
+        <v>0.177</v>
       </c>
       <c r="AG52">
-        <v>0.065</v>
+        <v>0.053</v>
       </c>
       <c r="AH52" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AI52">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="AJ52">
-        <v>0.328</v>
+        <v>0.253</v>
       </c>
       <c r="AK52">
-        <v>0.711</v>
+        <v>0.708</v>
       </c>
       <c r="AL52">
-        <v>4.4</v>
+        <v>3.53</v>
       </c>
       <c r="AM52">
-        <v>4.22</v>
+        <v>4.28</v>
       </c>
       <c r="AN52">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AO52">
-        <v>0.229</v>
+        <v>0.175</v>
       </c>
       <c r="AP52">
-        <v>0.461</v>
+        <v>0.469</v>
       </c>
       <c r="AQ52">
-        <v>0.31</v>
+        <v>0.355</v>
       </c>
       <c r="AR52">
-        <v>0.098</v>
+        <v>0.111</v>
       </c>
       <c r="AS52">
-        <v>0.141</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="AT52">
-        <v>0.47</v>
+        <v>0.385</v>
       </c>
       <c r="AU52">
-        <v>0.31</v>
+        <v>0.416</v>
       </c>
       <c r="AV52">
-        <v>0.22</v>
+        <v>0.199</v>
       </c>
       <c r="AW52">
-        <v>0.13</v>
+        <v>0.212</v>
       </c>
       <c r="AX52">
-        <v>0.593</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="AY52">
-        <v>0.277</v>
+        <v>0.234</v>
       </c>
       <c r="AZ52">
-        <v>1509</v>
+        <v>1136</v>
       </c>
       <c r="BA52">
-        <v>580</v>
+        <v>403</v>
       </c>
       <c r="BB52">
-        <v>929</v>
+        <v>733</v>
       </c>
       <c r="BC52">
-        <v>581</v>
+        <v>407</v>
       </c>
       <c r="BD52">
-        <v>0.02237521514629948</v>
+        <v>0.01474201474201474</v>
       </c>
       <c r="BE52">
-        <v>0.2408760757314974</v>
+        <v>0.1960687960687961</v>
       </c>
       <c r="BF52">
-        <v>0.3312908777969019</v>
+        <v>0.257985257985258</v>
       </c>
       <c r="BG52">
-        <v>0.2015352839931153</v>
+        <v>0.1658476658476659</v>
       </c>
       <c r="BH52">
-        <v>0.1256144578313253</v>
+        <v>0.1304668304668305</v>
       </c>
       <c r="BI52">
-        <v>0.04486230636833047</v>
+        <v>0.03906633906633906</v>
       </c>
       <c r="BJ52">
-        <v>0.226382099827883</v>
+        <v>0.1864864864864865</v>
       </c>
       <c r="BK52">
-        <v>3.036833046471601</v>
+        <v>2.601965601965602</v>
       </c>
       <c r="BL52">
-        <v>2.912598967297762</v>
+        <v>3.154791154791155</v>
       </c>
       <c r="BM52">
-        <v>0.3181772805507745</v>
+        <v>0.3457002457002457</v>
       </c>
       <c r="BN52">
-        <v>0.1580533562822719</v>
+        <v>0.128992628992629</v>
       </c>
       <c r="BO52">
-        <v>0.2139586919104992</v>
+        <v>0.2616707616707616</v>
       </c>
       <c r="BP52">
-        <v>0.09731669535283993</v>
+        <v>0.05454545454545455</v>
       </c>
       <c r="BQ52">
-        <v>0.08972461273666094</v>
+        <v>0.1562653562653563</v>
       </c>
       <c r="BR52">
-        <v>0.4092822719449226</v>
+        <v>0.4083538083538083</v>
       </c>
       <c r="BS52">
-        <v>0.1911824440619621</v>
+        <v>0.1724815724815725</v>
       </c>
       <c r="BT52">
-        <v>0.1297555938037866</v>
+        <v>0.09213759213759209</v>
       </c>
     </row>
     <row r="53" spans="1:72">
@@ -12636,22 +12639,22 @@
         <v>87</v>
       </c>
       <c r="L53" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M53">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="N53">
-        <v>42</v>
+        <v>23.1</v>
       </c>
       <c r="O53">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R53">
         <v>21</v>
@@ -12660,163 +12663,163 @@
         <v>7</v>
       </c>
       <c r="T53">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W53">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="X53">
-        <v>0.237</v>
+        <v>0.323</v>
       </c>
       <c r="Y53">
-        <v>0.324</v>
+        <v>0.374</v>
       </c>
       <c r="Z53">
-        <v>0.455</v>
+        <v>0.576</v>
       </c>
       <c r="AA53">
-        <v>0.339</v>
+        <v>0.41</v>
       </c>
       <c r="AB53">
-        <v>7.71</v>
+        <v>6.17</v>
       </c>
       <c r="AC53">
-        <v>4.07</v>
+        <v>2.7</v>
       </c>
       <c r="AD53">
-        <v>1.89</v>
+        <v>2.29</v>
       </c>
       <c r="AE53">
+        <v>2.7</v>
+      </c>
+      <c r="AF53">
+        <v>0.15</v>
+      </c>
+      <c r="AG53">
+        <v>0.065</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI53">
+        <v>1.67</v>
+      </c>
+      <c r="AJ53">
+        <v>0.329</v>
+      </c>
+      <c r="AK53">
+        <v>0.629</v>
+      </c>
+      <c r="AL53">
+        <v>6.71</v>
+      </c>
+      <c r="AM53">
+        <v>4.4</v>
+      </c>
+      <c r="AN53">
         <v>1.5</v>
       </c>
-      <c r="AF53">
-        <v>0.2</v>
-      </c>
-      <c r="AG53">
-        <v>0.106</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>248</v>
-      </c>
-      <c r="AI53">
-        <v>1.33</v>
-      </c>
-      <c r="AJ53">
-        <v>0.259</v>
-      </c>
-      <c r="AK53">
-        <v>0.705</v>
-      </c>
-      <c r="AL53">
-        <v>5.11</v>
-      </c>
-      <c r="AM53">
-        <v>4.63</v>
-      </c>
-      <c r="AN53">
-        <v>0.98</v>
-      </c>
       <c r="AO53">
-        <v>0.189</v>
+        <v>0.217</v>
       </c>
       <c r="AP53">
-        <v>0.402</v>
+        <v>0.47</v>
       </c>
       <c r="AQ53">
-        <v>0.41</v>
+        <v>0.313</v>
       </c>
       <c r="AR53">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
       <c r="AS53">
-        <v>0.14</v>
+        <v>0.269</v>
       </c>
       <c r="AT53">
-        <v>0.374</v>
+        <v>0.386</v>
       </c>
       <c r="AU53">
-        <v>0.374</v>
+        <v>0.386</v>
       </c>
       <c r="AV53">
-        <v>0.252</v>
+        <v>0.229</v>
       </c>
       <c r="AW53">
-        <v>0.163</v>
+        <v>0.205</v>
       </c>
       <c r="AX53">
-        <v>0.472</v>
+        <v>0.59</v>
       </c>
       <c r="AY53">
-        <v>0.366</v>
+        <v>0.205</v>
       </c>
       <c r="AZ53">
-        <v>696</v>
+        <v>363</v>
       </c>
       <c r="BA53">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="BB53">
-        <v>396</v>
+        <v>238</v>
       </c>
       <c r="BC53">
-        <v>581</v>
+        <v>407</v>
       </c>
       <c r="BD53">
-        <v>0.01204819277108434</v>
+        <v>0.0171990171990172</v>
       </c>
       <c r="BE53">
-        <v>0.1050258175559381</v>
+        <v>0.1077886977886978</v>
       </c>
       <c r="BF53">
-        <v>0.1409638554216868</v>
+        <v>0.1514299754299754</v>
       </c>
       <c r="BG53">
-        <v>0.07342512908777969</v>
+        <v>0.08491646191646192</v>
       </c>
       <c r="BH53">
-        <v>0.06196213425129088</v>
+        <v>0.03943488943488944</v>
       </c>
       <c r="BI53">
-        <v>0.03283993115318416</v>
+        <v>0.01708845208845209</v>
       </c>
       <c r="BJ53">
-        <v>0.08024096385542169</v>
+        <v>0.0864938574938575</v>
       </c>
       <c r="BK53">
-        <v>1.583132530120482</v>
+        <v>1.764054054054054</v>
       </c>
       <c r="BL53">
-        <v>1.434423407917384</v>
+        <v>1.156756756756757</v>
       </c>
       <c r="BM53">
-        <v>0.1245438898450947</v>
+        <v>0.1235626535626536</v>
       </c>
       <c r="BN53">
-        <v>0.05855421686746987</v>
+        <v>0.05704914004914005</v>
       </c>
       <c r="BO53">
-        <v>0.1270223752151463</v>
+        <v>0.08228746928746929</v>
       </c>
       <c r="BP53">
-        <v>0.04337349397590362</v>
+        <v>0.07071990171990171</v>
       </c>
       <c r="BQ53">
-        <v>0.05049913941480207</v>
+        <v>0.0538943488943489</v>
       </c>
       <c r="BR53">
-        <v>0.1462306368330465</v>
+        <v>0.1551105651105651</v>
       </c>
       <c r="BS53">
-        <v>0.1133907056798623</v>
+        <v>0.0538943488943489</v>
       </c>
       <c r="BT53">
-        <v>0.06753872633390708</v>
+        <v>0.06651351351351349</v>
       </c>
     </row>
     <row r="54" spans="1:72">
@@ -12854,31 +12857,31 @@
         <v>87</v>
       </c>
       <c r="L54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M54">
-        <v>406</v>
+        <v>278</v>
       </c>
       <c r="N54">
-        <v>98.09999999999999</v>
+        <v>63</v>
       </c>
       <c r="O54">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q54">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="R54">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="S54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T54">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -12887,154 +12890,154 @@
         <v>4</v>
       </c>
       <c r="W54">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="X54">
-        <v>0.249</v>
+        <v>0.286</v>
       </c>
       <c r="Y54">
-        <v>0.306</v>
+        <v>0.324</v>
       </c>
       <c r="Z54">
-        <v>0.395</v>
+        <v>0.439</v>
       </c>
       <c r="AA54">
-        <v>0.303</v>
+        <v>0.329</v>
       </c>
       <c r="AB54">
-        <v>7.69</v>
+        <v>5.71</v>
       </c>
       <c r="AC54">
-        <v>2.65</v>
+        <v>1.57</v>
       </c>
       <c r="AD54">
-        <v>2.9</v>
+        <v>3.64</v>
       </c>
       <c r="AE54">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AF54">
-        <v>0.207</v>
+        <v>0.144</v>
       </c>
       <c r="AG54">
-        <v>0.07099999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="AH54" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AI54">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AJ54">
-        <v>0.29</v>
+        <v>0.315</v>
       </c>
       <c r="AK54">
-        <v>0.6820000000000001</v>
+        <v>0.636</v>
       </c>
       <c r="AL54">
-        <v>3.88</v>
+        <v>4.14</v>
       </c>
       <c r="AM54">
-        <v>4.05</v>
+        <v>4.59</v>
       </c>
       <c r="AN54">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="AO54">
-        <v>0.171</v>
+        <v>0.217</v>
       </c>
       <c r="AP54">
-        <v>0.517</v>
+        <v>0.457</v>
       </c>
       <c r="AQ54">
-        <v>0.311</v>
+        <v>0.326</v>
       </c>
       <c r="AR54">
-        <v>0.101</v>
+        <v>0.153</v>
       </c>
       <c r="AS54">
-        <v>0.112</v>
+        <v>0.09699999999999999</v>
       </c>
       <c r="AT54">
-        <v>0.433</v>
+        <v>0.493</v>
       </c>
       <c r="AU54">
-        <v>0.377</v>
+        <v>0.314</v>
       </c>
       <c r="AV54">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="AW54">
-        <v>0.142</v>
+        <v>0.256</v>
       </c>
       <c r="AX54">
-        <v>0.512</v>
+        <v>0.48</v>
       </c>
       <c r="AY54">
-        <v>0.346</v>
+        <v>0.265</v>
       </c>
       <c r="AZ54">
-        <v>1524</v>
+        <v>974</v>
       </c>
       <c r="BA54">
-        <v>566</v>
+        <v>322</v>
       </c>
       <c r="BB54">
-        <v>958</v>
+        <v>652</v>
       </c>
       <c r="BC54">
-        <v>569</v>
+        <v>378</v>
       </c>
       <c r="BD54">
-        <v>0.01757469244288225</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="BE54">
-        <v>0.2162003514938488</v>
+        <v>0.241962962962963</v>
       </c>
       <c r="BF54">
-        <v>0.2818453427065026</v>
+        <v>0.3228624338624339</v>
       </c>
       <c r="BG54">
-        <v>0.1776695957820738</v>
+        <v>0.2103386243386243</v>
       </c>
       <c r="BH54">
-        <v>0.147701230228471</v>
+        <v>0.1059047619047619</v>
       </c>
       <c r="BI54">
-        <v>0.05066080843585236</v>
+        <v>0.02941798941798942</v>
       </c>
       <c r="BJ54">
-        <v>0.2069244288224956</v>
+        <v>0.2316666666666667</v>
       </c>
       <c r="BK54">
-        <v>2.768506151142355</v>
+        <v>3.044761904761905</v>
       </c>
       <c r="BL54">
-        <v>2.889806678383128</v>
+        <v>3.375714285714286</v>
       </c>
       <c r="BM54">
-        <v>0.368896309314587</v>
+        <v>0.3361005291005291</v>
       </c>
       <c r="BN54">
-        <v>0.1220140597539543</v>
+        <v>0.1595925925925926</v>
       </c>
       <c r="BO54">
-        <v>0.221908611599297</v>
+        <v>0.2397566137566138</v>
       </c>
       <c r="BP54">
-        <v>0.07991564147627415</v>
+        <v>0.07133862433862433</v>
       </c>
       <c r="BQ54">
-        <v>0.1013216168717047</v>
+        <v>0.1882751322751323</v>
       </c>
       <c r="BR54">
-        <v>0.3653286467486819</v>
+        <v>0.353015873015873</v>
       </c>
       <c r="BS54">
-        <v>0.2468822495606327</v>
+        <v>0.1948941798941799</v>
       </c>
       <c r="BT54">
-        <v>0.1041757469244288</v>
+        <v>0.1125238095238095</v>
       </c>
     </row>
     <row r="55" spans="1:72">
@@ -13072,31 +13075,31 @@
         <v>87</v>
       </c>
       <c r="L55" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M55">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="N55">
-        <v>41.2</v>
+        <v>21.2</v>
       </c>
       <c r="O55">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q55">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="R55">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="S55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T55">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -13105,154 +13108,154 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="X55">
-        <v>0.215</v>
+        <v>0.333</v>
       </c>
       <c r="Y55">
-        <v>0.272</v>
+        <v>0.38</v>
       </c>
       <c r="Z55">
-        <v>0.302</v>
+        <v>0.511</v>
       </c>
       <c r="AA55">
-        <v>0.258</v>
+        <v>0.384</v>
       </c>
       <c r="AB55">
-        <v>7.99</v>
+        <v>6.23</v>
       </c>
       <c r="AC55">
-        <v>2.59</v>
+        <v>3.32</v>
       </c>
       <c r="AD55">
-        <v>3.08</v>
+        <v>1.88</v>
       </c>
       <c r="AE55">
-        <v>0.65</v>
+        <v>1.66</v>
       </c>
       <c r="AF55">
-        <v>0.227</v>
+        <v>0.15</v>
       </c>
       <c r="AG55">
-        <v>0.07400000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AH55" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AI55">
-        <v>1.06</v>
+        <v>1.75</v>
       </c>
       <c r="AJ55">
-        <v>0.261</v>
+        <v>0.356</v>
       </c>
       <c r="AK55">
-        <v>0.804</v>
+        <v>0.525</v>
       </c>
       <c r="AL55">
-        <v>3.18</v>
+        <v>5.28</v>
       </c>
       <c r="AM55">
-        <v>3.27</v>
+        <v>4.39</v>
       </c>
       <c r="AN55">
-        <v>2.17</v>
+        <v>1.61</v>
       </c>
       <c r="AO55">
-        <v>0.159</v>
+        <v>0.221</v>
       </c>
       <c r="AP55">
-        <v>0.575</v>
+        <v>0.481</v>
       </c>
       <c r="AQ55">
-        <v>0.265</v>
+        <v>0.299</v>
       </c>
       <c r="AR55">
-        <v>0.1</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AS55">
-        <v>0.1</v>
+        <v>0.174</v>
       </c>
       <c r="AT55">
-        <v>0.482</v>
+        <v>0.364</v>
       </c>
       <c r="AU55">
-        <v>0.36</v>
+        <v>0.429</v>
       </c>
       <c r="AV55">
-        <v>0.158</v>
+        <v>0.208</v>
       </c>
       <c r="AW55">
-        <v>0.14</v>
+        <v>0.221</v>
       </c>
       <c r="AX55">
-        <v>0.518</v>
+        <v>0.506</v>
       </c>
       <c r="AY55">
-        <v>0.342</v>
+        <v>0.273</v>
       </c>
       <c r="AZ55">
-        <v>600</v>
+        <v>386</v>
       </c>
       <c r="BA55">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="BB55">
-        <v>381</v>
+        <v>255</v>
       </c>
       <c r="BC55">
-        <v>569</v>
+        <v>378</v>
       </c>
       <c r="BD55">
-        <v>0.005272407732864675</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="BE55">
-        <v>0.07390861159929701</v>
+        <v>0.1015873015873016</v>
       </c>
       <c r="BF55">
-        <v>0.08651318101933216</v>
+        <v>0.1351851851851852</v>
       </c>
       <c r="BG55">
-        <v>0.06159050966608084</v>
+        <v>0.0880952380952381</v>
       </c>
       <c r="BH55">
-        <v>0.0650281195079086</v>
+        <v>0.03968253968253968</v>
       </c>
       <c r="BI55">
-        <v>0.02119859402460457</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="BJ55">
-        <v>0.07476801405975396</v>
+        <v>0.09417989417989417</v>
       </c>
       <c r="BK55">
-        <v>0.9109666080843585</v>
+        <v>1.396825396825397</v>
       </c>
       <c r="BL55">
-        <v>0.9367486818980667</v>
+        <v>1.161375661375661</v>
       </c>
       <c r="BM55">
-        <v>0.1647188049209139</v>
+        <v>0.1272486772486772</v>
       </c>
       <c r="BN55">
-        <v>0.04554833040421793</v>
+        <v>0.05846560846560846</v>
       </c>
       <c r="BO55">
-        <v>0.07591388400702988</v>
+        <v>0.07910052910052909</v>
       </c>
       <c r="BP55">
-        <v>0.02864674868189807</v>
+        <v>0.04603174603174603</v>
       </c>
       <c r="BQ55">
-        <v>0.0401054481546573</v>
+        <v>0.05846560846560846</v>
       </c>
       <c r="BR55">
-        <v>0.148390158172232</v>
+        <v>0.1338624338624338</v>
       </c>
       <c r="BS55">
-        <v>0.09797188049209139</v>
+        <v>0.07222222222222223</v>
       </c>
       <c r="BT55">
-        <v>0.02492267135325132</v>
+        <v>0.04708994708994708</v>
       </c>
     </row>
     <row r="56" spans="1:72">
@@ -13290,187 +13293,187 @@
         <v>88</v>
       </c>
       <c r="L56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M56">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="N56">
-        <v>74</v>
+        <v>47.1</v>
       </c>
       <c r="O56">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q56">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="R56">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S56">
+        <v>3</v>
+      </c>
+      <c r="T56">
+        <v>27</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
         <v>6</v>
       </c>
-      <c r="T56">
-        <v>16</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
       <c r="W56">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="X56">
-        <v>0.225</v>
+        <v>0.266</v>
       </c>
       <c r="Y56">
+        <v>0.378</v>
+      </c>
+      <c r="Z56">
+        <v>0.408</v>
+      </c>
+      <c r="AA56">
+        <v>0.346</v>
+      </c>
+      <c r="AB56">
+        <v>7.99</v>
+      </c>
+      <c r="AC56">
+        <v>5.13</v>
+      </c>
+      <c r="AD56">
+        <v>1.56</v>
+      </c>
+      <c r="AE56">
+        <v>0.57</v>
+      </c>
+      <c r="AF56">
+        <v>0.194</v>
+      </c>
+      <c r="AG56">
+        <v>0.124</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI56">
+        <v>1.61</v>
+      </c>
+      <c r="AJ56">
+        <v>0.331</v>
+      </c>
+      <c r="AK56">
+        <v>0.604</v>
+      </c>
+      <c r="AL56">
+        <v>4.4</v>
+      </c>
+      <c r="AM56">
+        <v>5</v>
+      </c>
+      <c r="AN56">
+        <v>1.51</v>
+      </c>
+      <c r="AO56">
         <v>0.264</v>
       </c>
-      <c r="Z56">
-        <v>0.35</v>
-      </c>
-      <c r="AA56">
-        <v>0.266</v>
-      </c>
-      <c r="AB56">
-        <v>6.45</v>
-      </c>
-      <c r="AC56">
-        <v>1.95</v>
-      </c>
-      <c r="AD56">
-        <v>3.31</v>
-      </c>
-      <c r="AE56">
-        <v>0.73</v>
-      </c>
-      <c r="AF56">
-        <v>0.177</v>
-      </c>
-      <c r="AG56">
-        <v>0.053</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI56">
-        <v>1.07</v>
-      </c>
-      <c r="AJ56">
-        <v>0.253</v>
-      </c>
-      <c r="AK56">
-        <v>0.708</v>
-      </c>
-      <c r="AL56">
-        <v>3.53</v>
-      </c>
-      <c r="AM56">
-        <v>4.28</v>
-      </c>
-      <c r="AN56">
-        <v>1.32</v>
-      </c>
-      <c r="AO56">
-        <v>0.175</v>
-      </c>
       <c r="AP56">
-        <v>0.469</v>
+        <v>0.4429999999999999</v>
       </c>
       <c r="AQ56">
-        <v>0.355</v>
+        <v>0.293</v>
       </c>
       <c r="AR56">
-        <v>0.111</v>
+        <v>0.122</v>
       </c>
       <c r="AS56">
-        <v>0.07400000000000001</v>
+        <v>0.073</v>
       </c>
       <c r="AT56">
-        <v>0.385</v>
+        <v>0.275</v>
       </c>
       <c r="AU56">
-        <v>0.416</v>
+        <v>0.408</v>
       </c>
       <c r="AV56">
-        <v>0.199</v>
+        <v>0.317</v>
       </c>
       <c r="AW56">
-        <v>0.212</v>
+        <v>0.176</v>
       </c>
       <c r="AX56">
-        <v>0.5539999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AY56">
-        <v>0.234</v>
+        <v>0.324</v>
       </c>
       <c r="AZ56">
-        <v>1136</v>
+        <v>856</v>
       </c>
       <c r="BA56">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="BB56">
-        <v>733</v>
+        <v>507</v>
       </c>
       <c r="BC56">
-        <v>407</v>
+        <v>248</v>
       </c>
       <c r="BD56">
-        <v>0.01474201474201474</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="BE56">
-        <v>0.1960687960687961</v>
+        <v>0.30275</v>
       </c>
       <c r="BF56">
-        <v>0.257985257985258</v>
+        <v>0.357</v>
       </c>
       <c r="BG56">
-        <v>0.1658476658476659</v>
+        <v>0.23275</v>
       </c>
       <c r="BH56">
-        <v>0.1304668304668305</v>
+        <v>0.16975</v>
       </c>
       <c r="BI56">
-        <v>0.03906633906633906</v>
+        <v>0.1085</v>
       </c>
       <c r="BJ56">
-        <v>0.1864864864864865</v>
+        <v>0.289625</v>
       </c>
       <c r="BK56">
-        <v>2.601965601965602</v>
+        <v>3.850000000000001</v>
       </c>
       <c r="BL56">
-        <v>3.154791154791155</v>
+        <v>4.375</v>
       </c>
       <c r="BM56">
-        <v>0.3457002457002457</v>
+        <v>0.3876249999999999</v>
       </c>
       <c r="BN56">
-        <v>0.128992628992629</v>
+        <v>0.231</v>
       </c>
       <c r="BO56">
-        <v>0.2616707616707616</v>
+        <v>0.256375</v>
       </c>
       <c r="BP56">
-        <v>0.05454545454545455</v>
+        <v>0.063875</v>
       </c>
       <c r="BQ56">
-        <v>0.1562653562653563</v>
+        <v>0.154</v>
       </c>
       <c r="BR56">
-        <v>0.4083538083538083</v>
+        <v>0.4375</v>
       </c>
       <c r="BS56">
-        <v>0.1724815724815725</v>
+        <v>0.2835</v>
       </c>
       <c r="BT56">
-        <v>0.09213759213759209</v>
+        <v>0.12425</v>
       </c>
     </row>
     <row r="57" spans="1:72">
@@ -13508,187 +13511,187 @@
         <v>88</v>
       </c>
       <c r="L57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M57">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="N57">
-        <v>23.1</v>
+        <v>7.1</v>
       </c>
       <c r="O57">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="R57">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U57">
         <v>0</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="X57">
-        <v>0.323</v>
+        <v>0.185</v>
       </c>
       <c r="Y57">
-        <v>0.374</v>
+        <v>0.29</v>
       </c>
       <c r="Z57">
-        <v>0.576</v>
+        <v>0.296</v>
       </c>
       <c r="AA57">
-        <v>0.41</v>
+        <v>0.271</v>
       </c>
       <c r="AB57">
-        <v>6.17</v>
+        <v>7.36</v>
       </c>
       <c r="AC57">
-        <v>2.7</v>
+        <v>4.91</v>
       </c>
       <c r="AD57">
-        <v>2.29</v>
+        <v>1.5</v>
       </c>
       <c r="AE57">
-        <v>2.7</v>
+        <v>1.23</v>
       </c>
       <c r="AF57">
-        <v>0.15</v>
+        <v>0.194</v>
       </c>
       <c r="AG57">
-        <v>0.065</v>
+        <v>0.129</v>
       </c>
       <c r="AH57" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AI57">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="AJ57">
-        <v>0.329</v>
+        <v>0.2</v>
       </c>
       <c r="AK57">
-        <v>0.629</v>
+        <v>0.789</v>
       </c>
       <c r="AL57">
-        <v>6.71</v>
+        <v>4.93</v>
       </c>
       <c r="AM57">
-        <v>4.4</v>
+        <v>5.67</v>
       </c>
       <c r="AN57">
-        <v>1.5</v>
+        <v>0.38</v>
       </c>
       <c r="AO57">
-        <v>0.217</v>
+        <v>0.143</v>
       </c>
       <c r="AP57">
-        <v>0.47</v>
+        <v>0.238</v>
       </c>
       <c r="AQ57">
-        <v>0.313</v>
+        <v>0.619</v>
       </c>
       <c r="AR57">
+        <v>0.308</v>
+      </c>
+      <c r="AS57">
         <v>0.077</v>
       </c>
-      <c r="AS57">
-        <v>0.269</v>
-      </c>
       <c r="AT57">
-        <v>0.386</v>
+        <v>0.476</v>
       </c>
       <c r="AU57">
-        <v>0.386</v>
+        <v>0.143</v>
       </c>
       <c r="AV57">
-        <v>0.229</v>
+        <v>0.381</v>
       </c>
       <c r="AW57">
-        <v>0.205</v>
+        <v>0.333</v>
       </c>
       <c r="AX57">
-        <v>0.59</v>
+        <v>0.524</v>
       </c>
       <c r="AY57">
-        <v>0.205</v>
+        <v>0.143</v>
       </c>
       <c r="AZ57">
-        <v>363</v>
+        <v>125</v>
       </c>
       <c r="BA57">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="BB57">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="BC57">
-        <v>407</v>
+        <v>248</v>
       </c>
       <c r="BD57">
-        <v>0.0171990171990172</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="BE57">
-        <v>0.1077886977886978</v>
+        <v>0.033875</v>
       </c>
       <c r="BF57">
-        <v>0.1514299754299754</v>
+        <v>0.037</v>
       </c>
       <c r="BG57">
-        <v>0.08491646191646192</v>
+        <v>0.023125</v>
       </c>
       <c r="BH57">
-        <v>0.03943488943488944</v>
+        <v>0.02425</v>
       </c>
       <c r="BI57">
-        <v>0.01708845208845209</v>
+        <v>0.016125</v>
       </c>
       <c r="BJ57">
-        <v>0.0864938574938575</v>
+        <v>0.025</v>
       </c>
       <c r="BK57">
-        <v>1.764054054054054</v>
+        <v>0.61625</v>
       </c>
       <c r="BL57">
-        <v>1.156756756756757</v>
+        <v>0.70875</v>
       </c>
       <c r="BM57">
-        <v>0.1235626535626536</v>
+        <v>0.02975</v>
       </c>
       <c r="BN57">
-        <v>0.05704914004914005</v>
+        <v>0.017875</v>
       </c>
       <c r="BO57">
-        <v>0.08228746928746929</v>
+        <v>0.077375</v>
       </c>
       <c r="BP57">
-        <v>0.07071990171990171</v>
+        <v>0.009625</v>
       </c>
       <c r="BQ57">
-        <v>0.0538943488943489</v>
+        <v>0.041625</v>
       </c>
       <c r="BR57">
-        <v>0.1551105651105651</v>
+        <v>0.0655</v>
       </c>
       <c r="BS57">
-        <v>0.0538943488943489</v>
+        <v>0.017875</v>
       </c>
       <c r="BT57">
-        <v>0.06651351351351349</v>
+        <v>0.013875</v>
       </c>
     </row>
     <row r="58" spans="1:72">
@@ -13726,187 +13729,187 @@
         <v>88</v>
       </c>
       <c r="L58" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M58">
         <v>278</v>
       </c>
       <c r="N58">
-        <v>63</v>
+        <v>62.1</v>
       </c>
       <c r="O58">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q58">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R58">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S58">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T58">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="X58">
-        <v>0.286</v>
+        <v>0.247</v>
       </c>
       <c r="Y58">
+        <v>0.331</v>
+      </c>
+      <c r="Z58">
+        <v>0.465</v>
+      </c>
+      <c r="AA58">
+        <v>0.341</v>
+      </c>
+      <c r="AB58">
+        <v>9.24</v>
+      </c>
+      <c r="AC58">
+        <v>4.33</v>
+      </c>
+      <c r="AD58">
+        <v>2.13</v>
+      </c>
+      <c r="AE58">
+        <v>1.59</v>
+      </c>
+      <c r="AF58">
+        <v>0.23</v>
+      </c>
+      <c r="AG58">
+        <v>0.108</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI58">
+        <v>1.44</v>
+      </c>
+      <c r="AJ58">
+        <v>0.287</v>
+      </c>
+      <c r="AK58">
+        <v>0.705</v>
+      </c>
+      <c r="AL58">
+        <v>5.04</v>
+      </c>
+      <c r="AM58">
+        <v>4.6</v>
+      </c>
+      <c r="AN58">
+        <v>1.13</v>
+      </c>
+      <c r="AO58">
+        <v>0.181</v>
+      </c>
+      <c r="AP58">
+        <v>0.434</v>
+      </c>
+      <c r="AQ58">
+        <v>0.385</v>
+      </c>
+      <c r="AR58">
+        <v>0.057</v>
+      </c>
+      <c r="AS58">
+        <v>0.157</v>
+      </c>
+      <c r="AT58">
+        <v>0.407</v>
+      </c>
+      <c r="AU58">
+        <v>0.269</v>
+      </c>
+      <c r="AV58">
         <v>0.324</v>
       </c>
-      <c r="Z58">
-        <v>0.439</v>
-      </c>
-      <c r="AA58">
-        <v>0.329</v>
-      </c>
-      <c r="AB58">
-        <v>5.71</v>
-      </c>
-      <c r="AC58">
-        <v>1.57</v>
-      </c>
-      <c r="AD58">
-        <v>3.64</v>
-      </c>
-      <c r="AE58">
-        <v>1</v>
-      </c>
-      <c r="AF58">
-        <v>0.144</v>
-      </c>
-      <c r="AG58">
-        <v>0.04</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI58">
-        <v>1.37</v>
-      </c>
-      <c r="AJ58">
-        <v>0.315</v>
-      </c>
-      <c r="AK58">
-        <v>0.636</v>
-      </c>
-      <c r="AL58">
-        <v>4.14</v>
-      </c>
-      <c r="AM58">
-        <v>4.59</v>
-      </c>
-      <c r="AN58">
-        <v>1.4</v>
-      </c>
-      <c r="AO58">
-        <v>0.217</v>
-      </c>
-      <c r="AP58">
-        <v>0.457</v>
-      </c>
-      <c r="AQ58">
-        <v>0.326</v>
-      </c>
-      <c r="AR58">
-        <v>0.153</v>
-      </c>
-      <c r="AS58">
-        <v>0.09699999999999999</v>
-      </c>
-      <c r="AT58">
-        <v>0.493</v>
-      </c>
-      <c r="AU58">
-        <v>0.314</v>
-      </c>
-      <c r="AV58">
-        <v>0.193</v>
-      </c>
       <c r="AW58">
-        <v>0.256</v>
+        <v>0.137</v>
       </c>
       <c r="AX58">
-        <v>0.48</v>
+        <v>0.489</v>
       </c>
       <c r="AY58">
-        <v>0.265</v>
+        <v>0.374</v>
       </c>
       <c r="AZ58">
-        <v>974</v>
+        <v>1102</v>
       </c>
       <c r="BA58">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="BB58">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="BC58">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="BD58">
-        <v>0.01851851851851852</v>
+        <v>0.03481012658227848</v>
       </c>
       <c r="BE58">
-        <v>0.241962962962963</v>
+        <v>0.299993670886076</v>
       </c>
       <c r="BF58">
-        <v>0.3228624338624339</v>
+        <v>0.4090822784810127</v>
       </c>
       <c r="BG58">
-        <v>0.2103386243386243</v>
+        <v>0.2172974683544304</v>
       </c>
       <c r="BH58">
-        <v>0.1059047619047619</v>
+        <v>0.2023417721518987</v>
       </c>
       <c r="BI58">
-        <v>0.02941798941798942</v>
+        <v>0.09501265822784812</v>
       </c>
       <c r="BJ58">
-        <v>0.2316666666666667</v>
+        <v>0.2524873417721519</v>
       </c>
       <c r="BK58">
-        <v>3.044761904761905</v>
+        <v>4.433924050632911</v>
       </c>
       <c r="BL58">
-        <v>3.375714285714286</v>
+        <v>4.046835443037974</v>
       </c>
       <c r="BM58">
-        <v>0.3361005291005291</v>
+        <v>0.3818101265822785</v>
       </c>
       <c r="BN58">
-        <v>0.1595925925925926</v>
+        <v>0.1592341772151899</v>
       </c>
       <c r="BO58">
-        <v>0.2397566137566138</v>
+        <v>0.3387025316455696</v>
       </c>
       <c r="BP58">
-        <v>0.07133862433862433</v>
+        <v>0.138120253164557</v>
       </c>
       <c r="BQ58">
-        <v>0.1882751322751323</v>
+        <v>0.1205253164556962</v>
       </c>
       <c r="BR58">
-        <v>0.353015873015873</v>
+        <v>0.4301962025316456</v>
       </c>
       <c r="BS58">
-        <v>0.1948941798941799</v>
+        <v>0.3290253164556962</v>
       </c>
       <c r="BT58">
-        <v>0.1125238095238095</v>
+        <v>0.1917848101265823</v>
       </c>
     </row>
     <row r="59" spans="1:72">
@@ -13944,31 +13947,31 @@
         <v>88</v>
       </c>
       <c r="L59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M59">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="N59">
-        <v>21.2</v>
+        <v>8</v>
       </c>
       <c r="O59">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="R59">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
         <v>4</v>
-      </c>
-      <c r="T59">
-        <v>8</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -13977,154 +13980,154 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="X59">
-        <v>0.333</v>
+        <v>0.303</v>
       </c>
       <c r="Y59">
-        <v>0.38</v>
+        <v>0.368</v>
       </c>
       <c r="Z59">
-        <v>0.511</v>
+        <v>0.424</v>
       </c>
       <c r="AA59">
-        <v>0.384</v>
+        <v>0.347</v>
       </c>
       <c r="AB59">
-        <v>6.23</v>
+        <v>4.5</v>
       </c>
       <c r="AC59">
-        <v>3.32</v>
+        <v>4.5</v>
       </c>
       <c r="AD59">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="AE59">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AF59">
-        <v>0.15</v>
+        <v>0.105</v>
       </c>
       <c r="AG59">
-        <v>0.08</v>
+        <v>0.105</v>
       </c>
       <c r="AH59" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AI59">
         <v>1.75</v>
       </c>
       <c r="AJ59">
-        <v>0.356</v>
+        <v>0.333</v>
       </c>
       <c r="AK59">
-        <v>0.525</v>
+        <v>0.429</v>
       </c>
       <c r="AL59">
-        <v>5.28</v>
+        <v>3.65</v>
       </c>
       <c r="AM59">
-        <v>4.39</v>
+        <v>5.79</v>
       </c>
       <c r="AN59">
-        <v>1.61</v>
+        <v>0.92</v>
       </c>
       <c r="AO59">
-        <v>0.221</v>
+        <v>0.233</v>
       </c>
       <c r="AP59">
-        <v>0.481</v>
+        <v>0.367</v>
       </c>
       <c r="AQ59">
-        <v>0.299</v>
+        <v>0.4</v>
       </c>
       <c r="AR59">
-        <v>0.08699999999999999</v>
+        <v>0.167</v>
       </c>
       <c r="AS59">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="AT59">
-        <v>0.364</v>
+        <v>0.467</v>
       </c>
       <c r="AU59">
-        <v>0.429</v>
+        <v>0.233</v>
       </c>
       <c r="AV59">
-        <v>0.208</v>
+        <v>0.3</v>
       </c>
       <c r="AW59">
-        <v>0.221</v>
+        <v>0.233</v>
       </c>
       <c r="AX59">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="AY59">
-        <v>0.273</v>
+        <v>0.267</v>
       </c>
       <c r="AZ59">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="BA59">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="BB59">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="BC59">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="BD59">
-        <v>0.01058201058201058</v>
+        <v>0</v>
       </c>
       <c r="BE59">
-        <v>0.1015873015873016</v>
+        <v>0.04172784810126582</v>
       </c>
       <c r="BF59">
-        <v>0.1351851851851852</v>
+        <v>0.0509873417721519</v>
       </c>
       <c r="BG59">
-        <v>0.0880952380952381</v>
+        <v>0.0364367088607595</v>
       </c>
       <c r="BH59">
-        <v>0.03968253968253968</v>
+        <v>0.01262658227848101</v>
       </c>
       <c r="BI59">
-        <v>0.02116402116402116</v>
+        <v>0.01262658227848101</v>
       </c>
       <c r="BJ59">
-        <v>0.09417989417989417</v>
+        <v>0.04004430379746836</v>
       </c>
       <c r="BK59">
-        <v>1.396825396825397</v>
+        <v>0.4389240506329114</v>
       </c>
       <c r="BL59">
-        <v>1.161375661375661</v>
+        <v>0.6962658227848102</v>
       </c>
       <c r="BM59">
-        <v>0.1272486772486772</v>
+        <v>0.04413291139240507</v>
       </c>
       <c r="BN59">
-        <v>0.05846560846560846</v>
+        <v>0.02801898734177215</v>
       </c>
       <c r="BO59">
-        <v>0.07910052910052909</v>
+        <v>0.04810126582278482</v>
       </c>
       <c r="BP59">
-        <v>0.04603174603174603</v>
+        <v>0</v>
       </c>
       <c r="BQ59">
-        <v>0.05846560846560846</v>
+        <v>0.02801898734177215</v>
       </c>
       <c r="BR59">
-        <v>0.1338624338624338</v>
+        <v>0.06012658227848101</v>
       </c>
       <c r="BS59">
-        <v>0.07222222222222223</v>
+        <v>0.03210759493670887</v>
       </c>
       <c r="BT59">
-        <v>0.04708994708994708</v>
+        <v>0.0145506329113924</v>
       </c>
     </row>
     <row r="60" spans="1:72">
@@ -14162,187 +14165,187 @@
         <v>89</v>
       </c>
       <c r="L60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M60">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="N60">
-        <v>47.1</v>
+        <v>19</v>
       </c>
       <c r="O60">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q60">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="R60">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="S60">
         <v>3</v>
       </c>
       <c r="T60">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="X60">
-        <v>0.266</v>
+        <v>0.267</v>
       </c>
       <c r="Y60">
-        <v>0.378</v>
+        <v>0.341</v>
       </c>
       <c r="Z60">
-        <v>0.408</v>
+        <v>0.453</v>
       </c>
       <c r="AA60">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="AB60">
-        <v>7.99</v>
+        <v>5.68</v>
       </c>
       <c r="AC60">
-        <v>5.13</v>
+        <v>4.26</v>
       </c>
       <c r="AD60">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AE60">
-        <v>0.57</v>
+        <v>1.42</v>
       </c>
       <c r="AF60">
-        <v>0.194</v>
+        <v>0.141</v>
       </c>
       <c r="AG60">
-        <v>0.124</v>
+        <v>0.106</v>
       </c>
       <c r="AH60" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AI60">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AJ60">
-        <v>0.331</v>
+        <v>0.279</v>
       </c>
       <c r="AK60">
-        <v>0.604</v>
+        <v>0.968</v>
       </c>
       <c r="AL60">
-        <v>4.4</v>
+        <v>5.47</v>
       </c>
       <c r="AM60">
-        <v>5</v>
+        <v>6.02</v>
       </c>
       <c r="AN60">
-        <v>1.51</v>
+        <v>0.73</v>
       </c>
       <c r="AO60">
-        <v>0.264</v>
+        <v>0.188</v>
       </c>
       <c r="AP60">
-        <v>0.4429999999999999</v>
+        <v>0.344</v>
       </c>
       <c r="AQ60">
-        <v>0.293</v>
+        <v>0.469</v>
       </c>
       <c r="AR60">
-        <v>0.122</v>
+        <v>0.133</v>
       </c>
       <c r="AS60">
-        <v>0.073</v>
+        <v>0.1</v>
       </c>
       <c r="AT60">
-        <v>0.275</v>
+        <v>0.422</v>
       </c>
       <c r="AU60">
-        <v>0.408</v>
+        <v>0.328</v>
       </c>
       <c r="AV60">
-        <v>0.317</v>
+        <v>0.25</v>
       </c>
       <c r="AW60">
-        <v>0.176</v>
+        <v>0.203</v>
       </c>
       <c r="AX60">
-        <v>0.5</v>
+        <v>0.469</v>
       </c>
       <c r="AY60">
-        <v>0.324</v>
+        <v>0.328</v>
       </c>
       <c r="AZ60">
-        <v>856</v>
+        <v>339</v>
       </c>
       <c r="BA60">
-        <v>349</v>
+        <v>125</v>
       </c>
       <c r="BB60">
-        <v>507</v>
+        <v>214</v>
       </c>
       <c r="BC60">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="BD60">
-        <v>0.01209677419354839</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="BE60">
-        <v>0.30275</v>
+        <v>0.1221428571428572</v>
       </c>
       <c r="BF60">
-        <v>0.357</v>
+        <v>0.1617857142857143</v>
       </c>
       <c r="BG60">
-        <v>0.23275</v>
+        <v>0.09535714285714286</v>
       </c>
       <c r="BH60">
-        <v>0.16975</v>
+        <v>0.05035714285714285</v>
       </c>
       <c r="BI60">
-        <v>0.1085</v>
+        <v>0.03785714285714286</v>
       </c>
       <c r="BJ60">
-        <v>0.289625</v>
+        <v>0.09964285714285716</v>
       </c>
       <c r="BK60">
-        <v>3.850000000000001</v>
+        <v>1.953571428571429</v>
       </c>
       <c r="BL60">
-        <v>4.375</v>
+        <v>2.15</v>
       </c>
       <c r="BM60">
-        <v>0.3876249999999999</v>
+        <v>0.1228571428571428</v>
       </c>
       <c r="BN60">
-        <v>0.231</v>
+        <v>0.06714285714285714</v>
       </c>
       <c r="BO60">
-        <v>0.256375</v>
+        <v>0.1675</v>
       </c>
       <c r="BP60">
-        <v>0.063875</v>
+        <v>0.03571428571428572</v>
       </c>
       <c r="BQ60">
-        <v>0.154</v>
+        <v>0.07250000000000001</v>
       </c>
       <c r="BR60">
-        <v>0.4375</v>
+        <v>0.1675</v>
       </c>
       <c r="BS60">
-        <v>0.2835</v>
+        <v>0.1171428571428571</v>
       </c>
       <c r="BT60">
-        <v>0.12425</v>
+        <v>0.06642857142857142</v>
       </c>
     </row>
     <row r="61" spans="1:72">
@@ -14380,187 +14383,187 @@
         <v>89</v>
       </c>
       <c r="L61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M61">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="N61">
-        <v>7.1</v>
+        <v>33.1</v>
       </c>
       <c r="O61">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T61">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="U61">
         <v>0</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X61">
-        <v>0.185</v>
+        <v>0.277</v>
       </c>
       <c r="Y61">
-        <v>0.29</v>
+        <v>0.349</v>
       </c>
       <c r="Z61">
-        <v>0.296</v>
+        <v>0.453</v>
       </c>
       <c r="AA61">
-        <v>0.271</v>
+        <v>0.352</v>
       </c>
       <c r="AB61">
-        <v>7.36</v>
+        <v>9.18</v>
       </c>
       <c r="AC61">
-        <v>4.91</v>
+        <v>3.51</v>
       </c>
       <c r="AD61">
-        <v>1.5</v>
+        <v>2.62</v>
       </c>
       <c r="AE61">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AF61">
+        <v>0.222</v>
+      </c>
+      <c r="AG61">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI61">
+        <v>1.53</v>
+      </c>
+      <c r="AJ61">
+        <v>0.34</v>
+      </c>
+      <c r="AK61">
+        <v>0.802</v>
+      </c>
+      <c r="AL61">
+        <v>4.02</v>
+      </c>
+      <c r="AM61">
+        <v>4.34</v>
+      </c>
+      <c r="AN61">
+        <v>0.84</v>
+      </c>
+      <c r="AO61">
+        <v>0.206</v>
+      </c>
+      <c r="AP61">
+        <v>0.363</v>
+      </c>
+      <c r="AQ61">
+        <v>0.431</v>
+      </c>
+      <c r="AR61">
+        <v>0.136</v>
+      </c>
+      <c r="AS61">
+        <v>0.091</v>
+      </c>
+      <c r="AT61">
+        <v>0.311</v>
+      </c>
+      <c r="AU61">
+        <v>0.408</v>
+      </c>
+      <c r="AV61">
+        <v>0.282</v>
+      </c>
+      <c r="AW61">
         <v>0.194</v>
       </c>
-      <c r="AG61">
-        <v>0.129</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI61">
-        <v>1.23</v>
-      </c>
-      <c r="AJ61">
-        <v>0.2</v>
-      </c>
-      <c r="AK61">
-        <v>0.789</v>
-      </c>
-      <c r="AL61">
-        <v>4.93</v>
-      </c>
-      <c r="AM61">
-        <v>5.67</v>
-      </c>
-      <c r="AN61">
-        <v>0.38</v>
-      </c>
-      <c r="AO61">
-        <v>0.143</v>
-      </c>
-      <c r="AP61">
-        <v>0.238</v>
-      </c>
-      <c r="AQ61">
-        <v>0.619</v>
-      </c>
-      <c r="AR61">
-        <v>0.308</v>
-      </c>
-      <c r="AS61">
-        <v>0.077</v>
-      </c>
-      <c r="AT61">
-        <v>0.476</v>
-      </c>
-      <c r="AU61">
-        <v>0.143</v>
-      </c>
-      <c r="AV61">
-        <v>0.381</v>
-      </c>
-      <c r="AW61">
-        <v>0.333</v>
-      </c>
       <c r="AX61">
-        <v>0.524</v>
+        <v>0.5529999999999999</v>
       </c>
       <c r="AY61">
-        <v>0.143</v>
+        <v>0.252</v>
       </c>
       <c r="AZ61">
-        <v>125</v>
+        <v>615</v>
       </c>
       <c r="BA61">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="BB61">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="BC61">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="BD61">
-        <v>0.004032258064516129</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="BE61">
-        <v>0.033875</v>
+        <v>0.2262857142857143</v>
       </c>
       <c r="BF61">
-        <v>0.037</v>
+        <v>0.2912142857142858</v>
       </c>
       <c r="BG61">
-        <v>0.023125</v>
+        <v>0.1780714285714286</v>
       </c>
       <c r="BH61">
-        <v>0.02425</v>
+        <v>0.1427142857142857</v>
       </c>
       <c r="BI61">
-        <v>0.016125</v>
+        <v>0.05464285714285715</v>
       </c>
       <c r="BJ61">
-        <v>0.025</v>
+        <v>0.2185714285714286</v>
       </c>
       <c r="BK61">
-        <v>0.61625</v>
+        <v>2.584285714285714</v>
       </c>
       <c r="BL61">
-        <v>0.70875</v>
+        <v>2.79</v>
       </c>
       <c r="BM61">
-        <v>0.02975</v>
+        <v>0.2333571428571429</v>
       </c>
       <c r="BN61">
-        <v>0.017875</v>
+        <v>0.1324285714285715</v>
       </c>
       <c r="BO61">
-        <v>0.077375</v>
+        <v>0.2770714285714286</v>
       </c>
       <c r="BP61">
-        <v>0.009625</v>
+        <v>0.0585</v>
       </c>
       <c r="BQ61">
-        <v>0.041625</v>
+        <v>0.1247142857142857</v>
       </c>
       <c r="BR61">
-        <v>0.0655</v>
+        <v>0.3555</v>
       </c>
       <c r="BS61">
-        <v>0.017875</v>
+        <v>0.162</v>
       </c>
       <c r="BT61">
-        <v>0.013875</v>
+        <v>0.1131428571428572</v>
       </c>
     </row>
     <row r="62" spans="1:72">
@@ -14598,187 +14601,187 @@
         <v>89</v>
       </c>
       <c r="L62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M62">
-        <v>278</v>
+        <v>88</v>
       </c>
       <c r="N62">
-        <v>62.1</v>
+        <v>22.1</v>
       </c>
       <c r="O62">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q62">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="R62">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="S62">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T62">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="X62">
-        <v>0.247</v>
+        <v>0.224</v>
       </c>
       <c r="Y62">
-        <v>0.331</v>
+        <v>0.25</v>
       </c>
       <c r="Z62">
-        <v>0.465</v>
+        <v>0.506</v>
       </c>
       <c r="AA62">
-        <v>0.341</v>
+        <v>0.315</v>
       </c>
       <c r="AB62">
-        <v>9.24</v>
+        <v>7.66</v>
       </c>
       <c r="AC62">
-        <v>4.33</v>
+        <v>1.21</v>
       </c>
       <c r="AD62">
-        <v>2.13</v>
+        <v>6.33</v>
       </c>
       <c r="AE62">
-        <v>1.59</v>
+        <v>2.42</v>
       </c>
       <c r="AF62">
-        <v>0.23</v>
+        <v>0.216</v>
       </c>
       <c r="AG62">
-        <v>0.108</v>
+        <v>0.034</v>
       </c>
       <c r="AH62" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AI62">
-        <v>1.44</v>
+        <v>0.99</v>
       </c>
       <c r="AJ62">
-        <v>0.287</v>
+        <v>0.217</v>
       </c>
       <c r="AK62">
-        <v>0.705</v>
+        <v>0.515</v>
       </c>
       <c r="AL62">
-        <v>5.04</v>
+        <v>5.45</v>
       </c>
       <c r="AM62">
-        <v>4.6</v>
+        <v>3.73</v>
       </c>
       <c r="AN62">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO62">
-        <v>0.181</v>
+        <v>0.182</v>
       </c>
       <c r="AP62">
-        <v>0.434</v>
+        <v>0.455</v>
       </c>
       <c r="AQ62">
-        <v>0.385</v>
+        <v>0.364</v>
       </c>
       <c r="AR62">
-        <v>0.057</v>
+        <v>0.167</v>
       </c>
       <c r="AS62">
-        <v>0.157</v>
+        <v>0.25</v>
       </c>
       <c r="AT62">
-        <v>0.407</v>
+        <v>0.409</v>
       </c>
       <c r="AU62">
-        <v>0.269</v>
+        <v>0.364</v>
       </c>
       <c r="AV62">
-        <v>0.324</v>
+        <v>0.227</v>
       </c>
       <c r="AW62">
-        <v>0.137</v>
+        <v>0.227</v>
       </c>
       <c r="AX62">
-        <v>0.489</v>
+        <v>0.485</v>
       </c>
       <c r="AY62">
-        <v>0.374</v>
+        <v>0.288</v>
       </c>
       <c r="AZ62">
-        <v>1102</v>
+        <v>334</v>
       </c>
       <c r="BA62">
-        <v>421</v>
+        <v>113</v>
       </c>
       <c r="BB62">
-        <v>681</v>
+        <v>221</v>
       </c>
       <c r="BC62">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="BD62">
-        <v>0.03481012658227848</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="BE62">
-        <v>0.299993670886076</v>
+        <v>0.1095652173913043</v>
       </c>
       <c r="BF62">
-        <v>0.4090822784810127</v>
+        <v>0.176</v>
       </c>
       <c r="BG62">
-        <v>0.2172974683544304</v>
+        <v>0.07791304347826086</v>
       </c>
       <c r="BH62">
-        <v>0.2023417721518987</v>
+        <v>0.0751304347826087</v>
       </c>
       <c r="BI62">
-        <v>0.09501265822784812</v>
+        <v>0.01182608695652174</v>
       </c>
       <c r="BJ62">
-        <v>0.2524873417721519</v>
+        <v>0.07547826086956522</v>
       </c>
       <c r="BK62">
-        <v>4.433924050632911</v>
+        <v>1.895652173913043</v>
       </c>
       <c r="BL62">
-        <v>4.046835443037974</v>
+        <v>1.297391304347826</v>
       </c>
       <c r="BM62">
-        <v>0.3818101265822785</v>
+        <v>0.1582608695652174</v>
       </c>
       <c r="BN62">
-        <v>0.1592341772151899</v>
+        <v>0.06330434782608696</v>
       </c>
       <c r="BO62">
-        <v>0.3387025316455696</v>
+        <v>0.1266086956521739</v>
       </c>
       <c r="BP62">
-        <v>0.138120253164557</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="BQ62">
-        <v>0.1205253164556962</v>
+        <v>0.07895652173913043</v>
       </c>
       <c r="BR62">
-        <v>0.4301962025316456</v>
+        <v>0.168695652173913</v>
       </c>
       <c r="BS62">
-        <v>0.3290253164556962</v>
+        <v>0.1001739130434783</v>
       </c>
       <c r="BT62">
-        <v>0.1917848101265823</v>
+        <v>0.09808695652173913</v>
       </c>
     </row>
     <row r="63" spans="1:72">
@@ -14816,187 +14819,187 @@
         <v>89</v>
       </c>
       <c r="L63" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M63">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="N63">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="O63">
+        <v>29</v>
+      </c>
+      <c r="P63" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q63">
+        <v>18</v>
+      </c>
+      <c r="R63">
+        <v>16</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
         <v>10</v>
-      </c>
-      <c r="P63" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q63">
-        <v>8</v>
-      </c>
-      <c r="R63">
-        <v>8</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>4</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="X63">
-        <v>0.303</v>
+        <v>0.19</v>
       </c>
       <c r="Y63">
-        <v>0.368</v>
+        <v>0.242</v>
       </c>
       <c r="Z63">
+        <v>0.275</v>
+      </c>
+      <c r="AA63">
+        <v>0.233</v>
+      </c>
+      <c r="AB63">
+        <v>7.53</v>
+      </c>
+      <c r="AC63">
+        <v>2.09</v>
+      </c>
+      <c r="AD63">
+        <v>3.6</v>
+      </c>
+      <c r="AE63">
+        <v>0.42</v>
+      </c>
+      <c r="AF63">
+        <v>0.218</v>
+      </c>
+      <c r="AG63">
+        <v>0.061</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI63">
+        <v>0.91</v>
+      </c>
+      <c r="AJ63">
+        <v>0.233</v>
+      </c>
+      <c r="AK63">
+        <v>0.591</v>
+      </c>
+      <c r="AL63">
+        <v>2.85</v>
+      </c>
+      <c r="AM63">
+        <v>3.93</v>
+      </c>
+      <c r="AN63">
+        <v>0.98</v>
+      </c>
+      <c r="AO63">
+        <v>0.144</v>
+      </c>
+      <c r="AP63">
         <v>0.424</v>
       </c>
-      <c r="AA63">
-        <v>0.347</v>
-      </c>
-      <c r="AB63">
-        <v>4.5</v>
-      </c>
-      <c r="AC63">
-        <v>4.5</v>
-      </c>
-      <c r="AD63">
-        <v>1</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>0.105</v>
-      </c>
-      <c r="AG63">
-        <v>0.105</v>
-      </c>
-      <c r="AH63" t="s">
-        <v>258</v>
-      </c>
-      <c r="AI63">
-        <v>1.75</v>
-      </c>
-      <c r="AJ63">
-        <v>0.333</v>
-      </c>
-      <c r="AK63">
-        <v>0.429</v>
-      </c>
-      <c r="AL63">
-        <v>3.65</v>
-      </c>
-      <c r="AM63">
-        <v>5.79</v>
-      </c>
-      <c r="AN63">
-        <v>0.92</v>
-      </c>
-      <c r="AO63">
-        <v>0.233</v>
-      </c>
-      <c r="AP63">
-        <v>0.367</v>
-      </c>
       <c r="AQ63">
-        <v>0.4</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="AR63">
-        <v>0.167</v>
+        <v>0.157</v>
       </c>
       <c r="AS63">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="AT63">
-        <v>0.467</v>
+        <v>0.415</v>
       </c>
       <c r="AU63">
-        <v>0.233</v>
+        <v>0.398</v>
       </c>
       <c r="AV63">
-        <v>0.3</v>
+        <v>0.186</v>
       </c>
       <c r="AW63">
-        <v>0.233</v>
+        <v>0.169</v>
       </c>
       <c r="AX63">
-        <v>0.5</v>
+        <v>0.517</v>
       </c>
       <c r="AY63">
-        <v>0.267</v>
+        <v>0.314</v>
       </c>
       <c r="AZ63">
-        <v>150</v>
+        <v>644</v>
       </c>
       <c r="BA63">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="BB63">
-        <v>92</v>
+        <v>421</v>
       </c>
       <c r="BC63">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="BD63">
-        <v>0</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="BE63">
-        <v>0.04172784810126582</v>
+        <v>0.1519565217391304</v>
       </c>
       <c r="BF63">
-        <v>0.0509873417721519</v>
+        <v>0.1793478260869565</v>
       </c>
       <c r="BG63">
-        <v>0.0364367088607595</v>
+        <v>0.1239130434782609</v>
       </c>
       <c r="BH63">
-        <v>0.01262658227848101</v>
+        <v>0.1421739130434783</v>
       </c>
       <c r="BI63">
-        <v>0.01262658227848101</v>
+        <v>0.03978260869565217</v>
       </c>
       <c r="BJ63">
-        <v>0.04004430379746836</v>
+        <v>0.1519565217391304</v>
       </c>
       <c r="BK63">
-        <v>0.4389240506329114</v>
+        <v>1.858695652173913</v>
       </c>
       <c r="BL63">
-        <v>0.6962658227848102</v>
+        <v>2.56304347826087</v>
       </c>
       <c r="BM63">
-        <v>0.04413291139240507</v>
+        <v>0.2765217391304348</v>
       </c>
       <c r="BN63">
-        <v>0.02801898734177215</v>
+        <v>0.09391304347826088</v>
       </c>
       <c r="BO63">
-        <v>0.04810126582278482</v>
+        <v>0.2817391304347827</v>
       </c>
       <c r="BP63">
-        <v>0</v>
+        <v>0.02543478260869565</v>
       </c>
       <c r="BQ63">
-        <v>0.02801898734177215</v>
+        <v>0.1102173913043478</v>
       </c>
       <c r="BR63">
-        <v>0.06012658227848101</v>
+        <v>0.3371739130434783</v>
       </c>
       <c r="BS63">
-        <v>0.03210759493670887</v>
+        <v>0.2047826086956522</v>
       </c>
       <c r="BT63">
-        <v>0.0145506329113924</v>
+        <v>0.05543478260869567</v>
       </c>
     </row>
     <row r="64" spans="1:72">
@@ -15019,10 +15022,10 @@
         <v>166</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="I64" t="s">
         <v>90</v>
@@ -15034,187 +15037,187 @@
         <v>90</v>
       </c>
       <c r="L64" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M64">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N64">
-        <v>19</v>
+        <v>14.2</v>
       </c>
       <c r="O64">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R64">
         <v>5</v>
       </c>
       <c r="S64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W64">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X64">
-        <v>0.267</v>
+        <v>0.163</v>
       </c>
       <c r="Y64">
-        <v>0.341</v>
+        <v>0.236</v>
       </c>
       <c r="Z64">
-        <v>0.453</v>
+        <v>0.286</v>
       </c>
       <c r="AA64">
-        <v>0.342</v>
+        <v>0.234</v>
       </c>
       <c r="AB64">
-        <v>5.68</v>
+        <v>5.52</v>
       </c>
       <c r="AC64">
-        <v>4.26</v>
+        <v>0.61</v>
       </c>
       <c r="AD64">
-        <v>1.33</v>
+        <v>9</v>
       </c>
       <c r="AE64">
-        <v>1.42</v>
+        <v>0.61</v>
       </c>
       <c r="AF64">
-        <v>0.141</v>
+        <v>0.164</v>
       </c>
       <c r="AG64">
-        <v>0.106</v>
+        <v>0.018</v>
       </c>
       <c r="AH64" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AI64">
-        <v>1.53</v>
+        <v>0.61</v>
       </c>
       <c r="AJ64">
-        <v>0.279</v>
+        <v>0.175</v>
       </c>
       <c r="AK64">
-        <v>0.968</v>
+        <v>0.603</v>
       </c>
       <c r="AL64">
-        <v>5.47</v>
+        <v>3.94</v>
       </c>
       <c r="AM64">
-        <v>6.02</v>
+        <v>4.18</v>
       </c>
       <c r="AN64">
-        <v>0.73</v>
+        <v>2.1</v>
       </c>
       <c r="AO64">
-        <v>0.188</v>
+        <v>0.244</v>
       </c>
       <c r="AP64">
-        <v>0.344</v>
+        <v>0.512</v>
       </c>
       <c r="AQ64">
-        <v>0.469</v>
+        <v>0.244</v>
       </c>
       <c r="AR64">
-        <v>0.133</v>
+        <v>0.1</v>
       </c>
       <c r="AS64">
         <v>0.1</v>
       </c>
       <c r="AT64">
-        <v>0.422</v>
+        <v>0.366</v>
       </c>
       <c r="AU64">
-        <v>0.328</v>
+        <v>0.341</v>
       </c>
       <c r="AV64">
-        <v>0.25</v>
+        <v>0.293</v>
       </c>
       <c r="AW64">
-        <v>0.203</v>
+        <v>0.195</v>
       </c>
       <c r="AX64">
-        <v>0.469</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="AY64">
-        <v>0.328</v>
+        <v>0.244</v>
       </c>
       <c r="AZ64">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="BA64">
+        <v>83</v>
+      </c>
+      <c r="BB64">
         <v>125</v>
       </c>
-      <c r="BB64">
-        <v>214</v>
-      </c>
       <c r="BC64">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="BD64">
-        <v>0.01260504201680672</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="BE64">
-        <v>0.1221428571428572</v>
+        <v>0.1225714285714286</v>
       </c>
       <c r="BF64">
-        <v>0.1617857142857143</v>
+        <v>0.1498095238095238</v>
       </c>
       <c r="BG64">
-        <v>0.09535714285714286</v>
+        <v>0.08538095238095239</v>
       </c>
       <c r="BH64">
-        <v>0.05035714285714285</v>
+        <v>0.0859047619047619</v>
       </c>
       <c r="BI64">
-        <v>0.03785714285714286</v>
+        <v>0.00942857142857143</v>
       </c>
       <c r="BJ64">
-        <v>0.09964285714285716</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="BK64">
-        <v>1.953571428571429</v>
+        <v>2.063809523809524</v>
       </c>
       <c r="BL64">
-        <v>2.15</v>
+        <v>2.18952380952381</v>
       </c>
       <c r="BM64">
-        <v>0.1228571428571428</v>
+        <v>0.2681904761904762</v>
       </c>
       <c r="BN64">
-        <v>0.06714285714285714</v>
+        <v>0.1278095238095238</v>
       </c>
       <c r="BO64">
-        <v>0.1675</v>
+        <v>0.1278095238095238</v>
       </c>
       <c r="BP64">
-        <v>0.03571428571428572</v>
+        <v>0.05238095238095239</v>
       </c>
       <c r="BQ64">
-        <v>0.07250000000000001</v>
+        <v>0.1021428571428571</v>
       </c>
       <c r="BR64">
-        <v>0.1675</v>
+        <v>0.2938571428571429</v>
       </c>
       <c r="BS64">
-        <v>0.1171428571428571</v>
+        <v>0.1278095238095238</v>
       </c>
       <c r="BT64">
-        <v>0.06642857142857142</v>
+        <v>0.06442857142857142</v>
       </c>
     </row>
     <row r="65" spans="1:72">
@@ -15237,10 +15240,10 @@
         <v>166</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="I65" t="s">
         <v>90</v>
@@ -15252,187 +15255,187 @@
         <v>90</v>
       </c>
       <c r="L65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M65">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="N65">
-        <v>33.1</v>
+        <v>15.2</v>
       </c>
       <c r="O65">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q65">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="R65">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="S65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="U65">
         <v>0</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="X65">
-        <v>0.277</v>
+        <v>0.125</v>
       </c>
       <c r="Y65">
-        <v>0.349</v>
+        <v>0.16</v>
       </c>
       <c r="Z65">
-        <v>0.453</v>
+        <v>0.146</v>
       </c>
       <c r="AA65">
-        <v>0.352</v>
+        <v>0.142</v>
       </c>
       <c r="AB65">
-        <v>9.18</v>
+        <v>6.32</v>
       </c>
       <c r="AC65">
-        <v>3.51</v>
+        <v>1.15</v>
       </c>
       <c r="AD65">
-        <v>2.62</v>
+        <v>5.5</v>
       </c>
       <c r="AE65">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AF65">
-        <v>0.222</v>
+        <v>0.22</v>
       </c>
       <c r="AG65">
-        <v>0.08500000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AH65" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AI65">
-        <v>1.53</v>
+        <v>0.51</v>
       </c>
       <c r="AJ65">
-        <v>0.34</v>
+        <v>0.162</v>
       </c>
       <c r="AK65">
-        <v>0.802</v>
+        <v>0.5</v>
       </c>
       <c r="AL65">
-        <v>4.02</v>
+        <v>2.13</v>
       </c>
       <c r="AM65">
-        <v>4.34</v>
+        <v>3.22</v>
       </c>
       <c r="AN65">
-        <v>0.84</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>0.206</v>
+        <v>0.091</v>
       </c>
       <c r="AP65">
-        <v>0.363</v>
+        <v>0.545</v>
       </c>
       <c r="AQ65">
-        <v>0.431</v>
+        <v>0.364</v>
       </c>
       <c r="AR65">
-        <v>0.136</v>
+        <v>0.333</v>
       </c>
       <c r="AS65">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="AT65">
-        <v>0.311</v>
+        <v>0.405</v>
       </c>
       <c r="AU65">
-        <v>0.408</v>
+        <v>0.405</v>
       </c>
       <c r="AV65">
-        <v>0.282</v>
+        <v>0.189</v>
       </c>
       <c r="AW65">
-        <v>0.194</v>
+        <v>0.189</v>
       </c>
       <c r="AX65">
-        <v>0.5529999999999999</v>
+        <v>0.541</v>
       </c>
       <c r="AY65">
-        <v>0.252</v>
+        <v>0.27</v>
       </c>
       <c r="AZ65">
-        <v>615</v>
+        <v>193</v>
       </c>
       <c r="BA65">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="BB65">
-        <v>383</v>
+        <v>123</v>
       </c>
       <c r="BC65">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="BD65">
-        <v>0.01680672268907563</v>
+        <v>0</v>
       </c>
       <c r="BE65">
-        <v>0.2262857142857143</v>
+        <v>0.06761904761904761</v>
       </c>
       <c r="BF65">
-        <v>0.2912142857142858</v>
+        <v>0.06952380952380952</v>
       </c>
       <c r="BG65">
-        <v>0.1780714285714286</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="BH65">
-        <v>0.1427142857142857</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="BI65">
-        <v>0.05464285714285715</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="BJ65">
-        <v>0.2185714285714286</v>
+        <v>0.07714285714285714</v>
       </c>
       <c r="BK65">
-        <v>2.584285714285714</v>
+        <v>1.014285714285714</v>
       </c>
       <c r="BL65">
-        <v>2.79</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="BM65">
-        <v>0.2333571428571429</v>
+        <v>0.2595238095238095</v>
       </c>
       <c r="BN65">
-        <v>0.1324285714285715</v>
+        <v>0.04333333333333333</v>
       </c>
       <c r="BO65">
-        <v>0.2770714285714286</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="BP65">
-        <v>0.0585</v>
+        <v>0</v>
       </c>
       <c r="BQ65">
-        <v>0.1247142857142857</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="BR65">
-        <v>0.3555</v>
+        <v>0.2576190476190476</v>
       </c>
       <c r="BS65">
-        <v>0.162</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="BT65">
-        <v>0.1131428571428572</v>
+        <v>0.009999999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:72">
@@ -15455,10 +15458,10 @@
         <v>166</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="I66" t="s">
         <v>90</v>
@@ -15470,187 +15473,187 @@
         <v>90</v>
       </c>
       <c r="L66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M66">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="N66">
-        <v>22.1</v>
+        <v>47</v>
       </c>
       <c r="O66">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q66">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="R66">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="S66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="X66">
-        <v>0.224</v>
+        <v>0.302</v>
       </c>
       <c r="Y66">
-        <v>0.25</v>
+        <v>0.377</v>
       </c>
       <c r="Z66">
-        <v>0.506</v>
+        <v>0.484</v>
       </c>
       <c r="AA66">
-        <v>0.315</v>
+        <v>0.368</v>
       </c>
       <c r="AB66">
-        <v>7.66</v>
+        <v>7.09</v>
       </c>
       <c r="AC66">
-        <v>1.21</v>
+        <v>4.6</v>
       </c>
       <c r="AD66">
-        <v>6.33</v>
+        <v>1.54</v>
       </c>
       <c r="AE66">
-        <v>2.42</v>
+        <v>0.77</v>
       </c>
       <c r="AF66">
-        <v>0.216</v>
+        <v>0.168</v>
       </c>
       <c r="AG66">
-        <v>0.034</v>
+        <v>0.109</v>
       </c>
       <c r="AH66" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AI66">
-        <v>0.99</v>
+        <v>1.74</v>
       </c>
       <c r="AJ66">
-        <v>0.217</v>
+        <v>0.351</v>
       </c>
       <c r="AK66">
-        <v>0.515</v>
+        <v>0.607</v>
       </c>
       <c r="AL66">
-        <v>5.45</v>
+        <v>4.38</v>
       </c>
       <c r="AM66">
-        <v>3.73</v>
+        <v>5.28</v>
       </c>
       <c r="AN66">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AO66">
-        <v>0.182</v>
+        <v>0.223</v>
       </c>
       <c r="AP66">
-        <v>0.455</v>
+        <v>0.414</v>
       </c>
       <c r="AQ66">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="AR66">
-        <v>0.167</v>
+        <v>0.105</v>
       </c>
       <c r="AS66">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT66">
-        <v>0.409</v>
+        <v>0.335</v>
       </c>
       <c r="AU66">
-        <v>0.364</v>
+        <v>0.335</v>
       </c>
       <c r="AV66">
-        <v>0.227</v>
+        <v>0.329</v>
       </c>
       <c r="AW66">
-        <v>0.227</v>
+        <v>0.114</v>
       </c>
       <c r="AX66">
-        <v>0.485</v>
+        <v>0.481</v>
       </c>
       <c r="AY66">
-        <v>0.288</v>
+        <v>0.405</v>
       </c>
       <c r="AZ66">
-        <v>334</v>
+        <v>855</v>
       </c>
       <c r="BA66">
-        <v>113</v>
+        <v>333</v>
       </c>
       <c r="BB66">
-        <v>221</v>
+        <v>522</v>
       </c>
       <c r="BC66">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="BD66">
-        <v>0.02371541501976284</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="BE66">
-        <v>0.1095652173913043</v>
+        <v>0.2611612903225807</v>
       </c>
       <c r="BF66">
-        <v>0.176</v>
+        <v>0.343483870967742</v>
       </c>
       <c r="BG66">
-        <v>0.07791304347826086</v>
+        <v>0.2143225806451613</v>
       </c>
       <c r="BH66">
-        <v>0.0751304347826087</v>
+        <v>0.1192258064516129</v>
       </c>
       <c r="BI66">
-        <v>0.01182608695652174</v>
+        <v>0.07735483870967742</v>
       </c>
       <c r="BJ66">
-        <v>0.07547826086956522</v>
+        <v>0.2490967741935484</v>
       </c>
       <c r="BK66">
-        <v>1.895652173913043</v>
+        <v>3.108387096774194</v>
       </c>
       <c r="BL66">
-        <v>1.297391304347826</v>
+        <v>3.747096774193549</v>
       </c>
       <c r="BM66">
-        <v>0.1582608695652174</v>
+        <v>0.2938064516129033</v>
       </c>
       <c r="BN66">
-        <v>0.06330434782608696</v>
+        <v>0.158258064516129</v>
       </c>
       <c r="BO66">
-        <v>0.1266086956521739</v>
+        <v>0.2576129032258064</v>
       </c>
       <c r="BP66">
-        <v>0.08695652173913043</v>
+        <v>0.04967741935483871</v>
       </c>
       <c r="BQ66">
-        <v>0.07895652173913043</v>
+        <v>0.08090322580645162</v>
       </c>
       <c r="BR66">
-        <v>0.168695652173913</v>
+        <v>0.3413548387096775</v>
       </c>
       <c r="BS66">
-        <v>0.1001739130434783</v>
+        <v>0.2874193548387097</v>
       </c>
       <c r="BT66">
-        <v>0.09808695652173913</v>
+        <v>0.1291612903225807</v>
       </c>
     </row>
     <row r="67" spans="1:72">
@@ -15673,10 +15676,10 @@
         <v>166</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="I67" t="s">
         <v>90</v>
@@ -15688,187 +15691,187 @@
         <v>90</v>
       </c>
       <c r="L67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M67">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="N67">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O67">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q67">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R67">
+        <v>13</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67">
+        <v>12</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
         <v>16</v>
       </c>
-      <c r="S67">
-        <v>2</v>
-      </c>
-      <c r="T67">
-        <v>10</v>
-      </c>
-      <c r="U67">
+      <c r="X67">
+        <v>0.32</v>
+      </c>
+      <c r="Y67">
+        <v>0.404</v>
+      </c>
+      <c r="Z67">
+        <v>0.533</v>
+      </c>
+      <c r="AA67">
+        <v>0.399</v>
+      </c>
+      <c r="AB67">
+        <v>7.58</v>
+      </c>
+      <c r="AC67">
+        <v>5.68</v>
+      </c>
+      <c r="AD67">
+        <v>1.33</v>
+      </c>
+      <c r="AE67">
+        <v>1.42</v>
+      </c>
+      <c r="AF67">
+        <v>0.178</v>
+      </c>
+      <c r="AG67">
+        <v>0.133</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI67">
+        <v>1.89</v>
+      </c>
+      <c r="AJ67">
+        <v>0.356</v>
+      </c>
+      <c r="AK67">
+        <v>0.6920000000000001</v>
+      </c>
+      <c r="AL67">
+        <v>5.42</v>
+      </c>
+      <c r="AM67">
+        <v>5.01</v>
+      </c>
+      <c r="AN67">
+        <v>1.18</v>
+      </c>
+      <c r="AO67">
+        <v>0.213</v>
+      </c>
+      <c r="AP67">
+        <v>0.426</v>
+      </c>
+      <c r="AQ67">
+        <v>0.361</v>
+      </c>
+      <c r="AR67">
         <v>0</v>
       </c>
-      <c r="V67">
-        <v>1</v>
-      </c>
-      <c r="W67">
-        <v>36</v>
-      </c>
-      <c r="X67">
-        <v>0.19</v>
-      </c>
-      <c r="Y67">
-        <v>0.242</v>
-      </c>
-      <c r="Z67">
-        <v>0.275</v>
-      </c>
-      <c r="AA67">
-        <v>0.233</v>
-      </c>
-      <c r="AB67">
-        <v>7.53</v>
-      </c>
-      <c r="AC67">
-        <v>2.09</v>
-      </c>
-      <c r="AD67">
-        <v>3.6</v>
-      </c>
-      <c r="AE67">
-        <v>0.42</v>
-      </c>
-      <c r="AF67">
-        <v>0.218</v>
-      </c>
-      <c r="AG67">
-        <v>0.061</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>262</v>
-      </c>
-      <c r="AI67">
-        <v>0.91</v>
-      </c>
-      <c r="AJ67">
-        <v>0.233</v>
-      </c>
-      <c r="AK67">
-        <v>0.591</v>
-      </c>
-      <c r="AL67">
-        <v>2.85</v>
-      </c>
-      <c r="AM67">
-        <v>3.93</v>
-      </c>
-      <c r="AN67">
-        <v>0.98</v>
-      </c>
-      <c r="AO67">
-        <v>0.144</v>
-      </c>
-      <c r="AP67">
-        <v>0.424</v>
-      </c>
-      <c r="AQ67">
-        <v>0.4320000000000001</v>
-      </c>
-      <c r="AR67">
-        <v>0.157</v>
-      </c>
       <c r="AS67">
-        <v>0.039</v>
+        <v>0.136</v>
       </c>
       <c r="AT67">
-        <v>0.415</v>
+        <v>0.371</v>
       </c>
       <c r="AU67">
-        <v>0.398</v>
+        <v>0.452</v>
       </c>
       <c r="AV67">
-        <v>0.186</v>
+        <v>0.177</v>
       </c>
       <c r="AW67">
-        <v>0.169</v>
+        <v>0.065</v>
       </c>
       <c r="AX67">
-        <v>0.517</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="AY67">
-        <v>0.314</v>
+        <v>0.371</v>
       </c>
       <c r="AZ67">
-        <v>644</v>
+        <v>349</v>
       </c>
       <c r="BA67">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="BB67">
-        <v>421</v>
+        <v>225</v>
       </c>
       <c r="BC67">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="BD67">
-        <v>0.007905138339920948</v>
+        <v>0.00967741935483871</v>
       </c>
       <c r="BE67">
-        <v>0.1519565217391304</v>
+        <v>0.1158387096774194</v>
       </c>
       <c r="BF67">
-        <v>0.1793478260869565</v>
+        <v>0.154741935483871</v>
       </c>
       <c r="BG67">
-        <v>0.1239130434782609</v>
+        <v>0.09290322580645162</v>
       </c>
       <c r="BH67">
-        <v>0.1421739130434783</v>
+        <v>0.05167741935483872</v>
       </c>
       <c r="BI67">
-        <v>0.03978260869565217</v>
+        <v>0.03861290322580645</v>
       </c>
       <c r="BJ67">
-        <v>0.1519565217391304</v>
+        <v>0.1033548387096774</v>
       </c>
       <c r="BK67">
-        <v>1.858695652173913</v>
+        <v>1.573548387096774</v>
       </c>
       <c r="BL67">
-        <v>2.56304347826087</v>
+        <v>1.454516129032258</v>
       </c>
       <c r="BM67">
-        <v>0.2765217391304348</v>
+        <v>0.1236774193548387</v>
       </c>
       <c r="BN67">
-        <v>0.09391304347826088</v>
+        <v>0.06183870967741936</v>
       </c>
       <c r="BO67">
-        <v>0.2817391304347827</v>
+        <v>0.1048064516129032</v>
       </c>
       <c r="BP67">
-        <v>0.02543478260869565</v>
+        <v>0.03948387096774194</v>
       </c>
       <c r="BQ67">
-        <v>0.1102173913043478</v>
+        <v>0.01887096774193548</v>
       </c>
       <c r="BR67">
-        <v>0.3371739130434783</v>
+        <v>0.1640322580645161</v>
       </c>
       <c r="BS67">
-        <v>0.2047826086956522</v>
+        <v>0.1077096774193548</v>
       </c>
       <c r="BT67">
-        <v>0.05543478260869567</v>
+        <v>0.06183870967741938</v>
       </c>
     </row>
     <row r="68" spans="1:72">
@@ -15906,7 +15909,7 @@
         <v>91</v>
       </c>
       <c r="L68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M68">
         <v>430</v>
@@ -15918,7 +15921,7 @@
         <v>98</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>56</v>
@@ -15972,7 +15975,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="AH68" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI68">
         <v>1.38</v>
@@ -16124,7 +16127,7 @@
         <v>91</v>
       </c>
       <c r="L69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M69">
         <v>186</v>
@@ -16136,7 +16139,7 @@
         <v>42</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>17</v>
@@ -16190,7 +16193,7 @@
         <v>0.05400000000000001</v>
       </c>
       <c r="AH69" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AI69">
         <v>1.16</v>
@@ -16342,7 +16345,7 @@
         <v>91</v>
       </c>
       <c r="L70" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M70">
         <v>395</v>
@@ -16354,7 +16357,7 @@
         <v>89</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>41</v>
@@ -16408,7 +16411,7 @@
         <v>0.046</v>
       </c>
       <c r="AH70" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AI70">
         <v>1.11</v>
@@ -16560,7 +16563,7 @@
         <v>91</v>
       </c>
       <c r="L71" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M71">
         <v>179</v>
@@ -16572,7 +16575,7 @@
         <v>43</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>17</v>
@@ -16626,7 +16629,7 @@
         <v>0.067</v>
       </c>
       <c r="AH71" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AI71">
         <v>1.34</v>
@@ -16778,7 +16781,7 @@
         <v>92</v>
       </c>
       <c r="L72" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M72">
         <v>140</v>
@@ -16790,7 +16793,7 @@
         <v>32</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>16</v>
@@ -16844,7 +16847,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="AH72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI72">
         <v>1.24</v>
@@ -16996,7 +16999,7 @@
         <v>92</v>
       </c>
       <c r="L73" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M73">
         <v>75</v>
@@ -17008,7 +17011,7 @@
         <v>21</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>12</v>
@@ -17062,7 +17065,7 @@
         <v>0.12</v>
       </c>
       <c r="AH73" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AI73">
         <v>1.96</v>
@@ -17214,7 +17217,7 @@
         <v>92</v>
       </c>
       <c r="L74" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M74">
         <v>650</v>
@@ -17226,7 +17229,7 @@
         <v>178</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>97</v>
@@ -17280,7 +17283,7 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="AH74" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AI74">
         <v>1.54</v>
@@ -17432,7 +17435,7 @@
         <v>92</v>
       </c>
       <c r="L75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M75">
         <v>267</v>
@@ -17444,7 +17447,7 @@
         <v>75</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>42</v>
@@ -17498,7 +17501,7 @@
         <v>0.075</v>
       </c>
       <c r="AH75" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AI75">
         <v>1.54</v>
@@ -17647,10 +17650,10 @@
         <v>93</v>
       </c>
       <c r="K76" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="L76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M76">
         <v>93</v>
@@ -17662,7 +17665,7 @@
         <v>19</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -17716,7 +17719,7 @@
         <v>0.032</v>
       </c>
       <c r="AH76" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AI76">
         <v>0.88</v>
@@ -17865,10 +17868,10 @@
         <v>93</v>
       </c>
       <c r="K77" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="L77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M77">
         <v>64</v>
@@ -17880,7 +17883,7 @@
         <v>10</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17934,7 +17937,7 @@
         <v>0.016</v>
       </c>
       <c r="AH77" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AI77">
         <v>0.62</v>
@@ -18083,10 +18086,10 @@
         <v>93</v>
       </c>
       <c r="K78" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="L78" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M78">
         <v>447</v>
@@ -18098,7 +18101,7 @@
         <v>110</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>50</v>
@@ -18152,7 +18155,7 @@
         <v>0.101</v>
       </c>
       <c r="AH78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AI78">
         <v>1.55</v>
@@ -18301,10 +18304,10 @@
         <v>93</v>
       </c>
       <c r="K79" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="L79" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M79">
         <v>267</v>
@@ -18316,7 +18319,7 @@
         <v>47</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>16</v>
@@ -18370,7 +18373,7 @@
         <v>0.067</v>
       </c>
       <c r="AH79" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AI79">
         <v>0.95</v>
@@ -18522,7 +18525,7 @@
         <v>94</v>
       </c>
       <c r="L80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M80">
         <v>124</v>
@@ -18534,7 +18537,7 @@
         <v>18</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>11</v>
@@ -18588,7 +18591,7 @@
         <v>0.185</v>
       </c>
       <c r="AH80" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AI80">
         <v>1.43</v>
@@ -18740,7 +18743,7 @@
         <v>94</v>
       </c>
       <c r="L81" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M81">
         <v>153</v>
@@ -18752,7 +18755,7 @@
         <v>27</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -18806,7 +18809,7 @@
         <v>0.124</v>
       </c>
       <c r="AH81" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AI81">
         <v>1.24</v>
@@ -18958,7 +18961,7 @@
         <v>94</v>
       </c>
       <c r="L82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M82">
         <v>154</v>
@@ -18970,7 +18973,7 @@
         <v>32</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>14</v>
@@ -19024,7 +19027,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="AH82" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AI82">
         <v>1.15</v>
@@ -19176,7 +19179,7 @@
         <v>94</v>
       </c>
       <c r="L83" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M83">
         <v>118</v>
@@ -19188,7 +19191,7 @@
         <v>23</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -19242,7 +19245,7 @@
         <v>0.025</v>
       </c>
       <c r="AH83" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AI83">
         <v>0.8</v>
@@ -19394,7 +19397,7 @@
         <v>95</v>
       </c>
       <c r="L84" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M84">
         <v>110</v>
@@ -19406,7 +19409,7 @@
         <v>24</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -19460,7 +19463,7 @@
         <v>0.164</v>
       </c>
       <c r="AH84" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AI84">
         <v>1.83</v>
@@ -19612,7 +19615,7 @@
         <v>95</v>
       </c>
       <c r="L85" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M85">
         <v>171</v>
@@ -19624,7 +19627,7 @@
         <v>50</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>31</v>
@@ -19678,7 +19681,7 @@
         <v>0.064</v>
       </c>
       <c r="AH85" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AI85">
         <v>1.62</v>
@@ -19830,7 +19833,7 @@
         <v>95</v>
       </c>
       <c r="L86" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M86">
         <v>91</v>
@@ -19842,7 +19845,7 @@
         <v>21</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>18</v>
@@ -19896,7 +19899,7 @@
         <v>0.11</v>
       </c>
       <c r="AH86" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AI86">
         <v>1.52</v>
@@ -20048,7 +20051,7 @@
         <v>95</v>
       </c>
       <c r="L87" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M87">
         <v>161</v>
@@ -20060,7 +20063,7 @@
         <v>40</v>
       </c>
       <c r="P87" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>25</v>
@@ -20114,7 +20117,7 @@
         <v>0.05599999999999999</v>
       </c>
       <c r="AH87" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AI87">
         <v>1.29</v>
@@ -20266,7 +20269,7 @@
         <v>96</v>
       </c>
       <c r="L88" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M88">
         <v>172</v>
@@ -20278,7 +20281,7 @@
         <v>31</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>16</v>
@@ -20332,7 +20335,7 @@
         <v>0.081</v>
       </c>
       <c r="AH88" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AI88">
         <v>1.08</v>
@@ -20484,7 +20487,7 @@
         <v>96</v>
       </c>
       <c r="L89" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M89">
         <v>51</v>
@@ -20496,7 +20499,7 @@
         <v>15</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -20550,7 +20553,7 @@
         <v>0.098</v>
       </c>
       <c r="AH89" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AI89">
         <v>1.88</v>
@@ -20702,7 +20705,7 @@
         <v>96</v>
       </c>
       <c r="L90" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M90">
         <v>327</v>
@@ -20714,7 +20717,7 @@
         <v>73</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q90">
         <v>52</v>
@@ -20768,7 +20771,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="AH90" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AI90">
         <v>1.33</v>
@@ -20920,7 +20923,7 @@
         <v>96</v>
       </c>
       <c r="L91" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M91">
         <v>229</v>
@@ -20932,7 +20935,7 @@
         <v>46</v>
       </c>
       <c r="P91" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q91">
         <v>26</v>
@@ -20986,7 +20989,7 @@
         <v>0.092</v>
       </c>
       <c r="AH91" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AI91">
         <v>1.22</v>
@@ -21138,7 +21141,7 @@
         <v>97</v>
       </c>
       <c r="L92" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M92">
         <v>4</v>
@@ -21150,7 +21153,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -21204,7 +21207,7 @@
         <v>0.25</v>
       </c>
       <c r="AH92" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AI92">
         <v>3</v>
@@ -21356,7 +21359,7 @@
         <v>97</v>
       </c>
       <c r="L93" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M93">
         <v>33</v>
@@ -21368,7 +21371,7 @@
         <v>5</v>
       </c>
       <c r="P93" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -21422,7 +21425,7 @@
         <v>0.061</v>
       </c>
       <c r="AH93" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AI93">
         <v>0.75</v>
@@ -21574,7 +21577,7 @@
         <v>97</v>
       </c>
       <c r="L94" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M94">
         <v>14</v>
@@ -21586,7 +21589,7 @@
         <v>3</v>
       </c>
       <c r="P94" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21640,7 +21643,7 @@
         <v>0.143</v>
       </c>
       <c r="AH94" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AI94">
         <v>1.88</v>
@@ -21792,7 +21795,7 @@
         <v>97</v>
       </c>
       <c r="L95" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M95">
         <v>38</v>
@@ -21804,7 +21807,7 @@
         <v>14</v>
       </c>
       <c r="P95" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21858,7 +21861,7 @@
         <v>0.132</v>
       </c>
       <c r="AH95" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AI95">
         <v>3</v>
@@ -22010,7 +22013,7 @@
         <v>98</v>
       </c>
       <c r="L96" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M96">
         <v>230</v>
@@ -22022,7 +22025,7 @@
         <v>47</v>
       </c>
       <c r="P96" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q96">
         <v>31</v>
@@ -22076,7 +22079,7 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="AH96" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AI96">
         <v>1.23</v>
@@ -22228,7 +22231,7 @@
         <v>98</v>
       </c>
       <c r="L97" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M97">
         <v>85</v>
@@ -22240,7 +22243,7 @@
         <v>19</v>
       </c>
       <c r="P97" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -22294,7 +22297,7 @@
         <v>0.047</v>
       </c>
       <c r="AH97" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AI97">
         <v>1.13</v>
@@ -22446,7 +22449,7 @@
         <v>98</v>
       </c>
       <c r="L98" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M98">
         <v>230</v>
@@ -22458,7 +22461,7 @@
         <v>59</v>
       </c>
       <c r="P98" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q98">
         <v>38</v>
@@ -22512,7 +22515,7 @@
         <v>0.083</v>
       </c>
       <c r="AH98" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AI98">
         <v>1.56</v>
@@ -22664,7 +22667,7 @@
         <v>98</v>
       </c>
       <c r="L99" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M99">
         <v>73</v>
@@ -22676,7 +22679,7 @@
         <v>11</v>
       </c>
       <c r="P99" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q99">
         <v>11</v>
@@ -22730,7 +22733,7 @@
         <v>0.11</v>
       </c>
       <c r="AH99" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AI99">
         <v>1.06</v>
@@ -22882,7 +22885,7 @@
         <v>99</v>
       </c>
       <c r="L100" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M100">
         <v>268</v>
@@ -22894,7 +22897,7 @@
         <v>49</v>
       </c>
       <c r="P100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q100">
         <v>20</v>
@@ -22948,7 +22951,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="AH100" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AI100">
         <v>1.09</v>
@@ -23100,7 +23103,7 @@
         <v>99</v>
       </c>
       <c r="L101" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M101">
         <v>191</v>
@@ -23112,7 +23115,7 @@
         <v>46</v>
       </c>
       <c r="P101" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q101">
         <v>23</v>
@@ -23166,7 +23169,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="AH101" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AI101">
         <v>1.42</v>
@@ -23318,7 +23321,7 @@
         <v>99</v>
       </c>
       <c r="L102" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M102">
         <v>317</v>
@@ -23330,7 +23333,7 @@
         <v>73</v>
       </c>
       <c r="P102" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q102">
         <v>29</v>
@@ -23384,7 +23387,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="AH102" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="AI102">
         <v>1.26</v>
@@ -23536,7 +23539,7 @@
         <v>99</v>
       </c>
       <c r="L103" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M103">
         <v>124</v>
@@ -23548,7 +23551,7 @@
         <v>22</v>
       </c>
       <c r="P103" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q103">
         <v>11</v>
@@ -23602,7 +23605,7 @@
         <v>0.032</v>
       </c>
       <c r="AH103" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AI103">
         <v>0.82</v>
@@ -23754,7 +23757,7 @@
         <v>100</v>
       </c>
       <c r="L104" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M104">
         <v>42</v>
@@ -23766,7 +23769,7 @@
         <v>5</v>
       </c>
       <c r="P104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -23820,7 +23823,7 @@
         <v>0.048</v>
       </c>
       <c r="AH104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI104">
         <v>0.58</v>
@@ -23972,7 +23975,7 @@
         <v>100</v>
       </c>
       <c r="L105" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M105">
         <v>58</v>
@@ -23984,7 +23987,7 @@
         <v>9</v>
       </c>
       <c r="P105" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -24038,7 +24041,7 @@
         <v>0.052</v>
       </c>
       <c r="AH105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI105">
         <v>0.78</v>
@@ -24190,7 +24193,7 @@
         <v>100</v>
       </c>
       <c r="L106" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M106">
         <v>268</v>
@@ -24202,7 +24205,7 @@
         <v>53</v>
       </c>
       <c r="P106" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q106">
         <v>22</v>
@@ -24256,7 +24259,7 @@
         <v>0.045</v>
       </c>
       <c r="AH106" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AI106">
         <v>0.95</v>
@@ -24408,7 +24411,7 @@
         <v>100</v>
       </c>
       <c r="L107" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M107">
         <v>278</v>
@@ -24420,7 +24423,7 @@
         <v>53</v>
       </c>
       <c r="P107" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q107">
         <v>20</v>
@@ -24474,7 +24477,7 @@
         <v>0.047</v>
       </c>
       <c r="AH107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AI107">
         <v>0.93</v>
@@ -24626,7 +24629,7 @@
         <v>101</v>
       </c>
       <c r="L108" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M108">
         <v>140</v>
@@ -24638,7 +24641,7 @@
         <v>31</v>
       </c>
       <c r="P108" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q108">
         <v>27</v>
@@ -24692,7 +24695,7 @@
         <v>0.143</v>
       </c>
       <c r="AH108" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AI108">
         <v>1.72</v>
@@ -24844,7 +24847,7 @@
         <v>101</v>
       </c>
       <c r="L109" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M109">
         <v>94</v>
@@ -24856,7 +24859,7 @@
         <v>14</v>
       </c>
       <c r="P109" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -24910,7 +24913,7 @@
         <v>0.117</v>
       </c>
       <c r="AH109" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI109">
         <v>1.1</v>
@@ -25062,7 +25065,7 @@
         <v>101</v>
       </c>
       <c r="L110" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M110">
         <v>489</v>
@@ -25074,7 +25077,7 @@
         <v>115</v>
       </c>
       <c r="P110" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q110">
         <v>63</v>
@@ -25128,7 +25131,7 @@
         <v>0.09</v>
       </c>
       <c r="AH110" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI110">
         <v>1.43</v>
@@ -25280,7 +25283,7 @@
         <v>101</v>
       </c>
       <c r="L111" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M111">
         <v>263</v>
@@ -25292,7 +25295,7 @@
         <v>52</v>
       </c>
       <c r="P111" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q111">
         <v>16</v>
@@ -25346,7 +25349,7 @@
         <v>0.103</v>
       </c>
       <c r="AH111" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AI111">
         <v>1.22</v>
@@ -25498,7 +25501,7 @@
         <v>102</v>
       </c>
       <c r="L112" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M112">
         <v>184</v>
@@ -25510,7 +25513,7 @@
         <v>46</v>
       </c>
       <c r="P112" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q112">
         <v>23</v>
@@ -25564,7 +25567,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="AH112" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AI112">
         <v>1.39</v>
@@ -25716,7 +25719,7 @@
         <v>102</v>
       </c>
       <c r="L113" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M113">
         <v>183</v>
@@ -25728,7 +25731,7 @@
         <v>45</v>
       </c>
       <c r="P113" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q113">
         <v>30</v>
@@ -25782,7 +25785,7 @@
         <v>0.077</v>
       </c>
       <c r="AH113" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AI113">
         <v>1.38</v>
@@ -25934,7 +25937,7 @@
         <v>103</v>
       </c>
       <c r="L114" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M114">
         <v>9</v>
@@ -25946,7 +25949,7 @@
         <v>3</v>
       </c>
       <c r="P114" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -26000,7 +26003,7 @@
         <v>0.111</v>
       </c>
       <c r="AH114" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AI114">
         <v>3</v>
@@ -26152,7 +26155,7 @@
         <v>103</v>
       </c>
       <c r="L115" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M115">
         <v>40</v>
@@ -26164,7 +26167,7 @@
         <v>7</v>
       </c>
       <c r="P115" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -26218,7 +26221,7 @@
         <v>0.075</v>
       </c>
       <c r="AH115" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI115">
         <v>1</v>

--- a/assets/Pitcher_Stats.xlsx
+++ b/assets/Pitcher_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="228">
   <si>
     <t>Season</t>
   </si>
@@ -523,10 +523,16 @@
     <t>Triston McKenzie</t>
   </si>
   <si>
+    <t>Albert Suárez</t>
+  </si>
+  <si>
     <t>Cristopher Sánchez</t>
   </si>
   <si>
     <t>Martín Pérez</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
   </si>
   <si>
     <t>RHP</t>
@@ -1305,10 +1311,10 @@
         <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M2">
         <v>90</v>
@@ -1320,7 +1326,7 @@
         <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1374,7 +1380,7 @@
         <v>0.144</v>
       </c>
       <c r="AH2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AI2">
         <v>1.48</v>
@@ -1523,10 +1529,10 @@
         <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M3">
         <v>140</v>
@@ -1538,7 +1544,7 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>13</v>
@@ -1592,7 +1598,7 @@
         <v>0.064</v>
       </c>
       <c r="AH3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AI3">
         <v>1.24</v>
@@ -1744,7 +1750,7 @@
         <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M4">
         <v>186</v>
@@ -1756,7 +1762,7 @@
         <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>17</v>
@@ -1810,7 +1816,7 @@
         <v>0.059</v>
       </c>
       <c r="AH4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AI4">
         <v>1.04</v>
@@ -1962,7 +1968,7 @@
         <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M5">
         <v>131</v>
@@ -1974,7 +1980,7 @@
         <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>21</v>
@@ -2028,7 +2034,7 @@
         <v>0.092</v>
       </c>
       <c r="AH5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AI5">
         <v>1.5</v>
@@ -2180,7 +2186,7 @@
         <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M6">
         <v>147</v>
@@ -2192,7 +2198,7 @@
         <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>17</v>
@@ -2246,7 +2252,7 @@
         <v>0.05400000000000001</v>
       </c>
       <c r="AH6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AI6">
         <v>0.97</v>
@@ -2398,7 +2404,7 @@
         <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M7">
         <v>183</v>
@@ -2410,7 +2416,7 @@
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>24</v>
@@ -2464,7 +2470,7 @@
         <v>0.066</v>
       </c>
       <c r="AH7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AI7">
         <v>1.23</v>
@@ -2616,7 +2622,7 @@
         <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M8">
         <v>195</v>
@@ -2628,7 +2634,7 @@
         <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>23</v>
@@ -2682,7 +2688,7 @@
         <v>0.128</v>
       </c>
       <c r="AH8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI8">
         <v>1.41</v>
@@ -2834,7 +2840,7 @@
         <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M9">
         <v>137</v>
@@ -2846,7 +2852,7 @@
         <v>31</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>17</v>
@@ -2900,7 +2906,7 @@
         <v>0.073</v>
       </c>
       <c r="AH9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AI9">
         <v>1.16</v>
@@ -3052,7 +3058,7 @@
         <v>77</v>
       </c>
       <c r="L10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M10">
         <v>193</v>
@@ -3064,7 +3070,7 @@
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>26</v>
@@ -3118,7 +3124,7 @@
         <v>0.08800000000000001</v>
       </c>
       <c r="AH10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AI10">
         <v>1.42</v>
@@ -3270,7 +3276,7 @@
         <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M11">
         <v>154</v>
@@ -3282,7 +3288,7 @@
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3336,7 +3342,7 @@
         <v>0.058</v>
       </c>
       <c r="AH11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AI11">
         <v>1.04</v>
@@ -3485,10 +3491,10 @@
         <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M12">
         <v>63</v>
@@ -3500,7 +3506,7 @@
         <v>12</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3554,7 +3560,7 @@
         <v>0.032</v>
       </c>
       <c r="AH12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AI12">
         <v>0.84</v>
@@ -3703,10 +3709,10 @@
         <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M13">
         <v>284</v>
@@ -3718,7 +3724,7 @@
         <v>72</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>22</v>
@@ -3772,7 +3778,7 @@
         <v>0.077</v>
       </c>
       <c r="AH13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AI13">
         <v>1.39</v>
@@ -3924,7 +3930,7 @@
         <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M14">
         <v>170</v>
@@ -3936,7 +3942,7 @@
         <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>28</v>
@@ -3990,7 +3996,7 @@
         <v>0.135</v>
       </c>
       <c r="AH14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AI14">
         <v>1.77</v>
@@ -4142,7 +4148,7 @@
         <v>79</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M15">
         <v>174</v>
@@ -4154,7 +4160,7 @@
         <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>25</v>
@@ -4208,7 +4214,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="AH15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AI15">
         <v>1.4</v>
@@ -4360,7 +4366,7 @@
         <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16">
         <v>34</v>
@@ -4372,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4426,7 +4432,7 @@
         <v>0.235</v>
       </c>
       <c r="AH16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AI16">
         <v>2.5</v>
@@ -4578,7 +4584,7 @@
         <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M17">
         <v>32</v>
@@ -4590,7 +4596,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4644,7 +4650,7 @@
         <v>0.094</v>
       </c>
       <c r="AH17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AI17">
         <v>0.84</v>
@@ -4796,7 +4802,7 @@
         <v>81</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M18">
         <v>161</v>
@@ -4808,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>24</v>
@@ -4862,7 +4868,7 @@
         <v>0.112</v>
       </c>
       <c r="AH18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AI18">
         <v>1.58</v>
@@ -5014,7 +5020,7 @@
         <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M19">
         <v>127</v>
@@ -5026,7 +5032,7 @@
         <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>13</v>
@@ -5080,7 +5086,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="AH19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AI19">
         <v>1.1</v>
@@ -5232,7 +5238,7 @@
         <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M20">
         <v>140</v>
@@ -5244,7 +5250,7 @@
         <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -5298,7 +5304,7 @@
         <v>0.09300000000000001</v>
       </c>
       <c r="AH20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AI20">
         <v>1.41</v>
@@ -5450,7 +5456,7 @@
         <v>82</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M21">
         <v>149</v>
@@ -5462,7 +5468,7 @@
         <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>18</v>
@@ -5516,7 +5522,7 @@
         <v>0.02</v>
       </c>
       <c r="AH21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AI21">
         <v>1.16</v>
@@ -5668,7 +5674,7 @@
         <v>83</v>
       </c>
       <c r="L22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M22">
         <v>73</v>
@@ -5680,7 +5686,7 @@
         <v>18</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5734,7 +5740,7 @@
         <v>0.04099999999999999</v>
       </c>
       <c r="AH22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AI22">
         <v>1.26</v>
@@ -5886,7 +5892,7 @@
         <v>83</v>
       </c>
       <c r="L23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M23">
         <v>265</v>
@@ -5898,7 +5904,7 @@
         <v>60</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>32</v>
@@ -5952,7 +5958,7 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="AH23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AI23">
         <v>1.34</v>
@@ -6104,7 +6110,7 @@
         <v>84</v>
       </c>
       <c r="L24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24">
         <v>81</v>
@@ -6116,7 +6122,7 @@
         <v>16</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>11</v>
@@ -6170,7 +6176,7 @@
         <v>0.049</v>
       </c>
       <c r="AH24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AI24">
         <v>0.97</v>
@@ -6322,7 +6328,7 @@
         <v>84</v>
       </c>
       <c r="L25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M25">
         <v>283</v>
@@ -6334,7 +6340,7 @@
         <v>68</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>37</v>
@@ -6388,7 +6394,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="AH25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AI25">
         <v>1.45</v>
@@ -6540,7 +6546,7 @@
         <v>85</v>
       </c>
       <c r="L26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M26">
         <v>116</v>
@@ -6552,7 +6558,7 @@
         <v>27</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>16</v>
@@ -6606,7 +6612,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="AH26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AI26">
         <v>1.39</v>
@@ -6758,7 +6764,7 @@
         <v>85</v>
       </c>
       <c r="L27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M27">
         <v>117</v>
@@ -6770,7 +6776,7 @@
         <v>32</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>22</v>
@@ -6824,7 +6830,7 @@
         <v>0.068</v>
       </c>
       <c r="AH27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AI27">
         <v>1.46</v>
@@ -6976,7 +6982,7 @@
         <v>86</v>
       </c>
       <c r="L28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M28">
         <v>12</v>
@@ -6988,7 +6994,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -7042,7 +7048,7 @@
         <v>0.167</v>
       </c>
       <c r="AH28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AI28">
         <v>1.88</v>
@@ -7194,7 +7200,7 @@
         <v>86</v>
       </c>
       <c r="L29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M29">
         <v>12</v>
@@ -7206,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -7260,7 +7266,7 @@
         <v>0.083</v>
       </c>
       <c r="AH29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AI29">
         <v>0.6</v>
@@ -7412,7 +7418,7 @@
         <v>87</v>
       </c>
       <c r="L30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M30">
         <v>55</v>
@@ -7424,7 +7430,7 @@
         <v>7</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -7478,7 +7484,7 @@
         <v>0.091</v>
       </c>
       <c r="AH30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AI30">
         <v>0.86</v>
@@ -7630,7 +7636,7 @@
         <v>87</v>
       </c>
       <c r="L31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M31">
         <v>47</v>
@@ -7642,7 +7648,7 @@
         <v>9</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7696,7 +7702,7 @@
         <v>0.064</v>
       </c>
       <c r="AH31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AI31">
         <v>1.03</v>
@@ -7848,7 +7854,7 @@
         <v>88</v>
       </c>
       <c r="L32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M32">
         <v>180</v>
@@ -7860,7 +7866,7 @@
         <v>34</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>11</v>
@@ -7914,7 +7920,7 @@
         <v>0.05</v>
       </c>
       <c r="AH32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AI32">
         <v>0.91</v>
@@ -8066,7 +8072,7 @@
         <v>88</v>
       </c>
       <c r="L33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M33">
         <v>222</v>
@@ -8078,7 +8084,7 @@
         <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>22</v>
@@ -8132,7 +8138,7 @@
         <v>0.05400000000000001</v>
       </c>
       <c r="AH33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AI33">
         <v>0.88</v>
@@ -8284,7 +8290,7 @@
         <v>89</v>
       </c>
       <c r="L34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M34">
         <v>224</v>
@@ -8296,7 +8302,7 @@
         <v>54</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>22</v>
@@ -8350,7 +8356,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="AH34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI34">
         <v>1.32</v>
@@ -8502,7 +8508,7 @@
         <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M35">
         <v>209</v>
@@ -8514,7 +8520,7 @@
         <v>52</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>18</v>
@@ -8568,7 +8574,7 @@
         <v>0.033</v>
       </c>
       <c r="AH35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AI35">
         <v>1.13</v>
@@ -8720,7 +8726,7 @@
         <v>90</v>
       </c>
       <c r="L36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M36">
         <v>177</v>
@@ -8732,7 +8738,7 @@
         <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>19</v>
@@ -8786,7 +8792,7 @@
         <v>0.13</v>
       </c>
       <c r="AH36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI36">
         <v>1.39</v>
@@ -8938,7 +8944,7 @@
         <v>90</v>
       </c>
       <c r="L37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M37">
         <v>204</v>
@@ -8950,7 +8956,7 @@
         <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>17</v>
@@ -9004,7 +9010,7 @@
         <v>0.083</v>
       </c>
       <c r="AH37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI37">
         <v>1.15</v>
@@ -9153,10 +9159,10 @@
         <v>91</v>
       </c>
       <c r="K38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M38">
         <v>57</v>
@@ -9168,7 +9174,7 @@
         <v>16</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -9222,7 +9228,7 @@
         <v>0.018</v>
       </c>
       <c r="AH38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AI38">
         <v>1.21</v>
@@ -9371,10 +9377,10 @@
         <v>91</v>
       </c>
       <c r="K39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M39">
         <v>198</v>
@@ -9386,7 +9392,7 @@
         <v>54</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>24</v>
@@ -9440,7 +9446,7 @@
         <v>0.091</v>
       </c>
       <c r="AH39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AI39">
         <v>1.66</v>
@@ -9592,7 +9598,7 @@
         <v>92</v>
       </c>
       <c r="L40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M40">
         <v>4</v>
@@ -9604,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -9658,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="AH40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AI40">
         <v>1</v>
@@ -9810,7 +9816,7 @@
         <v>92</v>
       </c>
       <c r="L41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M41">
         <v>12</v>
@@ -9822,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -9876,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="AH41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -10028,7 +10034,7 @@
         <v>93</v>
       </c>
       <c r="L42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M42">
         <v>78</v>
@@ -10040,7 +10046,7 @@
         <v>21</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -10094,7 +10100,7 @@
         <v>0.038</v>
       </c>
       <c r="AH42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI42">
         <v>1.31</v>
@@ -10246,7 +10252,7 @@
         <v>93</v>
       </c>
       <c r="L43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M43">
         <v>221</v>
@@ -10258,7 +10264,7 @@
         <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>22</v>
@@ -10312,7 +10318,7 @@
         <v>0.063</v>
       </c>
       <c r="AH43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AI43">
         <v>1.03</v>
@@ -10464,7 +10470,7 @@
         <v>94</v>
       </c>
       <c r="L44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M44">
         <v>107</v>
@@ -10476,7 +10482,7 @@
         <v>19</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -10530,7 +10536,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="AH44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AI44">
         <v>1.04</v>
@@ -10682,7 +10688,7 @@
         <v>94</v>
       </c>
       <c r="L45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M45">
         <v>128</v>
@@ -10694,7 +10700,7 @@
         <v>33</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>16</v>
@@ -10748,7 +10754,7 @@
         <v>0.047</v>
       </c>
       <c r="AH45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AI45">
         <v>1.27</v>
@@ -10897,10 +10903,10 @@
         <v>95</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="L46" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M46">
         <v>86</v>
@@ -10912,7 +10918,7 @@
         <v>37</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>13</v>
@@ -10966,7 +10972,7 @@
         <v>0.081</v>
       </c>
       <c r="AH46" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AI46">
         <v>2.93</v>
@@ -11115,10 +11121,10 @@
         <v>95</v>
       </c>
       <c r="K47" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M47">
         <v>127</v>
@@ -11130,7 +11136,7 @@
         <v>31</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>17</v>
@@ -11184,7 +11190,7 @@
         <v>0.039</v>
       </c>
       <c r="AH47" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AI47">
         <v>1.1</v>
@@ -11336,7 +11342,7 @@
         <v>96</v>
       </c>
       <c r="L48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M48">
         <v>171</v>
@@ -11348,7 +11354,7 @@
         <v>25</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>12</v>
@@ -11402,7 +11408,7 @@
         <v>0.105</v>
       </c>
       <c r="AH48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AI48">
         <v>1</v>
@@ -11554,7 +11560,7 @@
         <v>96</v>
       </c>
       <c r="L49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M49">
         <v>162</v>
@@ -11566,7 +11572,7 @@
         <v>23</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -11620,7 +11626,7 @@
         <v>0.099</v>
       </c>
       <c r="AH49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AI49">
         <v>0.9399999999999999</v>
@@ -11772,7 +11778,7 @@
         <v>97</v>
       </c>
       <c r="L50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M50">
         <v>122</v>
@@ -11784,7 +11790,7 @@
         <v>30</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>18</v>
@@ -11838,7 +11844,7 @@
         <v>0.04099999999999999</v>
       </c>
       <c r="AH50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AI50">
         <v>1.21</v>
@@ -11990,7 +11996,7 @@
         <v>97</v>
       </c>
       <c r="L51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M51">
         <v>100</v>
@@ -12002,7 +12008,7 @@
         <v>26</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>16</v>
@@ -12056,7 +12062,7 @@
         <v>0.04</v>
       </c>
       <c r="AH51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AI51">
         <v>1.23</v>
@@ -12208,7 +12214,7 @@
         <v>98</v>
       </c>
       <c r="L52" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M52">
         <v>162</v>
@@ -12220,7 +12226,7 @@
         <v>32</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>19</v>
@@ -12274,7 +12280,7 @@
         <v>0.117</v>
       </c>
       <c r="AH52" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AI52">
         <v>1.35</v>
@@ -12426,7 +12432,7 @@
         <v>98</v>
       </c>
       <c r="L53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M53">
         <v>164</v>
@@ -12438,7 +12444,7 @@
         <v>32</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q53">
         <v>22</v>
@@ -12492,7 +12498,7 @@
         <v>0.165</v>
       </c>
       <c r="AH53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AI53">
         <v>1.65</v>
@@ -12644,7 +12650,7 @@
         <v>99</v>
       </c>
       <c r="L54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M54">
         <v>65</v>
@@ -12656,7 +12662,7 @@
         <v>13</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>8</v>
@@ -12710,7 +12716,7 @@
         <v>0.046</v>
       </c>
       <c r="AH54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AI54">
         <v>0.9399999999999999</v>
@@ -12862,7 +12868,7 @@
         <v>99</v>
       </c>
       <c r="L55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M55">
         <v>290</v>
@@ -12874,7 +12880,7 @@
         <v>78</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>31</v>
@@ -12928,7 +12934,7 @@
         <v>0.059</v>
       </c>
       <c r="AH55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AI55">
         <v>1.43</v>
@@ -13080,7 +13086,7 @@
         <v>100</v>
       </c>
       <c r="L56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M56">
         <v>146</v>
@@ -13092,7 +13098,7 @@
         <v>34</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13146,7 +13152,7 @@
         <v>0.027</v>
       </c>
       <c r="AH56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AI56">
         <v>1.07</v>
@@ -13298,7 +13304,7 @@
         <v>100</v>
       </c>
       <c r="L57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M57">
         <v>191</v>
@@ -13310,7 +13316,7 @@
         <v>53</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>30</v>
@@ -13364,7 +13370,7 @@
         <v>0.01</v>
       </c>
       <c r="AH57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AI57">
         <v>1.2</v>
@@ -13516,7 +13522,7 @@
         <v>101</v>
       </c>
       <c r="L58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M58">
         <v>23</v>
@@ -13528,7 +13534,7 @@
         <v>8</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -13582,7 +13588,7 @@
         <v>0.043</v>
       </c>
       <c r="AH58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AI58">
         <v>1.8</v>
@@ -13734,7 +13740,7 @@
         <v>101</v>
       </c>
       <c r="L59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M59">
         <v>18</v>
@@ -13746,7 +13752,7 @@
         <v>3</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -13800,7 +13806,7 @@
         <v>0.111</v>
       </c>
       <c r="AH59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AI59">
         <v>1.15</v>
@@ -13952,7 +13958,7 @@
         <v>102</v>
       </c>
       <c r="L60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M60">
         <v>76</v>
@@ -13964,7 +13970,7 @@
         <v>16</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -14018,7 +14024,7 @@
         <v>0.079</v>
       </c>
       <c r="AH60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AI60">
         <v>1.14</v>
@@ -14170,7 +14176,7 @@
         <v>102</v>
       </c>
       <c r="L61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M61">
         <v>70</v>
@@ -14182,7 +14188,7 @@
         <v>22</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>15</v>
@@ -14236,7 +14242,7 @@
         <v>0.129</v>
       </c>
       <c r="AH61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AI61">
         <v>2.33</v>

--- a/assets/Pitcher_Stats.xlsx
+++ b/assets/Pitcher_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="173">
   <si>
     <t>Season</t>
   </si>
@@ -235,28 +235,61 @@
     <t>2024</t>
   </si>
   <si>
-    <t>Frankie Montas</t>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
   </si>
   <si>
     <t>Hunter Brown</t>
   </si>
   <si>
-    <t>Joe Musgrove</t>
-  </si>
-  <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
-    <t>Reese Olson</t>
-  </si>
-  <si>
-    <t>Sean Manaea</t>
-  </si>
-  <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
-    <t>Zach Eflin</t>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Reynaldo Lopez</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Tanner Houck</t>
+  </si>
+  <si>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Connor Gillispie</t>
   </si>
   <si>
     <t>vs L</t>
@@ -265,52 +298,112 @@
     <t>vs R</t>
   </si>
   <si>
-    <t>MIL</t>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
   <si>
     <t>HOU</t>
   </si>
   <si>
-    <t>SD</t>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>ATH</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>PIT</t>
   </si>
   <si>
     <t>ATL</t>
   </si>
   <si>
-    <t>DET</t>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>BOS</t>
   </si>
   <si>
     <t>NYM</t>
   </si>
   <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>BAL</t>
-  </si>
-  <si>
-    <t>14309</t>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>4676</t>
+  </si>
+  <si>
+    <t>18525</t>
   </si>
   <si>
     <t>25880</t>
   </si>
   <si>
-    <t>12970</t>
-  </si>
-  <si>
-    <t>13743</t>
-  </si>
-  <si>
-    <t>24968</t>
-  </si>
-  <si>
-    <t>15873</t>
-  </si>
-  <si>
-    <t>12447</t>
-  </si>
-  <si>
-    <t>13774</t>
+    <t>17479</t>
+  </si>
+  <si>
+    <t>30146</t>
+  </si>
+  <si>
+    <t>11674</t>
+  </si>
+  <si>
+    <t>17677</t>
+  </si>
+  <si>
+    <t>14107</t>
+  </si>
+  <si>
+    <t>16256</t>
+  </si>
+  <si>
+    <t>15689</t>
+  </si>
+  <si>
+    <t>11156</t>
+  </si>
+  <si>
+    <t>17594</t>
+  </si>
+  <si>
+    <t>16400</t>
+  </si>
+  <si>
+    <t>26221</t>
+  </si>
+  <si>
+    <t>19879</t>
+  </si>
+  <si>
+    <t>21318</t>
+  </si>
+  <si>
+    <t>33825</t>
+  </si>
+  <si>
+    <t>26171</t>
   </si>
   <si>
     <t>P</t>
@@ -319,6 +412,12 @@
     <t>L</t>
   </si>
   <si>
+    <t>Y. Yamamoto</t>
+  </si>
+  <si>
+    <t>Reynaldo López</t>
+  </si>
+  <si>
     <t>RHP</t>
   </si>
   <si>
@@ -328,10 +427,16 @@
     <t>- - -</t>
   </si>
   <si>
-    <t>7.9%</t>
-  </si>
-  <si>
-    <t>17.6%</t>
+    <t>14.4%</t>
+  </si>
+  <si>
+    <t>14.7%</t>
+  </si>
+  <si>
+    <t>17.2%</t>
+  </si>
+  <si>
+    <t>24.4%</t>
   </si>
   <si>
     <t>17.4%</t>
@@ -340,31 +445,94 @@
     <t>15.9%</t>
   </si>
   <si>
-    <t>18.1%</t>
-  </si>
-  <si>
-    <t>19.7%</t>
-  </si>
-  <si>
-    <t>15.3%</t>
-  </si>
-  <si>
-    <t>13.8%</t>
-  </si>
-  <si>
-    <t>15.6%</t>
-  </si>
-  <si>
-    <t>22.8%</t>
-  </si>
-  <si>
-    <t>14.7%</t>
-  </si>
-  <si>
-    <t>16.3%</t>
-  </si>
-  <si>
-    <t>14.9%</t>
+    <t>23.0%</t>
+  </si>
+  <si>
+    <t>25.3%</t>
+  </si>
+  <si>
+    <t>3.5%</t>
+  </si>
+  <si>
+    <t>12.6%</t>
+  </si>
+  <si>
+    <t>11.4%</t>
+  </si>
+  <si>
+    <t>16.1%</t>
+  </si>
+  <si>
+    <t>25.0%</t>
+  </si>
+  <si>
+    <t>16.9%</t>
+  </si>
+  <si>
+    <t>12.3%</t>
+  </si>
+  <si>
+    <t>15.8%</t>
+  </si>
+  <si>
+    <t>9.2%</t>
+  </si>
+  <si>
+    <t>11.6%</t>
+  </si>
+  <si>
+    <t>23.6%</t>
+  </si>
+  <si>
+    <t>4.4%</t>
+  </si>
+  <si>
+    <t>26.4%</t>
+  </si>
+  <si>
+    <t>18.2%</t>
+  </si>
+  <si>
+    <t>11.5%</t>
+  </si>
+  <si>
+    <t>14.6%</t>
+  </si>
+  <si>
+    <t>16.0%</t>
+  </si>
+  <si>
+    <t>19.5%</t>
+  </si>
+  <si>
+    <t>10.6%</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
+    <t>18.0%</t>
+  </si>
+  <si>
+    <t>17.0%</t>
+  </si>
+  <si>
+    <t>20.1%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>24.9%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>10.5%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
   </si>
 </sst>
 </file>
@@ -722,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT17"/>
+  <dimension ref="A1:BT39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,217 +1119,217 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="M2">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="N2">
-        <v>72.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="O2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="R2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="S2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="T2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="W2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="X2">
-        <v>0.276</v>
+        <v>0.237</v>
       </c>
       <c r="Y2">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="Z2">
-        <v>0.497</v>
+        <v>0.385</v>
       </c>
       <c r="AA2">
-        <v>0.374</v>
+        <v>0.338</v>
       </c>
       <c r="AB2">
-        <v>8.300000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="AC2">
-        <v>4.95</v>
+        <v>5.23</v>
       </c>
       <c r="AD2">
-        <v>1.68</v>
+        <v>2.12</v>
       </c>
       <c r="AE2">
-        <v>1.98</v>
+        <v>0.96</v>
       </c>
       <c r="AF2">
-        <v>0.196</v>
+        <v>0.273</v>
       </c>
       <c r="AG2">
-        <v>0.117</v>
+        <v>0.129</v>
       </c>
       <c r="AH2" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="AI2">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="AJ2">
-        <v>0.304</v>
+        <v>0.322</v>
       </c>
       <c r="AK2">
-        <v>0.695</v>
+        <v>0.777</v>
       </c>
       <c r="AL2">
-        <v>6.04</v>
+        <v>4.44</v>
       </c>
       <c r="AM2">
-        <v>4.97</v>
+        <v>4.3</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO2">
-        <v>0.236</v>
+        <v>0.234</v>
       </c>
       <c r="AP2">
-        <v>0.382</v>
+        <v>0.431</v>
       </c>
       <c r="AQ2">
-        <v>0.382</v>
+        <v>0.335</v>
       </c>
       <c r="AR2">
-        <v>0.07000000000000001</v>
+        <v>0.057</v>
       </c>
       <c r="AS2">
-        <v>0.186</v>
+        <v>0.129</v>
       </c>
       <c r="AT2">
-        <v>0.367</v>
+        <v>0.441</v>
       </c>
       <c r="AU2">
-        <v>0.41</v>
+        <v>0.308</v>
       </c>
       <c r="AV2">
-        <v>0.223</v>
+        <v>0.251</v>
       </c>
       <c r="AW2">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="AX2">
-        <v>0.55</v>
+        <v>0.526</v>
       </c>
       <c r="AY2">
-        <v>0.306</v>
+        <v>0.332</v>
       </c>
       <c r="AZ2">
-        <v>1381</v>
+        <v>1517</v>
       </c>
       <c r="BA2">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="BB2">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="BC2">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="BD2">
-        <v>0.04678362573099415</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="BE2">
-        <v>0.374</v>
+        <v>0.338</v>
       </c>
       <c r="BF2">
-        <v>0.497</v>
+        <v>0.385</v>
       </c>
       <c r="BG2">
-        <v>0.276</v>
+        <v>0.237</v>
       </c>
       <c r="BH2">
-        <v>0.196</v>
+        <v>0.273</v>
       </c>
       <c r="BI2">
-        <v>0.117</v>
+        <v>0.129</v>
       </c>
       <c r="BJ2">
-        <v>0.304</v>
+        <v>0.322</v>
       </c>
       <c r="BK2">
-        <v>6.04</v>
+        <v>4.44</v>
       </c>
       <c r="BL2">
-        <v>4.97</v>
+        <v>4.3</v>
       </c>
       <c r="BM2">
-        <v>0.382</v>
+        <v>0.431</v>
       </c>
       <c r="BN2">
-        <v>0.236</v>
+        <v>0.234</v>
       </c>
       <c r="BO2">
-        <v>0.382</v>
+        <v>0.335</v>
       </c>
       <c r="BP2">
-        <v>0.186</v>
+        <v>0.129</v>
       </c>
       <c r="BQ2">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="BR2">
-        <v>0.55</v>
+        <v>0.526</v>
       </c>
       <c r="BS2">
-        <v>0.306</v>
+        <v>0.332</v>
       </c>
       <c r="BT2">
-        <v>0.221</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -1169,61 +1337,61 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="M3">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="N3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O3">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q3">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T3">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1232,154 +1400,154 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="X3">
-        <v>0.209</v>
+        <v>0.266</v>
       </c>
       <c r="Y3">
-        <v>0.276</v>
+        <v>0.303</v>
       </c>
       <c r="Z3">
-        <v>0.34</v>
+        <v>0.472</v>
       </c>
       <c r="AA3">
-        <v>0.272</v>
+        <v>0.331</v>
       </c>
       <c r="AB3">
-        <v>9.35</v>
+        <v>7</v>
       </c>
       <c r="AC3">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="AD3">
-        <v>3.12</v>
+        <v>3.94</v>
       </c>
       <c r="AE3">
-        <v>0.92</v>
+        <v>1.56</v>
       </c>
       <c r="AF3">
-        <v>0.259</v>
+        <v>0.197</v>
       </c>
       <c r="AG3">
-        <v>0.083</v>
+        <v>0.05</v>
       </c>
       <c r="AH3" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="AI3">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AJ3">
-        <v>0.259</v>
+        <v>0.292</v>
       </c>
       <c r="AK3">
-        <v>0.6820000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="AL3">
-        <v>3.46</v>
+        <v>4.49</v>
       </c>
       <c r="AM3">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="AN3">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="AO3">
-        <v>0.172</v>
+        <v>0.192</v>
       </c>
       <c r="AP3">
-        <v>0.453</v>
+        <v>0.492</v>
       </c>
       <c r="AQ3">
-        <v>0.374</v>
+        <v>0.317</v>
       </c>
       <c r="AR3">
-        <v>0.171</v>
+        <v>0.079</v>
       </c>
       <c r="AS3">
-        <v>0.105</v>
+        <v>0.184</v>
       </c>
       <c r="AT3">
-        <v>0.385</v>
+        <v>0.433</v>
       </c>
       <c r="AU3">
-        <v>0.366</v>
+        <v>0.346</v>
       </c>
       <c r="AV3">
-        <v>0.249</v>
+        <v>0.221</v>
       </c>
       <c r="AW3">
-        <v>0.151</v>
+        <v>0.145</v>
       </c>
       <c r="AX3">
-        <v>0.532</v>
+        <v>0.531</v>
       </c>
       <c r="AY3">
+        <v>0.324</v>
+      </c>
+      <c r="AZ3">
+        <v>1275</v>
+      </c>
+      <c r="BA3">
+        <v>457</v>
+      </c>
+      <c r="BB3">
+        <v>818</v>
+      </c>
+      <c r="BC3">
+        <v>320</v>
+      </c>
+      <c r="BD3">
+        <v>0.04375</v>
+      </c>
+      <c r="BE3">
+        <v>0.331</v>
+      </c>
+      <c r="BF3">
+        <v>0.472</v>
+      </c>
+      <c r="BG3">
+        <v>0.266</v>
+      </c>
+      <c r="BH3">
+        <v>0.197</v>
+      </c>
+      <c r="BI3">
+        <v>0.05</v>
+      </c>
+      <c r="BJ3">
+        <v>0.292</v>
+      </c>
+      <c r="BK3">
+        <v>4.49</v>
+      </c>
+      <c r="BL3">
+        <v>3.66</v>
+      </c>
+      <c r="BM3">
+        <v>0.492</v>
+      </c>
+      <c r="BN3">
+        <v>0.192</v>
+      </c>
+      <c r="BO3">
         <v>0.317</v>
       </c>
-      <c r="AZ3">
-        <v>1248</v>
-      </c>
-      <c r="BA3">
-        <v>446</v>
-      </c>
-      <c r="BB3">
-        <v>802</v>
-      </c>
-      <c r="BC3">
-        <v>313</v>
-      </c>
-      <c r="BD3">
-        <v>0.0255591054313099</v>
-      </c>
-      <c r="BE3">
-        <v>0.272</v>
-      </c>
-      <c r="BF3">
-        <v>0.34</v>
-      </c>
-      <c r="BG3">
-        <v>0.209</v>
-      </c>
-      <c r="BH3">
-        <v>0.259</v>
-      </c>
-      <c r="BI3">
-        <v>0.083</v>
-      </c>
-      <c r="BJ3">
-        <v>0.259</v>
-      </c>
-      <c r="BK3">
-        <v>3.46</v>
-      </c>
-      <c r="BL3">
-        <v>3.6</v>
-      </c>
-      <c r="BM3">
-        <v>0.453</v>
-      </c>
-      <c r="BN3">
-        <v>0.172</v>
-      </c>
-      <c r="BO3">
-        <v>0.374</v>
-      </c>
       <c r="BP3">
-        <v>0.105</v>
+        <v>0.184</v>
       </c>
       <c r="BQ3">
-        <v>0.151</v>
+        <v>0.145</v>
       </c>
       <c r="BR3">
-        <v>0.532</v>
+        <v>0.531</v>
       </c>
       <c r="BS3">
-        <v>0.317</v>
+        <v>0.324</v>
       </c>
       <c r="BT3">
-        <v>0.131</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -1387,217 +1555,217 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="M4">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="N4">
-        <v>94.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="O4">
         <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R4">
         <v>35</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T4">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="X4">
-        <v>0.209</v>
+        <v>0.212</v>
       </c>
       <c r="Y4">
-        <v>0.285</v>
+        <v>0.282</v>
       </c>
       <c r="Z4">
-        <v>0.338</v>
+        <v>0.37</v>
       </c>
       <c r="AA4">
-        <v>0.277</v>
+        <v>0.286</v>
       </c>
       <c r="AB4">
-        <v>9.789999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AC4">
-        <v>3.52</v>
+        <v>3.22</v>
       </c>
       <c r="AD4">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="AE4">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="AF4">
-        <v>0.272</v>
+        <v>0.26</v>
       </c>
       <c r="AG4">
-        <v>0.098</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="AH4" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="AI4">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AJ4">
-        <v>0.266</v>
+        <v>0.26</v>
       </c>
       <c r="AK4">
-        <v>0.745</v>
+        <v>0.725</v>
       </c>
       <c r="AL4">
-        <v>3.54</v>
+        <v>3.72</v>
       </c>
       <c r="AM4">
-        <v>3.5</v>
+        <v>3.81</v>
       </c>
       <c r="AN4">
-        <v>1.29</v>
+        <v>0.99</v>
       </c>
       <c r="AO4">
-        <v>0.197</v>
+        <v>0.171</v>
       </c>
       <c r="AP4">
+        <v>0.413</v>
+      </c>
+      <c r="AQ4">
+        <v>0.417</v>
+      </c>
+      <c r="AR4">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AS4">
+        <v>0.11</v>
+      </c>
+      <c r="AT4">
         <v>0.452</v>
       </c>
-      <c r="AQ4">
-        <v>0.351</v>
-      </c>
-      <c r="AR4">
-        <v>0.107</v>
-      </c>
-      <c r="AS4">
-        <v>0.119</v>
-      </c>
-      <c r="AT4">
-        <v>0.343</v>
-      </c>
       <c r="AU4">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="AV4">
-        <v>0.301</v>
+        <v>0.187</v>
       </c>
       <c r="AW4">
-        <v>0.18</v>
+        <v>0.145</v>
       </c>
       <c r="AX4">
-        <v>0.5770000000000001</v>
+        <v>0.5479999999999999</v>
       </c>
       <c r="AY4">
-        <v>0.243</v>
+        <v>0.307</v>
       </c>
       <c r="AZ4">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="BA4">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="BB4">
-        <v>994</v>
+        <v>968</v>
       </c>
       <c r="BC4">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="BD4">
-        <v>0.02638522427440633</v>
+        <v>0.02949061662198391</v>
       </c>
       <c r="BE4">
-        <v>0.277</v>
+        <v>0.286</v>
       </c>
       <c r="BF4">
-        <v>0.338</v>
+        <v>0.37</v>
       </c>
       <c r="BG4">
-        <v>0.209</v>
+        <v>0.212</v>
       </c>
       <c r="BH4">
-        <v>0.272</v>
+        <v>0.26</v>
       </c>
       <c r="BI4">
-        <v>0.098</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="BJ4">
-        <v>0.266</v>
+        <v>0.26</v>
       </c>
       <c r="BK4">
-        <v>3.54</v>
+        <v>3.72</v>
       </c>
       <c r="BL4">
-        <v>3.5</v>
+        <v>3.81</v>
       </c>
       <c r="BM4">
-        <v>0.452</v>
+        <v>0.413</v>
       </c>
       <c r="BN4">
-        <v>0.197</v>
+        <v>0.171</v>
       </c>
       <c r="BO4">
-        <v>0.351</v>
+        <v>0.417</v>
       </c>
       <c r="BP4">
-        <v>0.119</v>
+        <v>0.11</v>
       </c>
       <c r="BQ4">
-        <v>0.18</v>
+        <v>0.145</v>
       </c>
       <c r="BR4">
-        <v>0.5770000000000001</v>
+        <v>0.5479999999999999</v>
       </c>
       <c r="BS4">
-        <v>0.243</v>
+        <v>0.307</v>
       </c>
       <c r="BT4">
-        <v>0.129</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="5" spans="1:72">
@@ -1605,217 +1773,217 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="M5">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="N5">
-        <v>75.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="O5">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="R5">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="X5">
-        <v>0.279</v>
+        <v>0.189</v>
       </c>
       <c r="Y5">
-        <v>0.339</v>
+        <v>0.257</v>
       </c>
       <c r="Z5">
-        <v>0.377</v>
+        <v>0.295</v>
       </c>
       <c r="AA5">
-        <v>0.318</v>
+        <v>0.247</v>
       </c>
       <c r="AB5">
-        <v>9.08</v>
+        <v>11.78</v>
       </c>
       <c r="AC5">
-        <v>2.75</v>
+        <v>2.97</v>
       </c>
       <c r="AD5">
-        <v>3.3</v>
+        <v>3.97</v>
       </c>
       <c r="AE5">
-        <v>0.96</v>
+        <v>0.65</v>
       </c>
       <c r="AF5">
-        <v>0.228</v>
+        <v>0.326</v>
       </c>
       <c r="AG5">
-        <v>0.06900000000000001</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="AH5" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="AI5">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="AJ5">
-        <v>0.348</v>
+        <v>0.266</v>
       </c>
       <c r="AK5">
-        <v>0.7859999999999999</v>
+        <v>0.6609999999999999</v>
       </c>
       <c r="AL5">
-        <v>3.64</v>
+        <v>2.51</v>
       </c>
       <c r="AM5">
-        <v>3.43</v>
+        <v>3.08</v>
       </c>
       <c r="AN5">
-        <v>2.07</v>
+        <v>0.89</v>
       </c>
       <c r="AO5">
-        <v>0.216</v>
+        <v>0.187</v>
       </c>
       <c r="AP5">
-        <v>0.529</v>
+        <v>0.382</v>
       </c>
       <c r="AQ5">
-        <v>0.256</v>
+        <v>0.431</v>
       </c>
       <c r="AR5">
-        <v>0.172</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="AS5">
-        <v>0.138</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="AT5">
-        <v>0.358</v>
+        <v>0.412</v>
       </c>
       <c r="AU5">
-        <v>0.402</v>
+        <v>0.368</v>
       </c>
       <c r="AV5">
-        <v>0.24</v>
+        <v>0.219</v>
       </c>
       <c r="AW5">
-        <v>0.201</v>
+        <v>0.149</v>
       </c>
       <c r="AX5">
-        <v>0.611</v>
+        <v>0.544</v>
       </c>
       <c r="AY5">
-        <v>0.188</v>
+        <v>0.307</v>
       </c>
       <c r="AZ5">
-        <v>1298</v>
+        <v>1608</v>
       </c>
       <c r="BA5">
-        <v>475</v>
+        <v>578</v>
       </c>
       <c r="BB5">
-        <v>823</v>
+        <v>1030</v>
       </c>
       <c r="BC5">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="BD5">
-        <v>0.02402402402402402</v>
+        <v>0.01799485861182519</v>
       </c>
       <c r="BE5">
-        <v>0.318</v>
+        <v>0.247</v>
       </c>
       <c r="BF5">
-        <v>0.377</v>
+        <v>0.295</v>
       </c>
       <c r="BG5">
-        <v>0.279</v>
+        <v>0.189</v>
       </c>
       <c r="BH5">
-        <v>0.228</v>
+        <v>0.326</v>
       </c>
       <c r="BI5">
-        <v>0.06900000000000001</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="BJ5">
-        <v>0.348</v>
+        <v>0.266</v>
       </c>
       <c r="BK5">
-        <v>3.64</v>
+        <v>2.51</v>
       </c>
       <c r="BL5">
-        <v>3.43</v>
+        <v>3.08</v>
       </c>
       <c r="BM5">
-        <v>0.529</v>
+        <v>0.382</v>
       </c>
       <c r="BN5">
-        <v>0.216</v>
+        <v>0.187</v>
       </c>
       <c r="BO5">
-        <v>0.256</v>
+        <v>0.431</v>
       </c>
       <c r="BP5">
-        <v>0.138</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="BQ5">
-        <v>0.201</v>
+        <v>0.149</v>
       </c>
       <c r="BR5">
-        <v>0.611</v>
+        <v>0.544</v>
       </c>
       <c r="BS5">
-        <v>0.188</v>
+        <v>0.307</v>
       </c>
       <c r="BT5">
-        <v>0.09799999999999998</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="6" spans="1:72">
@@ -1823,217 +1991,217 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="M6">
-        <v>177</v>
+        <v>379</v>
       </c>
       <c r="N6">
-        <v>43.1</v>
+        <v>94.2</v>
       </c>
       <c r="O6">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="R6">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T6">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="X6">
-        <v>0.225</v>
+        <v>0.209</v>
       </c>
       <c r="Y6">
-        <v>0.288</v>
+        <v>0.285</v>
       </c>
       <c r="Z6">
-        <v>0.331</v>
+        <v>0.338</v>
       </c>
       <c r="AA6">
-        <v>0.275</v>
+        <v>0.277</v>
       </c>
       <c r="AB6">
-        <v>9.140000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AC6">
-        <v>2.49</v>
+        <v>3.52</v>
       </c>
       <c r="AD6">
-        <v>3.67</v>
+        <v>2.78</v>
       </c>
       <c r="AE6">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
       <c r="AF6">
-        <v>0.249</v>
+        <v>0.272</v>
       </c>
       <c r="AG6">
-        <v>0.068</v>
+        <v>0.098</v>
       </c>
       <c r="AH6" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="AI6">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AJ6">
-        <v>0.287</v>
+        <v>0.266</v>
       </c>
       <c r="AK6">
-        <v>0.7909999999999999</v>
+        <v>0.745</v>
       </c>
       <c r="AL6">
-        <v>3.07</v>
+        <v>3.54</v>
       </c>
       <c r="AM6">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="AN6">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO6">
-        <v>0.212</v>
+        <v>0.197</v>
       </c>
       <c r="AP6">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="AQ6">
-        <v>0.339</v>
+        <v>0.351</v>
       </c>
       <c r="AR6">
-        <v>0.05</v>
+        <v>0.107</v>
       </c>
       <c r="AS6">
-        <v>0.075</v>
+        <v>0.119</v>
       </c>
       <c r="AT6">
-        <v>0.441</v>
+        <v>0.343</v>
       </c>
       <c r="AU6">
-        <v>0.364</v>
+        <v>0.356</v>
       </c>
       <c r="AV6">
-        <v>0.195</v>
+        <v>0.301</v>
       </c>
       <c r="AW6">
-        <v>0.102</v>
+        <v>0.184</v>
       </c>
       <c r="AX6">
-        <v>0.644</v>
+        <v>0.5770000000000001</v>
       </c>
       <c r="AY6">
-        <v>0.254</v>
+        <v>0.238</v>
       </c>
       <c r="AZ6">
-        <v>709</v>
+        <v>1584</v>
       </c>
       <c r="BA6">
-        <v>266</v>
+        <v>590</v>
       </c>
       <c r="BB6">
-        <v>443</v>
+        <v>994</v>
       </c>
       <c r="BC6">
-        <v>177</v>
+        <v>379</v>
       </c>
       <c r="BD6">
-        <v>0.01694915254237288</v>
+        <v>0.02638522427440633</v>
       </c>
       <c r="BE6">
-        <v>0.275</v>
+        <v>0.277</v>
       </c>
       <c r="BF6">
-        <v>0.331</v>
+        <v>0.338</v>
       </c>
       <c r="BG6">
-        <v>0.225</v>
+        <v>0.209</v>
       </c>
       <c r="BH6">
-        <v>0.249</v>
+        <v>0.272</v>
       </c>
       <c r="BI6">
-        <v>0.068</v>
+        <v>0.098</v>
       </c>
       <c r="BJ6">
-        <v>0.287</v>
+        <v>0.266</v>
       </c>
       <c r="BK6">
-        <v>3.07</v>
+        <v>3.54</v>
       </c>
       <c r="BL6">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="BM6">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="BN6">
-        <v>0.212</v>
+        <v>0.197</v>
       </c>
       <c r="BO6">
-        <v>0.339</v>
+        <v>0.351</v>
       </c>
       <c r="BP6">
-        <v>0.075</v>
+        <v>0.119</v>
       </c>
       <c r="BQ6">
-        <v>0.102</v>
+        <v>0.184</v>
       </c>
       <c r="BR6">
-        <v>0.644</v>
+        <v>0.5770000000000001</v>
       </c>
       <c r="BS6">
-        <v>0.254</v>
+        <v>0.238</v>
       </c>
       <c r="BT6">
-        <v>0.106</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -2041,217 +2209,217 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="M7">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="N7">
-        <v>56.1</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="O7">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="X7">
-        <v>0.27</v>
+        <v>0.279</v>
       </c>
       <c r="Y7">
-        <v>0.326</v>
+        <v>0.339</v>
       </c>
       <c r="Z7">
-        <v>0.484</v>
+        <v>0.377</v>
       </c>
       <c r="AA7">
-        <v>0.35</v>
+        <v>0.318</v>
       </c>
       <c r="AB7">
-        <v>9.109999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="AC7">
-        <v>1.76</v>
+        <v>2.75</v>
       </c>
       <c r="AD7">
-        <v>5.18</v>
+        <v>3.3</v>
       </c>
       <c r="AE7">
-        <v>1.76</v>
+        <v>0.96</v>
       </c>
       <c r="AF7">
-        <v>0.245</v>
+        <v>0.228</v>
       </c>
       <c r="AG7">
-        <v>0.047</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AH7" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="AI7">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AJ7">
-        <v>0.32</v>
+        <v>0.348</v>
       </c>
       <c r="AK7">
-        <v>0.759</v>
+        <v>0.7859999999999999</v>
       </c>
       <c r="AL7">
-        <v>4.64</v>
+        <v>3.64</v>
       </c>
       <c r="AM7">
-        <v>3.87</v>
+        <v>3.43</v>
       </c>
       <c r="AN7">
-        <v>0.92</v>
+        <v>2.07</v>
       </c>
       <c r="AO7">
-        <v>0.196</v>
+        <v>0.216</v>
       </c>
       <c r="AP7">
-        <v>0.386</v>
+        <v>0.529</v>
       </c>
       <c r="AQ7">
-        <v>0.418</v>
+        <v>0.256</v>
       </c>
       <c r="AR7">
-        <v>0.106</v>
+        <v>0.172</v>
       </c>
       <c r="AS7">
-        <v>0.167</v>
+        <v>0.138</v>
       </c>
       <c r="AT7">
-        <v>0.43</v>
+        <v>0.358</v>
       </c>
       <c r="AU7">
-        <v>0.354</v>
+        <v>0.402</v>
       </c>
       <c r="AV7">
-        <v>0.215</v>
+        <v>0.24</v>
       </c>
       <c r="AW7">
-        <v>0.12</v>
+        <v>0.201</v>
       </c>
       <c r="AX7">
-        <v>0.475</v>
+        <v>0.603</v>
       </c>
       <c r="AY7">
-        <v>0.405</v>
+        <v>0.197</v>
       </c>
       <c r="AZ7">
-        <v>863</v>
+        <v>1298</v>
       </c>
       <c r="BA7">
-        <v>276</v>
+        <v>475</v>
       </c>
       <c r="BB7">
-        <v>587</v>
+        <v>823</v>
       </c>
       <c r="BC7">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="BD7">
-        <v>0.04721030042918455</v>
+        <v>0.02402402402402402</v>
       </c>
       <c r="BE7">
-        <v>0.35</v>
+        <v>0.318</v>
       </c>
       <c r="BF7">
-        <v>0.484</v>
+        <v>0.377</v>
       </c>
       <c r="BG7">
-        <v>0.27</v>
+        <v>0.279</v>
       </c>
       <c r="BH7">
-        <v>0.245</v>
+        <v>0.228</v>
       </c>
       <c r="BI7">
-        <v>0.047</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="BJ7">
-        <v>0.32</v>
+        <v>0.348</v>
       </c>
       <c r="BK7">
-        <v>4.64</v>
+        <v>3.64</v>
       </c>
       <c r="BL7">
-        <v>3.87</v>
+        <v>3.43</v>
       </c>
       <c r="BM7">
-        <v>0.386</v>
+        <v>0.529</v>
       </c>
       <c r="BN7">
-        <v>0.196</v>
+        <v>0.216</v>
       </c>
       <c r="BO7">
-        <v>0.418</v>
+        <v>0.256</v>
       </c>
       <c r="BP7">
-        <v>0.167</v>
+        <v>0.138</v>
       </c>
       <c r="BQ7">
-        <v>0.12</v>
+        <v>0.201</v>
       </c>
       <c r="BR7">
-        <v>0.475</v>
+        <v>0.603</v>
       </c>
       <c r="BS7">
-        <v>0.405</v>
+        <v>0.197</v>
       </c>
       <c r="BT7">
-        <v>0.214</v>
+        <v>0.09799999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:72">
@@ -2259,217 +2427,217 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="M8">
-        <v>157</v>
+        <v>352</v>
       </c>
       <c r="N8">
-        <v>33</v>
+        <v>90.2</v>
       </c>
       <c r="O8">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R8">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="X8">
-        <v>0.321</v>
+        <v>0.215</v>
       </c>
       <c r="Y8">
-        <v>0.395</v>
+        <v>0.259</v>
       </c>
       <c r="Z8">
-        <v>0.464</v>
+        <v>0.345</v>
       </c>
       <c r="AA8">
-        <v>0.377</v>
+        <v>0.264</v>
       </c>
       <c r="AB8">
-        <v>10.36</v>
+        <v>9.93</v>
       </c>
       <c r="AC8">
-        <v>3.82</v>
+        <v>1.89</v>
       </c>
       <c r="AD8">
-        <v>2.71</v>
+        <v>5.26</v>
       </c>
       <c r="AE8">
-        <v>1.36</v>
+        <v>0.99</v>
       </c>
       <c r="AF8">
-        <v>0.242</v>
+        <v>0.284</v>
       </c>
       <c r="AG8">
-        <v>0.08900000000000001</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="AH8" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="AI8">
-        <v>1.79</v>
+        <v>0.99</v>
       </c>
       <c r="AJ8">
-        <v>0.412</v>
+        <v>0.275</v>
       </c>
       <c r="AK8">
-        <v>0.7090000000000001</v>
+        <v>0.831</v>
       </c>
       <c r="AL8">
-        <v>4.38</v>
+        <v>3.06</v>
       </c>
       <c r="AM8">
-        <v>3.23</v>
+        <v>3.09</v>
       </c>
       <c r="AN8">
-        <v>3.44</v>
+        <v>1.08</v>
       </c>
       <c r="AO8">
-        <v>0.208</v>
+        <v>0.201</v>
       </c>
       <c r="AP8">
-        <v>0.614</v>
+        <v>0.415</v>
       </c>
       <c r="AQ8">
-        <v>0.178</v>
+        <v>0.384</v>
       </c>
       <c r="AR8">
-        <v>0.111</v>
+        <v>0.091</v>
       </c>
       <c r="AS8">
-        <v>0.278</v>
+        <v>0.114</v>
       </c>
       <c r="AT8">
-        <v>0.431</v>
+        <v>0.409</v>
       </c>
       <c r="AU8">
-        <v>0.304</v>
+        <v>0.375</v>
       </c>
       <c r="AV8">
-        <v>0.265</v>
+        <v>0.216</v>
       </c>
       <c r="AW8">
-        <v>0.118</v>
+        <v>0.168</v>
       </c>
       <c r="AX8">
-        <v>0.588</v>
+        <v>0.569</v>
       </c>
       <c r="AY8">
-        <v>0.294</v>
+        <v>0.263</v>
       </c>
       <c r="AZ8">
-        <v>644</v>
+        <v>1415</v>
       </c>
       <c r="BA8">
-        <v>246</v>
+        <v>515</v>
       </c>
       <c r="BB8">
-        <v>398</v>
+        <v>900</v>
       </c>
       <c r="BC8">
-        <v>157</v>
+        <v>352</v>
       </c>
       <c r="BD8">
-        <v>0.03184713375796178</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="BE8">
-        <v>0.377</v>
+        <v>0.264</v>
       </c>
       <c r="BF8">
-        <v>0.464</v>
+        <v>0.345</v>
       </c>
       <c r="BG8">
-        <v>0.321</v>
+        <v>0.215</v>
       </c>
       <c r="BH8">
-        <v>0.242</v>
+        <v>0.284</v>
       </c>
       <c r="BI8">
-        <v>0.08900000000000001</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="BJ8">
-        <v>0.412</v>
+        <v>0.275</v>
       </c>
       <c r="BK8">
-        <v>4.38</v>
+        <v>3.06</v>
       </c>
       <c r="BL8">
-        <v>3.23</v>
+        <v>3.09</v>
       </c>
       <c r="BM8">
-        <v>0.614</v>
+        <v>0.415</v>
       </c>
       <c r="BN8">
-        <v>0.208</v>
+        <v>0.201</v>
       </c>
       <c r="BO8">
-        <v>0.178</v>
+        <v>0.384</v>
       </c>
       <c r="BP8">
-        <v>0.278</v>
+        <v>0.114</v>
       </c>
       <c r="BQ8">
-        <v>0.118</v>
+        <v>0.168</v>
       </c>
       <c r="BR8">
-        <v>0.588</v>
+        <v>0.569</v>
       </c>
       <c r="BS8">
-        <v>0.294</v>
+        <v>0.263</v>
       </c>
       <c r="BT8">
-        <v>0.143</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="1:72">
@@ -2477,217 +2645,217 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="M9">
-        <v>557</v>
+        <v>297</v>
       </c>
       <c r="N9">
-        <v>141.1</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="O9">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q9">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="R9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T9">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W9">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="X9">
-        <v>0.2</v>
+        <v>0.233</v>
       </c>
       <c r="Y9">
-        <v>0.266</v>
+        <v>0.29</v>
       </c>
       <c r="Z9">
-        <v>0.273</v>
+        <v>0.44</v>
       </c>
       <c r="AA9">
-        <v>0.244</v>
+        <v>0.315</v>
       </c>
       <c r="AB9">
-        <v>8.15</v>
+        <v>11.86</v>
       </c>
       <c r="AC9">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="AD9">
-        <v>2.98</v>
+        <v>4.95</v>
       </c>
       <c r="AE9">
-        <v>0.51</v>
+        <v>1.77</v>
       </c>
       <c r="AF9">
-        <v>0.23</v>
+        <v>0.316</v>
       </c>
       <c r="AG9">
-        <v>0.077</v>
+        <v>0.064</v>
       </c>
       <c r="AH9" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="AI9">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="AJ9">
-        <v>0.249</v>
+        <v>0.299</v>
       </c>
       <c r="AK9">
-        <v>0.731</v>
+        <v>0.7829999999999999</v>
       </c>
       <c r="AL9">
-        <v>3.09</v>
+        <v>4.01</v>
       </c>
       <c r="AM9">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="AN9">
-        <v>2.35</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.172</v>
+        <v>0.26</v>
       </c>
       <c r="AP9">
-        <v>0.581</v>
+        <v>0.37</v>
       </c>
       <c r="AQ9">
-        <v>0.247</v>
+        <v>0.37</v>
       </c>
       <c r="AR9">
-        <v>0.043</v>
+        <v>0.09</v>
       </c>
       <c r="AS9">
-        <v>0.08599999999999999</v>
+        <v>0.209</v>
       </c>
       <c r="AT9">
-        <v>0.436</v>
+        <v>0.47</v>
       </c>
       <c r="AU9">
-        <v>0.312</v>
+        <v>0.298</v>
       </c>
       <c r="AV9">
-        <v>0.252</v>
+        <v>0.232</v>
       </c>
       <c r="AW9">
-        <v>0.16</v>
+        <v>0.144</v>
       </c>
       <c r="AX9">
-        <v>0.588</v>
+        <v>0.508</v>
       </c>
       <c r="AY9">
-        <v>0.252</v>
+        <v>0.348</v>
       </c>
       <c r="AZ9">
-        <v>2121</v>
+        <v>1231</v>
       </c>
       <c r="BA9">
-        <v>761</v>
+        <v>433</v>
       </c>
       <c r="BB9">
-        <v>1360</v>
+        <v>798</v>
       </c>
       <c r="BC9">
-        <v>557</v>
+        <v>297</v>
       </c>
       <c r="BD9">
-        <v>0.01436265709156194</v>
+        <v>0.04713804713804714</v>
       </c>
       <c r="BE9">
-        <v>0.244</v>
+        <v>0.315</v>
       </c>
       <c r="BF9">
-        <v>0.273</v>
+        <v>0.44</v>
       </c>
       <c r="BG9">
-        <v>0.2</v>
+        <v>0.233</v>
       </c>
       <c r="BH9">
-        <v>0.23</v>
+        <v>0.316</v>
       </c>
       <c r="BI9">
-        <v>0.077</v>
+        <v>0.064</v>
       </c>
       <c r="BJ9">
-        <v>0.249</v>
+        <v>0.299</v>
       </c>
       <c r="BK9">
-        <v>3.09</v>
+        <v>4.01</v>
       </c>
       <c r="BL9">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="BM9">
-        <v>0.581</v>
+        <v>0.37</v>
       </c>
       <c r="BN9">
-        <v>0.172</v>
+        <v>0.26</v>
       </c>
       <c r="BO9">
-        <v>0.247</v>
+        <v>0.37</v>
       </c>
       <c r="BP9">
-        <v>0.08599999999999999</v>
+        <v>0.209</v>
       </c>
       <c r="BQ9">
-        <v>0.16</v>
+        <v>0.144</v>
       </c>
       <c r="BR9">
-        <v>0.588</v>
+        <v>0.508</v>
       </c>
       <c r="BS9">
-        <v>0.252</v>
+        <v>0.348</v>
       </c>
       <c r="BT9">
-        <v>0.07300000000000001</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="10" spans="1:72">
@@ -2695,217 +2863,217 @@
         <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="M10">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="N10">
-        <v>58.1</v>
+        <v>18</v>
       </c>
       <c r="O10">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="X10">
-        <v>0.253</v>
+        <v>0.27</v>
       </c>
       <c r="Y10">
-        <v>0.332</v>
+        <v>0.36</v>
       </c>
       <c r="Z10">
-        <v>0.38</v>
+        <v>0.486</v>
       </c>
       <c r="AA10">
-        <v>0.314</v>
+        <v>0.364</v>
       </c>
       <c r="AB10">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="AC10">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="AD10">
-        <v>2.46</v>
+        <v>1.3</v>
       </c>
       <c r="AE10">
-        <v>0.77</v>
+        <v>1.5</v>
       </c>
       <c r="AF10">
-        <v>0.233</v>
+        <v>0.151</v>
       </c>
       <c r="AG10">
-        <v>0.095</v>
+        <v>0.116</v>
       </c>
       <c r="AH10" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="AI10">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="AJ10">
-        <v>0.317</v>
+        <v>0.288</v>
       </c>
       <c r="AK10">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="AL10">
-        <v>3.7</v>
+        <v>5.72</v>
       </c>
       <c r="AM10">
-        <v>4.09</v>
+        <v>5.99</v>
       </c>
       <c r="AN10">
-        <v>1.26</v>
+        <v>0.86</v>
       </c>
       <c r="AO10">
-        <v>0.206</v>
+        <v>0.115</v>
       </c>
       <c r="AP10">
-        <v>0.442</v>
+        <v>0.41</v>
       </c>
       <c r="AQ10">
-        <v>0.352</v>
+        <v>0.475</v>
       </c>
       <c r="AR10">
         <v>0.034</v>
       </c>
       <c r="AS10">
-        <v>0.08599999999999999</v>
+        <v>0.103</v>
       </c>
       <c r="AT10">
-        <v>0.458</v>
+        <v>0.339</v>
       </c>
       <c r="AU10">
-        <v>0.349</v>
+        <v>0.403</v>
       </c>
       <c r="AV10">
-        <v>0.193</v>
+        <v>0.258</v>
       </c>
       <c r="AW10">
-        <v>0.09</v>
+        <v>0.145</v>
       </c>
       <c r="AX10">
-        <v>0.584</v>
+        <v>0.532</v>
       </c>
       <c r="AY10">
-        <v>0.325</v>
+        <v>0.323</v>
       </c>
       <c r="AZ10">
-        <v>1055</v>
+        <v>328</v>
       </c>
       <c r="BA10">
-        <v>396</v>
+        <v>128</v>
       </c>
       <c r="BB10">
-        <v>659</v>
+        <v>200</v>
       </c>
       <c r="BC10">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="BD10">
-        <v>0.01976284584980237</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="BE10">
-        <v>0.314</v>
+        <v>0.364</v>
       </c>
       <c r="BF10">
-        <v>0.38</v>
+        <v>0.486</v>
       </c>
       <c r="BG10">
-        <v>0.253</v>
+        <v>0.27</v>
       </c>
       <c r="BH10">
-        <v>0.233</v>
+        <v>0.151</v>
       </c>
       <c r="BI10">
-        <v>0.095</v>
+        <v>0.116</v>
       </c>
       <c r="BJ10">
-        <v>0.317</v>
+        <v>0.288</v>
       </c>
       <c r="BK10">
-        <v>3.7</v>
+        <v>5.72</v>
       </c>
       <c r="BL10">
-        <v>4.09</v>
+        <v>5.99</v>
       </c>
       <c r="BM10">
-        <v>0.442</v>
+        <v>0.41</v>
       </c>
       <c r="BN10">
-        <v>0.206</v>
+        <v>0.115</v>
       </c>
       <c r="BO10">
-        <v>0.352</v>
+        <v>0.475</v>
       </c>
       <c r="BP10">
-        <v>0.08599999999999999</v>
+        <v>0.103</v>
       </c>
       <c r="BQ10">
-        <v>0.09</v>
+        <v>0.145</v>
       </c>
       <c r="BR10">
-        <v>0.584</v>
+        <v>0.532</v>
       </c>
       <c r="BS10">
-        <v>0.325</v>
+        <v>0.323</v>
       </c>
       <c r="BT10">
-        <v>0.127</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="11" spans="1:72">
@@ -2913,217 +3081,217 @@
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="M11">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="N11">
-        <v>54</v>
+        <v>17.2</v>
       </c>
       <c r="O11">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="X11">
-        <v>0.22</v>
+        <v>0.324</v>
       </c>
       <c r="Y11">
-        <v>0.25</v>
+        <v>0.388</v>
       </c>
       <c r="Z11">
-        <v>0.31</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.244</v>
+        <v>0.404</v>
       </c>
       <c r="AB11">
-        <v>7</v>
+        <v>9.17</v>
       </c>
       <c r="AC11">
-        <v>1.5</v>
+        <v>3.57</v>
       </c>
       <c r="AD11">
-        <v>4.67</v>
+        <v>2.57</v>
       </c>
       <c r="AE11">
-        <v>0.33</v>
+        <v>2.04</v>
       </c>
       <c r="AF11">
-        <v>0.198</v>
+        <v>0.207</v>
       </c>
       <c r="AG11">
-        <v>0.042</v>
+        <v>0.08</v>
       </c>
       <c r="AH11" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="AI11">
-        <v>0.98</v>
+        <v>1.75</v>
       </c>
       <c r="AJ11">
-        <v>0.264</v>
+        <v>0.357</v>
       </c>
       <c r="AK11">
-        <v>0.578</v>
+        <v>0.511</v>
       </c>
       <c r="AL11">
-        <v>2.59</v>
+        <v>5.6</v>
       </c>
       <c r="AM11">
-        <v>3.32</v>
+        <v>4.54</v>
       </c>
       <c r="AN11">
-        <v>2.12</v>
+        <v>0.91</v>
       </c>
       <c r="AO11">
-        <v>0.157</v>
+        <v>0.263</v>
       </c>
       <c r="AP11">
-        <v>0.5720000000000001</v>
+        <v>0.351</v>
       </c>
       <c r="AQ11">
-        <v>0.27</v>
+        <v>0.386</v>
       </c>
       <c r="AR11">
-        <v>0.186</v>
+        <v>0.091</v>
       </c>
       <c r="AS11">
-        <v>0.047</v>
+        <v>0.182</v>
       </c>
       <c r="AT11">
-        <v>0.466</v>
+        <v>0.424</v>
       </c>
       <c r="AU11">
-        <v>0.298</v>
+        <v>0.339</v>
       </c>
       <c r="AV11">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="AW11">
-        <v>0.168</v>
+        <v>0.153</v>
       </c>
       <c r="AX11">
-        <v>0.54</v>
+        <v>0.525</v>
       </c>
       <c r="AY11">
-        <v>0.292</v>
+        <v>0.322</v>
       </c>
       <c r="AZ11">
-        <v>800</v>
+        <v>341</v>
       </c>
       <c r="BA11">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c r="BB11">
-        <v>506</v>
+        <v>222</v>
       </c>
       <c r="BC11">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="BD11">
-        <v>0.009433962264150943</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="BE11">
-        <v>0.244</v>
+        <v>0.404</v>
       </c>
       <c r="BF11">
-        <v>0.31</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="BG11">
-        <v>0.22</v>
+        <v>0.324</v>
       </c>
       <c r="BH11">
-        <v>0.198</v>
+        <v>0.207</v>
       </c>
       <c r="BI11">
-        <v>0.042</v>
+        <v>0.08</v>
       </c>
       <c r="BJ11">
-        <v>0.264</v>
+        <v>0.357</v>
       </c>
       <c r="BK11">
-        <v>2.59</v>
+        <v>5.6</v>
       </c>
       <c r="BL11">
-        <v>3.32</v>
+        <v>4.54</v>
       </c>
       <c r="BM11">
-        <v>0.5720000000000001</v>
+        <v>0.351</v>
       </c>
       <c r="BN11">
-        <v>0.157</v>
+        <v>0.263</v>
       </c>
       <c r="BO11">
-        <v>0.27</v>
+        <v>0.386</v>
       </c>
       <c r="BP11">
-        <v>0.047</v>
+        <v>0.182</v>
       </c>
       <c r="BQ11">
-        <v>0.168</v>
+        <v>0.153</v>
       </c>
       <c r="BR11">
-        <v>0.54</v>
+        <v>0.525</v>
       </c>
       <c r="BS11">
-        <v>0.292</v>
+        <v>0.322</v>
       </c>
       <c r="BT11">
-        <v>0.09</v>
+        <v>0.2439999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:72">
@@ -3131,217 +3299,217 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="M12">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="N12">
-        <v>37.1</v>
+        <v>83</v>
       </c>
       <c r="O12">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R12">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="S12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T12">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="X12">
-        <v>0.248</v>
+        <v>0.254</v>
       </c>
       <c r="Y12">
-        <v>0.31</v>
+        <v>0.303</v>
       </c>
       <c r="Z12">
         <v>0.428</v>
       </c>
       <c r="AA12">
-        <v>0.322</v>
+        <v>0.317</v>
       </c>
       <c r="AB12">
-        <v>11.33</v>
+        <v>6.83</v>
       </c>
       <c r="AC12">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="AD12">
+        <v>2.74</v>
+      </c>
+      <c r="AE12">
+        <v>1.41</v>
+      </c>
+      <c r="AF12">
+        <v>0.179</v>
+      </c>
+      <c r="AG12">
+        <v>0.065</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI12">
+        <v>1.28</v>
+      </c>
+      <c r="AJ12">
+        <v>0.277</v>
+      </c>
+      <c r="AK12">
+        <v>0.7859999999999999</v>
+      </c>
+      <c r="AL12">
+        <v>4.52</v>
+      </c>
+      <c r="AM12">
         <v>4.27</v>
       </c>
-      <c r="AE12">
-        <v>1.69</v>
-      </c>
-      <c r="AF12">
-        <v>0.297</v>
-      </c>
-      <c r="AG12">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI12">
-        <v>1.26</v>
-      </c>
-      <c r="AJ12">
-        <v>0.319</v>
-      </c>
-      <c r="AK12">
-        <v>0.765</v>
-      </c>
-      <c r="AL12">
-        <v>4.13</v>
-      </c>
-      <c r="AM12">
-        <v>2.83</v>
-      </c>
       <c r="AN12">
-        <v>1.61</v>
+        <v>1.16</v>
       </c>
       <c r="AO12">
-        <v>0.24</v>
+        <v>0.191</v>
       </c>
       <c r="AP12">
-        <v>0.469</v>
+        <v>0.435</v>
       </c>
       <c r="AQ12">
-        <v>0.292</v>
+        <v>0.374</v>
       </c>
       <c r="AR12">
-        <v>0.143</v>
+        <v>0.051</v>
       </c>
       <c r="AS12">
-        <v>0.25</v>
+        <v>0.133</v>
       </c>
       <c r="AT12">
-        <v>0.316</v>
+        <v>0.43</v>
       </c>
       <c r="AU12">
-        <v>0.418</v>
+        <v>0.355</v>
       </c>
       <c r="AV12">
-        <v>0.265</v>
+        <v>0.215</v>
       </c>
       <c r="AW12">
-        <v>0.184</v>
+        <v>0.106</v>
       </c>
       <c r="AX12">
-        <v>0.449</v>
+        <v>0.502</v>
       </c>
       <c r="AY12">
-        <v>0.367</v>
+        <v>0.392</v>
       </c>
       <c r="AZ12">
-        <v>645</v>
+        <v>1367</v>
       </c>
       <c r="BA12">
-        <v>225</v>
+        <v>496</v>
       </c>
       <c r="BB12">
-        <v>420</v>
+        <v>871</v>
       </c>
       <c r="BC12">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="BD12">
-        <v>0.04430379746835443</v>
+        <v>0.03693181818181818</v>
       </c>
       <c r="BE12">
-        <v>0.322</v>
+        <v>0.317</v>
       </c>
       <c r="BF12">
         <v>0.428</v>
       </c>
       <c r="BG12">
-        <v>0.248</v>
+        <v>0.254</v>
       </c>
       <c r="BH12">
-        <v>0.297</v>
+        <v>0.179</v>
       </c>
       <c r="BI12">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="BJ12">
-        <v>0.319</v>
+        <v>0.277</v>
       </c>
       <c r="BK12">
-        <v>4.13</v>
+        <v>4.52</v>
       </c>
       <c r="BL12">
-        <v>2.83</v>
+        <v>4.27</v>
       </c>
       <c r="BM12">
-        <v>0.469</v>
+        <v>0.435</v>
       </c>
       <c r="BN12">
-        <v>0.24</v>
+        <v>0.191</v>
       </c>
       <c r="BO12">
-        <v>0.292</v>
+        <v>0.374</v>
       </c>
       <c r="BP12">
-        <v>0.25</v>
+        <v>0.133</v>
       </c>
       <c r="BQ12">
-        <v>0.184</v>
+        <v>0.106</v>
       </c>
       <c r="BR12">
-        <v>0.449</v>
+        <v>0.502</v>
       </c>
       <c r="BS12">
-        <v>0.367</v>
+        <v>0.392</v>
       </c>
       <c r="BT12">
-        <v>0.18</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="13" spans="1:72">
@@ -3349,217 +3517,217 @@
         <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="M13">
-        <v>580</v>
+        <v>323</v>
       </c>
       <c r="N13">
-        <v>144.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="O13">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q13">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="R13">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="S13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T13">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="X13">
-        <v>0.19</v>
+        <v>0.232</v>
       </c>
       <c r="Y13">
-        <v>0.271</v>
+        <v>0.255</v>
       </c>
       <c r="Z13">
-        <v>0.313</v>
+        <v>0.343</v>
       </c>
       <c r="AA13">
-        <v>0.262</v>
+        <v>0.259</v>
       </c>
       <c r="AB13">
-        <v>8.539999999999999</v>
+        <v>6.78</v>
       </c>
       <c r="AC13">
-        <v>3.24</v>
+        <v>1.09</v>
       </c>
       <c r="AD13">
-        <v>2.63</v>
+        <v>6.2</v>
       </c>
       <c r="AE13">
         <v>0.87</v>
       </c>
       <c r="AF13">
-        <v>0.236</v>
+        <v>0.192</v>
       </c>
       <c r="AG13">
-        <v>0.09</v>
+        <v>0.031</v>
       </c>
       <c r="AH13" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="AI13">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="AJ13">
-        <v>0.227</v>
+        <v>0.26</v>
       </c>
       <c r="AK13">
-        <v>0.735</v>
+        <v>0.7340000000000001</v>
       </c>
       <c r="AL13">
-        <v>3.76</v>
+        <v>3.32</v>
       </c>
       <c r="AM13">
-        <v>4.35</v>
+        <v>4.04</v>
       </c>
       <c r="AN13">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="AO13">
-        <v>0.182</v>
+        <v>0.198</v>
       </c>
       <c r="AP13">
-        <v>0.353</v>
+        <v>0.364</v>
       </c>
       <c r="AQ13">
-        <v>0.466</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="AR13">
-        <v>0.096</v>
+        <v>0.083</v>
       </c>
       <c r="AS13">
-        <v>0.079</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="AT13">
-        <v>0.392</v>
+        <v>0.46</v>
       </c>
       <c r="AU13">
-        <v>0.342</v>
+        <v>0.308</v>
       </c>
       <c r="AV13">
-        <v>0.266</v>
+        <v>0.232</v>
       </c>
       <c r="AW13">
-        <v>0.149</v>
+        <v>0.168</v>
       </c>
       <c r="AX13">
-        <v>0.5429999999999999</v>
+        <v>0.5720000000000001</v>
       </c>
       <c r="AY13">
-        <v>0.308</v>
+        <v>0.26</v>
       </c>
       <c r="AZ13">
-        <v>2349</v>
+        <v>1116</v>
       </c>
       <c r="BA13">
-        <v>824</v>
+        <v>337</v>
       </c>
       <c r="BB13">
-        <v>1525</v>
+        <v>779</v>
       </c>
       <c r="BC13">
-        <v>580</v>
+        <v>323</v>
       </c>
       <c r="BD13">
-        <v>0.02413793103448276</v>
+        <v>0.02476780185758514</v>
       </c>
       <c r="BE13">
-        <v>0.262</v>
+        <v>0.259</v>
       </c>
       <c r="BF13">
-        <v>0.313</v>
+        <v>0.343</v>
       </c>
       <c r="BG13">
-        <v>0.19</v>
+        <v>0.232</v>
       </c>
       <c r="BH13">
-        <v>0.236</v>
+        <v>0.192</v>
       </c>
       <c r="BI13">
-        <v>0.09</v>
+        <v>0.031</v>
       </c>
       <c r="BJ13">
-        <v>0.227</v>
+        <v>0.26</v>
       </c>
       <c r="BK13">
-        <v>3.76</v>
+        <v>3.32</v>
       </c>
       <c r="BL13">
-        <v>4.35</v>
+        <v>4.04</v>
       </c>
       <c r="BM13">
-        <v>0.353</v>
+        <v>0.364</v>
       </c>
       <c r="BN13">
-        <v>0.182</v>
+        <v>0.198</v>
       </c>
       <c r="BO13">
-        <v>0.466</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="BP13">
-        <v>0.079</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="BQ13">
-        <v>0.149</v>
+        <v>0.168</v>
       </c>
       <c r="BR13">
-        <v>0.5429999999999999</v>
+        <v>0.5720000000000001</v>
       </c>
       <c r="BS13">
-        <v>0.308</v>
+        <v>0.26</v>
       </c>
       <c r="BT13">
-        <v>0.123</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="14" spans="1:72">
@@ -3567,217 +3735,217 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M14">
-        <v>443</v>
+        <v>24</v>
       </c>
       <c r="N14">
-        <v>105.2</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R14">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>0.25</v>
+      </c>
+      <c r="Y14">
+        <v>0.25</v>
+      </c>
+      <c r="Z14">
+        <v>0.375</v>
+      </c>
+      <c r="AA14">
+        <v>0.269</v>
+      </c>
+      <c r="AB14">
+        <v>9</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>6</v>
+      </c>
+      <c r="AE14">
+        <v>1.5</v>
+      </c>
+      <c r="AF14">
+        <v>0.25</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI14">
         <v>1</v>
       </c>
-      <c r="V14">
-        <v>6</v>
-      </c>
-      <c r="W14">
-        <v>101</v>
-      </c>
-      <c r="X14">
-        <v>0.246</v>
-      </c>
-      <c r="Y14">
-        <v>0.309</v>
-      </c>
-      <c r="Z14">
-        <v>0.377</v>
-      </c>
-      <c r="AA14">
-        <v>0.301</v>
-      </c>
-      <c r="AB14">
-        <v>8.6</v>
-      </c>
-      <c r="AC14">
-        <v>2.73</v>
-      </c>
-      <c r="AD14">
-        <v>3.16</v>
-      </c>
-      <c r="AE14">
-        <v>0.6</v>
-      </c>
-      <c r="AF14">
-        <v>0.228</v>
-      </c>
-      <c r="AG14">
-        <v>0.07200000000000001</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI14">
-        <v>1.24</v>
-      </c>
       <c r="AJ14">
-        <v>0.31</v>
+        <v>0.294</v>
       </c>
       <c r="AK14">
-        <v>0.794</v>
+        <v>0.652</v>
       </c>
       <c r="AL14">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="AM14">
-        <v>3.79</v>
+        <v>2.68</v>
       </c>
       <c r="AN14">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AO14">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
       <c r="AP14">
-        <v>0.4379999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="AQ14">
-        <v>0.341</v>
+        <v>0.333</v>
       </c>
       <c r="AR14">
-        <v>0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.06900000000000001</v>
+        <v>0.167</v>
       </c>
       <c r="AT14">
+        <v>0.333</v>
+      </c>
+      <c r="AU14">
+        <v>0.389</v>
+      </c>
+      <c r="AV14">
+        <v>0.278</v>
+      </c>
+      <c r="AW14">
+        <v>0.111</v>
+      </c>
+      <c r="AX14">
+        <v>0.389</v>
+      </c>
+      <c r="AY14">
+        <v>0.5</v>
+      </c>
+      <c r="AZ14">
+        <v>78</v>
+      </c>
+      <c r="BA14">
+        <v>19</v>
+      </c>
+      <c r="BB14">
+        <v>59</v>
+      </c>
+      <c r="BC14">
+        <v>24</v>
+      </c>
+      <c r="BD14">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="BE14">
+        <v>0.269</v>
+      </c>
+      <c r="BF14">
         <v>0.375</v>
       </c>
-      <c r="AU14">
-        <v>0.388</v>
-      </c>
-      <c r="AV14">
-        <v>0.237</v>
-      </c>
-      <c r="AW14">
-        <v>0.148</v>
-      </c>
-      <c r="AX14">
-        <v>0.5489999999999999</v>
-      </c>
-      <c r="AY14">
-        <v>0.303</v>
-      </c>
-      <c r="AZ14">
-        <v>1691</v>
-      </c>
-      <c r="BA14">
-        <v>594</v>
-      </c>
-      <c r="BB14">
-        <v>1097</v>
-      </c>
-      <c r="BC14">
-        <v>443</v>
-      </c>
-      <c r="BD14">
-        <v>0.01580135440180587</v>
-      </c>
-      <c r="BE14">
-        <v>0.301</v>
-      </c>
-      <c r="BF14">
-        <v>0.377</v>
-      </c>
       <c r="BG14">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="BH14">
-        <v>0.228</v>
+        <v>0.25</v>
       </c>
       <c r="BI14">
-        <v>0.07200000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ14">
-        <v>0.31</v>
+        <v>0.294</v>
       </c>
       <c r="BK14">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="BL14">
-        <v>3.79</v>
+        <v>2.68</v>
       </c>
       <c r="BM14">
-        <v>0.4379999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="BN14">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
       <c r="BO14">
-        <v>0.341</v>
+        <v>0.333</v>
       </c>
       <c r="BP14">
-        <v>0.06900000000000001</v>
+        <v>0.167</v>
       </c>
       <c r="BQ14">
-        <v>0.148</v>
+        <v>0.111</v>
       </c>
       <c r="BR14">
-        <v>0.5489999999999999</v>
+        <v>0.389</v>
       </c>
       <c r="BS14">
-        <v>0.303</v>
+        <v>0.5</v>
       </c>
       <c r="BT14">
-        <v>0.131</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="15" spans="1:72">
@@ -3785,217 +3953,217 @@
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M15">
-        <v>393</v>
+        <v>118</v>
       </c>
       <c r="N15">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="O15">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R15">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="X15">
-        <v>0.211</v>
+        <v>0.267</v>
       </c>
       <c r="Y15">
-        <v>0.248</v>
+        <v>0.339</v>
       </c>
       <c r="Z15">
-        <v>0.327</v>
+        <v>0.429</v>
       </c>
       <c r="AA15">
-        <v>0.252</v>
+        <v>0.335</v>
       </c>
       <c r="AB15">
-        <v>7.13</v>
+        <v>10.33</v>
       </c>
       <c r="AC15">
-        <v>1.43</v>
+        <v>3.67</v>
       </c>
       <c r="AD15">
-        <v>5</v>
+        <v>2.82</v>
       </c>
       <c r="AE15">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AF15">
-        <v>0.204</v>
+        <v>0.263</v>
       </c>
       <c r="AG15">
-        <v>0.04099999999999999</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="AH15" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="AI15">
-        <v>0.93</v>
+        <v>1.44</v>
       </c>
       <c r="AJ15">
-        <v>0.242</v>
+        <v>0.338</v>
       </c>
       <c r="AK15">
-        <v>0.6870000000000001</v>
+        <v>0.9009999999999999</v>
       </c>
       <c r="AL15">
-        <v>3.31</v>
+        <v>4.13</v>
       </c>
       <c r="AM15">
-        <v>3.87</v>
+        <v>4.05</v>
       </c>
       <c r="AN15">
-        <v>1.13</v>
+        <v>0.82</v>
       </c>
       <c r="AO15">
-        <v>0.161</v>
+        <v>0.189</v>
       </c>
       <c r="AP15">
-        <v>0.445</v>
+        <v>0.365</v>
       </c>
       <c r="AQ15">
-        <v>0.394</v>
+        <v>0.446</v>
       </c>
       <c r="AR15">
-        <v>0.096</v>
+        <v>0.091</v>
       </c>
       <c r="AS15">
-        <v>0.078</v>
+        <v>0.121</v>
       </c>
       <c r="AT15">
-        <v>0.398</v>
+        <v>0.467</v>
       </c>
       <c r="AU15">
-        <v>0.415</v>
+        <v>0.32</v>
       </c>
       <c r="AV15">
-        <v>0.187</v>
+        <v>0.213</v>
       </c>
       <c r="AW15">
-        <v>0.163</v>
+        <v>0.16</v>
       </c>
       <c r="AX15">
-        <v>0.534</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AY15">
-        <v>0.303</v>
+        <v>0.307</v>
       </c>
       <c r="AZ15">
-        <v>1417</v>
+        <v>487</v>
       </c>
       <c r="BA15">
-        <v>484</v>
+        <v>185</v>
       </c>
       <c r="BB15">
-        <v>933</v>
+        <v>302</v>
       </c>
       <c r="BC15">
-        <v>393</v>
+        <v>118</v>
       </c>
       <c r="BD15">
-        <v>0.02290076335877863</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="BE15">
-        <v>0.252</v>
+        <v>0.335</v>
       </c>
       <c r="BF15">
-        <v>0.327</v>
+        <v>0.429</v>
       </c>
       <c r="BG15">
-        <v>0.211</v>
+        <v>0.267</v>
       </c>
       <c r="BH15">
-        <v>0.204</v>
+        <v>0.263</v>
       </c>
       <c r="BI15">
-        <v>0.04099999999999999</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="BJ15">
-        <v>0.242</v>
+        <v>0.338</v>
       </c>
       <c r="BK15">
-        <v>3.31</v>
+        <v>4.13</v>
       </c>
       <c r="BL15">
-        <v>3.87</v>
+        <v>4.05</v>
       </c>
       <c r="BM15">
-        <v>0.445</v>
+        <v>0.365</v>
       </c>
       <c r="BN15">
-        <v>0.161</v>
+        <v>0.189</v>
       </c>
       <c r="BO15">
-        <v>0.394</v>
+        <v>0.446</v>
       </c>
       <c r="BP15">
-        <v>0.078</v>
+        <v>0.121</v>
       </c>
       <c r="BQ15">
-        <v>0.163</v>
+        <v>0.16</v>
       </c>
       <c r="BR15">
-        <v>0.534</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="BS15">
-        <v>0.303</v>
+        <v>0.307</v>
       </c>
       <c r="BT15">
-        <v>0.116</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="16" spans="1:72">
@@ -4003,217 +4171,217 @@
         <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="M16">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="N16">
-        <v>82.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="O16">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q16">
+        <v>43</v>
+      </c>
+      <c r="R16">
+        <v>38</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+      <c r="T16">
         <v>31</v>
-      </c>
-      <c r="R16">
-        <v>29</v>
-      </c>
-      <c r="S16">
-        <v>11</v>
-      </c>
-      <c r="T16">
-        <v>16</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="X16">
-        <v>0.225</v>
+        <v>0.232</v>
       </c>
       <c r="Y16">
-        <v>0.264</v>
+        <v>0.292</v>
       </c>
       <c r="Z16">
-        <v>0.375</v>
+        <v>0.381</v>
       </c>
       <c r="AA16">
-        <v>0.278</v>
+        <v>0.294</v>
       </c>
       <c r="AB16">
-        <v>8.09</v>
+        <v>7.67</v>
       </c>
       <c r="AC16">
-        <v>1.75</v>
+        <v>3.01</v>
       </c>
       <c r="AD16">
-        <v>4.63</v>
+        <v>2.55</v>
       </c>
       <c r="AE16">
-        <v>1.2</v>
+        <v>0.87</v>
       </c>
       <c r="AF16">
-        <v>0.222</v>
+        <v>0.203</v>
       </c>
       <c r="AG16">
-        <v>0.048</v>
+        <v>0.079</v>
       </c>
       <c r="AH16" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="AI16">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AJ16">
-        <v>0.259</v>
+        <v>0.273</v>
       </c>
       <c r="AK16">
-        <v>0.785</v>
+        <v>0.7</v>
       </c>
       <c r="AL16">
         <v>3.73</v>
       </c>
       <c r="AM16">
-        <v>3.84</v>
+        <v>4.52</v>
       </c>
       <c r="AN16">
-        <v>0.93</v>
+        <v>0.77</v>
       </c>
       <c r="AO16">
-        <v>0.184</v>
+        <v>0.201</v>
       </c>
       <c r="AP16">
-        <v>0.393</v>
+        <v>0.348</v>
       </c>
       <c r="AQ16">
-        <v>0.423</v>
+        <v>0.452</v>
       </c>
       <c r="AR16">
-        <v>0.119</v>
+        <v>0.04</v>
       </c>
       <c r="AS16">
-        <v>0.109</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AT16">
-        <v>0.44</v>
+        <v>0.389</v>
       </c>
       <c r="AU16">
-        <v>0.305</v>
+        <v>0.332</v>
       </c>
       <c r="AV16">
-        <v>0.255</v>
+        <v>0.279</v>
       </c>
       <c r="AW16">
-        <v>0.16</v>
+        <v>0.125</v>
       </c>
       <c r="AX16">
-        <v>0.5429999999999999</v>
+        <v>0.532</v>
       </c>
       <c r="AY16">
-        <v>0.296</v>
+        <v>0.343</v>
       </c>
       <c r="AZ16">
-        <v>1218</v>
+        <v>1517</v>
       </c>
       <c r="BA16">
-        <v>411</v>
+        <v>543</v>
       </c>
       <c r="BB16">
-        <v>807</v>
+        <v>974</v>
       </c>
       <c r="BC16">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="BD16">
-        <v>0.03293413173652695</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="BE16">
-        <v>0.278</v>
+        <v>0.294</v>
       </c>
       <c r="BF16">
-        <v>0.375</v>
+        <v>0.381</v>
       </c>
       <c r="BG16">
-        <v>0.225</v>
+        <v>0.232</v>
       </c>
       <c r="BH16">
-        <v>0.222</v>
+        <v>0.203</v>
       </c>
       <c r="BI16">
-        <v>0.048</v>
+        <v>0.079</v>
       </c>
       <c r="BJ16">
-        <v>0.259</v>
+        <v>0.273</v>
       </c>
       <c r="BK16">
         <v>3.73</v>
       </c>
       <c r="BL16">
-        <v>3.84</v>
+        <v>4.52</v>
       </c>
       <c r="BM16">
-        <v>0.393</v>
+        <v>0.348</v>
       </c>
       <c r="BN16">
-        <v>0.184</v>
+        <v>0.201</v>
       </c>
       <c r="BO16">
-        <v>0.423</v>
+        <v>0.452</v>
       </c>
       <c r="BP16">
-        <v>0.109</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="BQ16">
-        <v>0.16</v>
+        <v>0.125</v>
       </c>
       <c r="BR16">
-        <v>0.5429999999999999</v>
+        <v>0.532</v>
       </c>
       <c r="BS16">
-        <v>0.296</v>
+        <v>0.343</v>
       </c>
       <c r="BT16">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="17" spans="1:72">
@@ -4221,61 +4389,61 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="M17">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="N17">
-        <v>83</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="O17">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R17">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S17">
         <v>11</v>
       </c>
       <c r="T17">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -4284,154 +4452,4950 @@
         <v>2</v>
       </c>
       <c r="W17">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="X17">
-        <v>0.281</v>
+        <v>0.244</v>
       </c>
       <c r="Y17">
+        <v>0.299</v>
+      </c>
+      <c r="Z17">
+        <v>0.405</v>
+      </c>
+      <c r="AA17">
+        <v>0.307</v>
+      </c>
+      <c r="AB17">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="AC17">
+        <v>2.55</v>
+      </c>
+      <c r="AD17">
+        <v>3.32</v>
+      </c>
+      <c r="AE17">
+        <v>1.12</v>
+      </c>
+      <c r="AF17">
+        <v>0.227</v>
+      </c>
+      <c r="AG17">
+        <v>0.068</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI17">
+        <v>1.21</v>
+      </c>
+      <c r="AJ17">
+        <v>0.29</v>
+      </c>
+      <c r="AK17">
+        <v>0.705</v>
+      </c>
+      <c r="AL17">
+        <v>3.82</v>
+      </c>
+      <c r="AM17">
+        <v>3.9</v>
+      </c>
+      <c r="AN17">
+        <v>1.08</v>
+      </c>
+      <c r="AO17">
+        <v>0.189</v>
+      </c>
+      <c r="AP17">
+        <v>0.421</v>
+      </c>
+      <c r="AQ17">
+        <v>0.39</v>
+      </c>
+      <c r="AR17">
+        <v>0.081</v>
+      </c>
+      <c r="AS17">
+        <v>0.111</v>
+      </c>
+      <c r="AT17">
+        <v>0.447</v>
+      </c>
+      <c r="AU17">
+        <v>0.31</v>
+      </c>
+      <c r="AV17">
+        <v>0.243</v>
+      </c>
+      <c r="AW17">
+        <v>0.149</v>
+      </c>
+      <c r="AX17">
+        <v>0.467</v>
+      </c>
+      <c r="AY17">
+        <v>0.384</v>
+      </c>
+      <c r="AZ17">
+        <v>1437</v>
+      </c>
+      <c r="BA17">
+        <v>487</v>
+      </c>
+      <c r="BB17">
+        <v>950</v>
+      </c>
+      <c r="BC17">
+        <v>366</v>
+      </c>
+      <c r="BD17">
+        <v>0.03005464480874317</v>
+      </c>
+      <c r="BE17">
+        <v>0.307</v>
+      </c>
+      <c r="BF17">
+        <v>0.405</v>
+      </c>
+      <c r="BG17">
+        <v>0.244</v>
+      </c>
+      <c r="BH17">
+        <v>0.227</v>
+      </c>
+      <c r="BI17">
+        <v>0.068</v>
+      </c>
+      <c r="BJ17">
+        <v>0.29</v>
+      </c>
+      <c r="BK17">
+        <v>3.82</v>
+      </c>
+      <c r="BL17">
+        <v>3.9</v>
+      </c>
+      <c r="BM17">
+        <v>0.421</v>
+      </c>
+      <c r="BN17">
+        <v>0.189</v>
+      </c>
+      <c r="BO17">
+        <v>0.39</v>
+      </c>
+      <c r="BP17">
+        <v>0.111</v>
+      </c>
+      <c r="BQ17">
+        <v>0.149</v>
+      </c>
+      <c r="BR17">
+        <v>0.467</v>
+      </c>
+      <c r="BS17">
+        <v>0.384</v>
+      </c>
+      <c r="BT17">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:72">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18">
+        <v>76</v>
+      </c>
+      <c r="N18">
+        <v>16.1</v>
+      </c>
+      <c r="O18">
+        <v>23</v>
+      </c>
+      <c r="P18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>14</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>13</v>
+      </c>
+      <c r="X18">
+        <v>0.329</v>
+      </c>
+      <c r="Y18">
+        <v>0.382</v>
+      </c>
+      <c r="Z18">
+        <v>0.571</v>
+      </c>
+      <c r="AA18">
+        <v>0.407</v>
+      </c>
+      <c r="AB18">
+        <v>7.16</v>
+      </c>
+      <c r="AC18">
+        <v>3.31</v>
+      </c>
+      <c r="AD18">
+        <v>2.17</v>
+      </c>
+      <c r="AE18">
+        <v>2.2</v>
+      </c>
+      <c r="AF18">
+        <v>0.171</v>
+      </c>
+      <c r="AG18">
+        <v>0.079</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI18">
+        <v>1.78</v>
+      </c>
+      <c r="AJ18">
+        <v>0.358</v>
+      </c>
+      <c r="AK18">
+        <v>0.598</v>
+      </c>
+      <c r="AL18">
+        <v>5.86</v>
+      </c>
+      <c r="AM18">
+        <v>4.25</v>
+      </c>
+      <c r="AN18">
+        <v>1.53</v>
+      </c>
+      <c r="AO18">
+        <v>0.246</v>
+      </c>
+      <c r="AP18">
+        <v>0.456</v>
+      </c>
+      <c r="AQ18">
+        <v>0.298</v>
+      </c>
+      <c r="AR18">
+        <v>0.118</v>
+      </c>
+      <c r="AS18">
+        <v>0.235</v>
+      </c>
+      <c r="AT18">
+        <v>0.368</v>
+      </c>
+      <c r="AU18">
+        <v>0.474</v>
+      </c>
+      <c r="AV18">
+        <v>0.158</v>
+      </c>
+      <c r="AW18">
+        <v>0.316</v>
+      </c>
+      <c r="AX18">
+        <v>0.386</v>
+      </c>
+      <c r="AY18">
+        <v>0.298</v>
+      </c>
+      <c r="AZ18">
+        <v>286</v>
+      </c>
+      <c r="BA18">
+        <v>99</v>
+      </c>
+      <c r="BB18">
+        <v>187</v>
+      </c>
+      <c r="BC18">
+        <v>76</v>
+      </c>
+      <c r="BD18">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="BE18">
+        <v>0.407</v>
+      </c>
+      <c r="BF18">
+        <v>0.571</v>
+      </c>
+      <c r="BG18">
+        <v>0.329</v>
+      </c>
+      <c r="BH18">
+        <v>0.171</v>
+      </c>
+      <c r="BI18">
+        <v>0.079</v>
+      </c>
+      <c r="BJ18">
+        <v>0.358</v>
+      </c>
+      <c r="BK18">
+        <v>5.86</v>
+      </c>
+      <c r="BL18">
+        <v>4.25</v>
+      </c>
+      <c r="BM18">
+        <v>0.456</v>
+      </c>
+      <c r="BN18">
+        <v>0.246</v>
+      </c>
+      <c r="BO18">
+        <v>0.298</v>
+      </c>
+      <c r="BP18">
+        <v>0.235</v>
+      </c>
+      <c r="BQ18">
+        <v>0.316</v>
+      </c>
+      <c r="BR18">
+        <v>0.386</v>
+      </c>
+      <c r="BS18">
+        <v>0.298</v>
+      </c>
+      <c r="BT18">
+        <v>0.2419999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:72">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19">
+        <v>414</v>
+      </c>
+      <c r="N19">
+        <v>97</v>
+      </c>
+      <c r="O19">
+        <v>111</v>
+      </c>
+      <c r="P19" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19">
+        <v>58</v>
+      </c>
+      <c r="R19">
+        <v>52</v>
+      </c>
+      <c r="S19">
+        <v>18</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>72</v>
+      </c>
+      <c r="X19">
+        <v>0.285</v>
+      </c>
+      <c r="Y19">
+        <v>0.32</v>
+      </c>
+      <c r="Z19">
+        <v>0.495</v>
+      </c>
+      <c r="AA19">
+        <v>0.348</v>
+      </c>
+      <c r="AB19">
+        <v>6.68</v>
+      </c>
+      <c r="AC19">
+        <v>1.86</v>
+      </c>
+      <c r="AD19">
+        <v>3.6</v>
+      </c>
+      <c r="AE19">
+        <v>1.67</v>
+      </c>
+      <c r="AF19">
+        <v>0.174</v>
+      </c>
+      <c r="AG19">
+        <v>0.048</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI19">
+        <v>1.35</v>
+      </c>
+      <c r="AJ19">
+        <v>0.307</v>
+      </c>
+      <c r="AK19">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="AL19">
+        <v>4.74</v>
+      </c>
+      <c r="AM19">
+        <v>4.4</v>
+      </c>
+      <c r="AN19">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO19">
+        <v>0.191</v>
+      </c>
+      <c r="AP19">
+        <v>0.392</v>
+      </c>
+      <c r="AQ19">
+        <v>0.417</v>
+      </c>
+      <c r="AR19">
+        <v>0.105</v>
+      </c>
+      <c r="AS19">
+        <v>0.135</v>
+      </c>
+      <c r="AT19">
+        <v>0.43</v>
+      </c>
+      <c r="AU19">
+        <v>0.333</v>
+      </c>
+      <c r="AV19">
+        <v>0.237</v>
+      </c>
+      <c r="AW19">
+        <v>0.128</v>
+      </c>
+      <c r="AX19">
+        <v>0.517</v>
+      </c>
+      <c r="AY19">
+        <v>0.355</v>
+      </c>
+      <c r="AZ19">
+        <v>1477</v>
+      </c>
+      <c r="BA19">
+        <v>487</v>
+      </c>
+      <c r="BB19">
+        <v>990</v>
+      </c>
+      <c r="BC19">
+        <v>414</v>
+      </c>
+      <c r="BD19">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="BE19">
+        <v>0.348</v>
+      </c>
+      <c r="BF19">
+        <v>0.495</v>
+      </c>
+      <c r="BG19">
+        <v>0.285</v>
+      </c>
+      <c r="BH19">
+        <v>0.174</v>
+      </c>
+      <c r="BI19">
+        <v>0.048</v>
+      </c>
+      <c r="BJ19">
+        <v>0.307</v>
+      </c>
+      <c r="BK19">
+        <v>4.74</v>
+      </c>
+      <c r="BL19">
+        <v>4.4</v>
+      </c>
+      <c r="BM19">
+        <v>0.392</v>
+      </c>
+      <c r="BN19">
+        <v>0.191</v>
+      </c>
+      <c r="BO19">
+        <v>0.417</v>
+      </c>
+      <c r="BP19">
+        <v>0.135</v>
+      </c>
+      <c r="BQ19">
+        <v>0.128</v>
+      </c>
+      <c r="BR19">
+        <v>0.517</v>
+      </c>
+      <c r="BS19">
+        <v>0.355</v>
+      </c>
+      <c r="BT19">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:72">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20">
+        <v>346</v>
+      </c>
+      <c r="N20">
+        <v>77.2</v>
+      </c>
+      <c r="O20">
+        <v>87</v>
+      </c>
+      <c r="P20" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20">
+        <v>43</v>
+      </c>
+      <c r="R20">
+        <v>42</v>
+      </c>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>27</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>67</v>
+      </c>
+      <c r="X20">
+        <v>0.275</v>
+      </c>
+      <c r="Y20">
+        <v>0.336</v>
+      </c>
+      <c r="Z20">
+        <v>0.509</v>
+      </c>
+      <c r="AA20">
+        <v>0.361</v>
+      </c>
+      <c r="AB20">
+        <v>7.76</v>
+      </c>
+      <c r="AC20">
+        <v>3.13</v>
+      </c>
+      <c r="AD20">
+        <v>2.48</v>
+      </c>
+      <c r="AE20">
+        <v>2.09</v>
+      </c>
+      <c r="AF20">
+        <v>0.194</v>
+      </c>
+      <c r="AG20">
+        <v>0.078</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI20">
+        <v>1.47</v>
+      </c>
+      <c r="AJ20">
+        <v>0.297</v>
+      </c>
+      <c r="AK20">
+        <v>0.804</v>
+      </c>
+      <c r="AL20">
+        <v>5.57</v>
+      </c>
+      <c r="AM20">
+        <v>4.7</v>
+      </c>
+      <c r="AN20">
+        <v>0.83</v>
+      </c>
+      <c r="AO20">
+        <v>0.186</v>
+      </c>
+      <c r="AP20">
+        <v>0.368</v>
+      </c>
+      <c r="AQ20">
+        <v>0.445</v>
+      </c>
+      <c r="AR20">
+        <v>0.109</v>
+      </c>
+      <c r="AS20">
+        <v>0.164</v>
+      </c>
+      <c r="AT20">
+        <v>0.392</v>
+      </c>
+      <c r="AU20">
+        <v>0.356</v>
+      </c>
+      <c r="AV20">
+        <v>0.252</v>
+      </c>
+      <c r="AW20">
+        <v>0.132</v>
+      </c>
+      <c r="AX20">
+        <v>0.5</v>
+      </c>
+      <c r="AY20">
+        <v>0.368</v>
+      </c>
+      <c r="AZ20">
+        <v>1335</v>
+      </c>
+      <c r="BA20">
+        <v>465</v>
+      </c>
+      <c r="BB20">
+        <v>870</v>
+      </c>
+      <c r="BC20">
+        <v>346</v>
+      </c>
+      <c r="BD20">
+        <v>0.05202312138728324</v>
+      </c>
+      <c r="BE20">
+        <v>0.361</v>
+      </c>
+      <c r="BF20">
+        <v>0.509</v>
+      </c>
+      <c r="BG20">
+        <v>0.275</v>
+      </c>
+      <c r="BH20">
+        <v>0.194</v>
+      </c>
+      <c r="BI20">
+        <v>0.078</v>
+      </c>
+      <c r="BJ20">
+        <v>0.297</v>
+      </c>
+      <c r="BK20">
+        <v>5.57</v>
+      </c>
+      <c r="BL20">
+        <v>4.7</v>
+      </c>
+      <c r="BM20">
+        <v>0.368</v>
+      </c>
+      <c r="BN20">
+        <v>0.186</v>
+      </c>
+      <c r="BO20">
+        <v>0.445</v>
+      </c>
+      <c r="BP20">
+        <v>0.164</v>
+      </c>
+      <c r="BQ20">
+        <v>0.132</v>
+      </c>
+      <c r="BR20">
+        <v>0.5</v>
+      </c>
+      <c r="BS20">
+        <v>0.368</v>
+      </c>
+      <c r="BT20">
+        <v>0.234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:72">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21">
+        <v>373</v>
+      </c>
+      <c r="N21">
+        <v>97.2</v>
+      </c>
+      <c r="O21">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21">
+        <v>30</v>
+      </c>
+      <c r="R21">
+        <v>29</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>20</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>108</v>
+      </c>
+      <c r="X21">
+        <v>0.205</v>
+      </c>
+      <c r="Y21">
+        <v>0.253</v>
+      </c>
+      <c r="Z21">
+        <v>0.323</v>
+      </c>
+      <c r="AA21">
+        <v>0.253</v>
+      </c>
+      <c r="AB21">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AC21">
+        <v>1.84</v>
+      </c>
+      <c r="AD21">
+        <v>5.4</v>
+      </c>
+      <c r="AE21">
+        <v>0.65</v>
+      </c>
+      <c r="AF21">
+        <v>0.29</v>
+      </c>
+      <c r="AG21">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI21">
+        <v>0.93</v>
+      </c>
+      <c r="AJ21">
+        <v>0.272</v>
+      </c>
+      <c r="AK21">
+        <v>0.76</v>
+      </c>
+      <c r="AL21">
+        <v>2.59</v>
+      </c>
+      <c r="AM21">
+        <v>3.12</v>
+      </c>
+      <c r="AN21">
+        <v>1.06</v>
+      </c>
+      <c r="AO21">
+        <v>0.188</v>
+      </c>
+      <c r="AP21">
+        <v>0.418</v>
+      </c>
+      <c r="AQ21">
+        <v>0.393</v>
+      </c>
+      <c r="AR21">
+        <v>0.138</v>
+      </c>
+      <c r="AS21">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="AT21">
+        <v>0.426</v>
+      </c>
+      <c r="AU21">
+        <v>0.306</v>
+      </c>
+      <c r="AV21">
+        <v>0.269</v>
+      </c>
+      <c r="AW21">
+        <v>0.186</v>
+      </c>
+      <c r="AX21">
+        <v>0.545</v>
+      </c>
+      <c r="AY21">
+        <v>0.269</v>
+      </c>
+      <c r="AZ21">
+        <v>1519</v>
+      </c>
+      <c r="BA21">
+        <v>514</v>
+      </c>
+      <c r="BB21">
+        <v>1005</v>
+      </c>
+      <c r="BC21">
+        <v>373</v>
+      </c>
+      <c r="BD21">
+        <v>0.01876675603217158</v>
+      </c>
+      <c r="BE21">
+        <v>0.253</v>
+      </c>
+      <c r="BF21">
+        <v>0.323</v>
+      </c>
+      <c r="BG21">
+        <v>0.205</v>
+      </c>
+      <c r="BH21">
+        <v>0.29</v>
+      </c>
+      <c r="BI21">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="BJ21">
+        <v>0.272</v>
+      </c>
+      <c r="BK21">
+        <v>2.59</v>
+      </c>
+      <c r="BL21">
+        <v>3.12</v>
+      </c>
+      <c r="BM21">
+        <v>0.418</v>
+      </c>
+      <c r="BN21">
+        <v>0.188</v>
+      </c>
+      <c r="BO21">
+        <v>0.393</v>
+      </c>
+      <c r="BP21">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="BQ21">
+        <v>0.186</v>
+      </c>
+      <c r="BR21">
+        <v>0.545</v>
+      </c>
+      <c r="BS21">
+        <v>0.269</v>
+      </c>
+      <c r="BT21">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:72">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" t="s">
+        <v>134</v>
+      </c>
+      <c r="M22">
+        <v>160</v>
+      </c>
+      <c r="N22">
+        <v>38</v>
+      </c>
+      <c r="O22">
+        <v>33</v>
+      </c>
+      <c r="P22" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <v>18</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>16</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>23</v>
+      </c>
+      <c r="X22">
+        <v>0.234</v>
+      </c>
+      <c r="Y22">
+        <v>0.314</v>
+      </c>
+      <c r="Z22">
+        <v>0.418</v>
+      </c>
+      <c r="AA22">
+        <v>0.319</v>
+      </c>
+      <c r="AB22">
+        <v>5.45</v>
+      </c>
+      <c r="AC22">
+        <v>3.79</v>
+      </c>
+      <c r="AD22">
+        <v>1.44</v>
+      </c>
+      <c r="AE22">
+        <v>1.42</v>
+      </c>
+      <c r="AF22">
+        <v>0.144</v>
+      </c>
+      <c r="AG22">
+        <v>0.1</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI22">
+        <v>1.29</v>
+      </c>
+      <c r="AJ22">
+        <v>0.237</v>
+      </c>
+      <c r="AK22">
+        <v>0.721</v>
+      </c>
+      <c r="AL22">
+        <v>5.35</v>
+      </c>
+      <c r="AM22">
+        <v>5.05</v>
+      </c>
+      <c r="AN22">
+        <v>1.16</v>
+      </c>
+      <c r="AO22">
+        <v>0.195</v>
+      </c>
+      <c r="AP22">
+        <v>0.4320000000000001</v>
+      </c>
+      <c r="AQ22">
+        <v>0.373</v>
+      </c>
+      <c r="AR22">
+        <v>0.023</v>
+      </c>
+      <c r="AS22">
+        <v>0.136</v>
+      </c>
+      <c r="AT22">
+        <v>0.445</v>
+      </c>
+      <c r="AU22">
+        <v>0.361</v>
+      </c>
+      <c r="AV22">
+        <v>0.193</v>
+      </c>
+      <c r="AW22">
+        <v>0.151</v>
+      </c>
+      <c r="AX22">
+        <v>0.513</v>
+      </c>
+      <c r="AY22">
+        <v>0.336</v>
+      </c>
+      <c r="AZ22">
+        <v>581</v>
+      </c>
+      <c r="BA22">
+        <v>223</v>
+      </c>
+      <c r="BB22">
+        <v>358</v>
+      </c>
+      <c r="BC22">
+        <v>160</v>
+      </c>
+      <c r="BD22">
+        <v>0.0375</v>
+      </c>
+      <c r="BE22">
+        <v>0.319</v>
+      </c>
+      <c r="BF22">
+        <v>0.418</v>
+      </c>
+      <c r="BG22">
+        <v>0.234</v>
+      </c>
+      <c r="BH22">
+        <v>0.144</v>
+      </c>
+      <c r="BI22">
+        <v>0.1</v>
+      </c>
+      <c r="BJ22">
+        <v>0.237</v>
+      </c>
+      <c r="BK22">
+        <v>5.35</v>
+      </c>
+      <c r="BL22">
+        <v>5.05</v>
+      </c>
+      <c r="BM22">
+        <v>0.4320000000000001</v>
+      </c>
+      <c r="BN22">
+        <v>0.195</v>
+      </c>
+      <c r="BO22">
+        <v>0.373</v>
+      </c>
+      <c r="BP22">
+        <v>0.136</v>
+      </c>
+      <c r="BQ22">
+        <v>0.151</v>
+      </c>
+      <c r="BR22">
+        <v>0.513</v>
+      </c>
+      <c r="BS22">
+        <v>0.336</v>
+      </c>
+      <c r="BT22">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:72">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23">
+        <v>140</v>
+      </c>
+      <c r="N23">
+        <v>35.2</v>
+      </c>
+      <c r="O23">
+        <v>34</v>
+      </c>
+      <c r="P23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>15</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>40</v>
+      </c>
+      <c r="X23">
+        <v>0.25</v>
+      </c>
+      <c r="Y23">
+        <v>0.271</v>
+      </c>
+      <c r="Z23">
+        <v>0.434</v>
+      </c>
+      <c r="AA23">
+        <v>0.302</v>
+      </c>
+      <c r="AB23">
+        <v>10.09</v>
+      </c>
+      <c r="AC23">
+        <v>0.76</v>
+      </c>
+      <c r="AD23">
+        <v>13.33</v>
+      </c>
+      <c r="AE23">
+        <v>1.26</v>
+      </c>
+      <c r="AF23">
+        <v>0.286</v>
+      </c>
+      <c r="AG23">
+        <v>0.021</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI23">
+        <v>1.04</v>
+      </c>
+      <c r="AJ23">
+        <v>0.319</v>
+      </c>
+      <c r="AK23">
+        <v>0.742</v>
+      </c>
+      <c r="AL23">
+        <v>3.08</v>
+      </c>
+      <c r="AM23">
+        <v>2.66</v>
+      </c>
+      <c r="AN23">
+        <v>1.18</v>
+      </c>
+      <c r="AO23">
+        <v>0.234</v>
+      </c>
+      <c r="AP23">
+        <v>0.415</v>
+      </c>
+      <c r="AQ23">
+        <v>0.351</v>
+      </c>
+      <c r="AR23">
+        <v>0.152</v>
+      </c>
+      <c r="AS23">
+        <v>0.152</v>
+      </c>
+      <c r="AT23">
+        <v>0.469</v>
+      </c>
+      <c r="AU23">
+        <v>0.302</v>
+      </c>
+      <c r="AV23">
+        <v>0.229</v>
+      </c>
+      <c r="AW23">
+        <v>0.104</v>
+      </c>
+      <c r="AX23">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="AY23">
+        <v>0.333</v>
+      </c>
+      <c r="AZ23">
+        <v>557</v>
+      </c>
+      <c r="BA23">
+        <v>174</v>
+      </c>
+      <c r="BB23">
+        <v>383</v>
+      </c>
+      <c r="BC23">
+        <v>140</v>
+      </c>
+      <c r="BD23">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="BE23">
+        <v>0.302</v>
+      </c>
+      <c r="BF23">
+        <v>0.434</v>
+      </c>
+      <c r="BG23">
+        <v>0.25</v>
+      </c>
+      <c r="BH23">
+        <v>0.286</v>
+      </c>
+      <c r="BI23">
+        <v>0.021</v>
+      </c>
+      <c r="BJ23">
+        <v>0.319</v>
+      </c>
+      <c r="BK23">
+        <v>3.08</v>
+      </c>
+      <c r="BL23">
+        <v>2.66</v>
+      </c>
+      <c r="BM23">
+        <v>0.415</v>
+      </c>
+      <c r="BN23">
+        <v>0.234</v>
+      </c>
+      <c r="BO23">
+        <v>0.351</v>
+      </c>
+      <c r="BP23">
+        <v>0.152</v>
+      </c>
+      <c r="BQ23">
+        <v>0.104</v>
+      </c>
+      <c r="BR23">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="BS23">
+        <v>0.333</v>
+      </c>
+      <c r="BT23">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:72">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24">
+        <v>400</v>
+      </c>
+      <c r="N24">
+        <v>92</v>
+      </c>
+      <c r="O24">
+        <v>99</v>
+      </c>
+      <c r="P24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q24">
+        <v>49</v>
+      </c>
+      <c r="R24">
+        <v>46</v>
+      </c>
+      <c r="S24">
+        <v>16</v>
+      </c>
+      <c r="T24">
+        <v>23</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <v>96</v>
+      </c>
+      <c r="X24">
+        <v>0.268</v>
+      </c>
+      <c r="Y24">
+        <v>0.32</v>
+      </c>
+      <c r="Z24">
+        <v>0.492</v>
+      </c>
+      <c r="AA24">
+        <v>0.347</v>
+      </c>
+      <c r="AB24">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="AC24">
+        <v>2.25</v>
+      </c>
+      <c r="AD24">
+        <v>4.17</v>
+      </c>
+      <c r="AE24">
+        <v>1.57</v>
+      </c>
+      <c r="AF24">
+        <v>0.24</v>
+      </c>
+      <c r="AG24">
+        <v>0.058</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI24">
+        <v>1.33</v>
+      </c>
+      <c r="AJ24">
+        <v>0.32</v>
+      </c>
+      <c r="AK24">
+        <v>0.748</v>
+      </c>
+      <c r="AL24">
+        <v>4.29</v>
+      </c>
+      <c r="AM24">
+        <v>3.72</v>
+      </c>
+      <c r="AN24">
+        <v>0.92</v>
+      </c>
+      <c r="AO24">
+        <v>0.277</v>
+      </c>
+      <c r="AP24">
+        <v>0.347</v>
+      </c>
+      <c r="AQ24">
+        <v>0.376</v>
+      </c>
+      <c r="AR24">
+        <v>0.058</v>
+      </c>
+      <c r="AS24">
+        <v>0.155</v>
+      </c>
+      <c r="AT24">
+        <v>0.396</v>
+      </c>
+      <c r="AU24">
+        <v>0.313</v>
+      </c>
+      <c r="AV24">
+        <v>0.291</v>
+      </c>
+      <c r="AW24">
+        <v>0.124</v>
+      </c>
+      <c r="AX24">
+        <v>0.505</v>
+      </c>
+      <c r="AY24">
+        <v>0.371</v>
+      </c>
+      <c r="AZ24">
+        <v>1484</v>
+      </c>
+      <c r="BA24">
+        <v>496</v>
+      </c>
+      <c r="BB24">
+        <v>988</v>
+      </c>
+      <c r="BC24">
+        <v>400</v>
+      </c>
+      <c r="BD24">
+        <v>0.04</v>
+      </c>
+      <c r="BE24">
+        <v>0.347</v>
+      </c>
+      <c r="BF24">
+        <v>0.492</v>
+      </c>
+      <c r="BG24">
+        <v>0.268</v>
+      </c>
+      <c r="BH24">
+        <v>0.24</v>
+      </c>
+      <c r="BI24">
+        <v>0.058</v>
+      </c>
+      <c r="BJ24">
+        <v>0.32</v>
+      </c>
+      <c r="BK24">
+        <v>4.29</v>
+      </c>
+      <c r="BL24">
+        <v>3.72</v>
+      </c>
+      <c r="BM24">
+        <v>0.347</v>
+      </c>
+      <c r="BN24">
+        <v>0.277</v>
+      </c>
+      <c r="BO24">
+        <v>0.376</v>
+      </c>
+      <c r="BP24">
+        <v>0.155</v>
+      </c>
+      <c r="BQ24">
+        <v>0.124</v>
+      </c>
+      <c r="BR24">
+        <v>0.505</v>
+      </c>
+      <c r="BS24">
+        <v>0.371</v>
+      </c>
+      <c r="BT24">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:72">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25">
+        <v>373</v>
+      </c>
+      <c r="N25">
+        <v>86</v>
+      </c>
+      <c r="O25">
+        <v>83</v>
+      </c>
+      <c r="P25" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25">
+        <v>41</v>
+      </c>
+      <c r="R25">
+        <v>38</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>27</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>9</v>
+      </c>
+      <c r="W25">
+        <v>70</v>
+      </c>
+      <c r="X25">
+        <v>0.254</v>
+      </c>
+      <c r="Y25">
+        <v>0.322</v>
+      </c>
+      <c r="Z25">
+        <v>0.394</v>
+      </c>
+      <c r="AA25">
+        <v>0.312</v>
+      </c>
+      <c r="AB25">
+        <v>7.33</v>
+      </c>
+      <c r="AC25">
+        <v>2.83</v>
+      </c>
+      <c r="AD25">
+        <v>2.59</v>
+      </c>
+      <c r="AE25">
+        <v>0.73</v>
+      </c>
+      <c r="AF25">
+        <v>0.188</v>
+      </c>
+      <c r="AG25">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI25">
+        <v>1.28</v>
+      </c>
+      <c r="AJ25">
+        <v>0.292</v>
+      </c>
+      <c r="AK25">
+        <v>0.7140000000000001</v>
+      </c>
+      <c r="AL25">
+        <v>3.85</v>
+      </c>
+      <c r="AM25">
+        <v>4.46</v>
+      </c>
+      <c r="AN25">
+        <v>1.23</v>
+      </c>
+      <c r="AO25">
+        <v>0.197</v>
+      </c>
+      <c r="AP25">
+        <v>0.4429999999999999</v>
+      </c>
+      <c r="AQ25">
+        <v>0.36</v>
+      </c>
+      <c r="AR25">
+        <v>0.105</v>
+      </c>
+      <c r="AS25">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="AT25">
+        <v>0.355</v>
+      </c>
+      <c r="AU25">
+        <v>0.366</v>
+      </c>
+      <c r="AV25">
+        <v>0.279</v>
+      </c>
+      <c r="AW25">
+        <v>0.147</v>
+      </c>
+      <c r="AX25">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AY25">
+        <v>0.291</v>
+      </c>
+      <c r="AZ25">
+        <v>1368</v>
+      </c>
+      <c r="BA25">
+        <v>466</v>
+      </c>
+      <c r="BB25">
+        <v>902</v>
+      </c>
+      <c r="BC25">
+        <v>373</v>
+      </c>
+      <c r="BD25">
+        <v>0.01876675603217158</v>
+      </c>
+      <c r="BE25">
+        <v>0.312</v>
+      </c>
+      <c r="BF25">
+        <v>0.394</v>
+      </c>
+      <c r="BG25">
+        <v>0.254</v>
+      </c>
+      <c r="BH25">
+        <v>0.188</v>
+      </c>
+      <c r="BI25">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="BJ25">
+        <v>0.292</v>
+      </c>
+      <c r="BK25">
+        <v>3.85</v>
+      </c>
+      <c r="BL25">
+        <v>4.46</v>
+      </c>
+      <c r="BM25">
+        <v>0.4429999999999999</v>
+      </c>
+      <c r="BN25">
+        <v>0.197</v>
+      </c>
+      <c r="BO25">
+        <v>0.36</v>
+      </c>
+      <c r="BP25">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="BQ25">
+        <v>0.147</v>
+      </c>
+      <c r="BR25">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="BS25">
+        <v>0.291</v>
+      </c>
+      <c r="BT25">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:72">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26">
+        <v>294</v>
+      </c>
+      <c r="N26">
+        <v>68.2</v>
+      </c>
+      <c r="O26">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+      <c r="R26">
+        <v>20</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>34</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>77</v>
+      </c>
+      <c r="X26">
+        <v>0.238</v>
+      </c>
+      <c r="Y26">
+        <v>0.324</v>
+      </c>
+      <c r="Z26">
+        <v>0.367</v>
+      </c>
+      <c r="AA26">
+        <v>0.306</v>
+      </c>
+      <c r="AB26">
+        <v>10.09</v>
+      </c>
+      <c r="AC26">
+        <v>4.46</v>
+      </c>
+      <c r="AD26">
+        <v>2.26</v>
+      </c>
+      <c r="AE26">
+        <v>0.92</v>
+      </c>
+      <c r="AF26">
+        <v>0.262</v>
+      </c>
+      <c r="AG26">
+        <v>0.116</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI26">
+        <v>1.38</v>
+      </c>
+      <c r="AJ26">
+        <v>0.307</v>
+      </c>
+      <c r="AK26">
+        <v>0.88</v>
+      </c>
+      <c r="AL26">
+        <v>3.73</v>
+      </c>
+      <c r="AM26">
+        <v>3.86</v>
+      </c>
+      <c r="AN26">
+        <v>1.12</v>
+      </c>
+      <c r="AO26">
+        <v>0.227</v>
+      </c>
+      <c r="AP26">
+        <v>0.409</v>
+      </c>
+      <c r="AQ26">
+        <v>0.365</v>
+      </c>
+      <c r="AR26">
+        <v>0.076</v>
+      </c>
+      <c r="AS26">
+        <v>0.106</v>
+      </c>
+      <c r="AT26">
+        <v>0.399</v>
+      </c>
+      <c r="AU26">
+        <v>0.301</v>
+      </c>
+      <c r="AV26">
+        <v>0.301</v>
+      </c>
+      <c r="AW26">
+        <v>0.131</v>
+      </c>
+      <c r="AX26">
+        <v>0.585</v>
+      </c>
+      <c r="AY26">
+        <v>0.284</v>
+      </c>
+      <c r="AZ26">
+        <v>1189</v>
+      </c>
+      <c r="BA26">
+        <v>451</v>
+      </c>
+      <c r="BB26">
+        <v>738</v>
+      </c>
+      <c r="BC26">
+        <v>294</v>
+      </c>
+      <c r="BD26">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="BE26">
+        <v>0.306</v>
+      </c>
+      <c r="BF26">
+        <v>0.367</v>
+      </c>
+      <c r="BG26">
+        <v>0.238</v>
+      </c>
+      <c r="BH26">
+        <v>0.262</v>
+      </c>
+      <c r="BI26">
+        <v>0.116</v>
+      </c>
+      <c r="BJ26">
+        <v>0.307</v>
+      </c>
+      <c r="BK26">
+        <v>3.73</v>
+      </c>
+      <c r="BL26">
+        <v>3.86</v>
+      </c>
+      <c r="BM26">
+        <v>0.409</v>
+      </c>
+      <c r="BN26">
+        <v>0.227</v>
+      </c>
+      <c r="BO26">
+        <v>0.365</v>
+      </c>
+      <c r="BP26">
+        <v>0.106</v>
+      </c>
+      <c r="BQ26">
+        <v>0.131</v>
+      </c>
+      <c r="BR26">
+        <v>0.585</v>
+      </c>
+      <c r="BS26">
+        <v>0.284</v>
+      </c>
+      <c r="BT26">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:72">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" t="s">
+        <v>133</v>
+      </c>
+      <c r="L27" t="s">
+        <v>134</v>
+      </c>
+      <c r="M27">
+        <v>249</v>
+      </c>
+      <c r="N27">
+        <v>67</v>
+      </c>
+      <c r="O27">
+        <v>47</v>
+      </c>
+      <c r="P27" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>8</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>71</v>
+      </c>
+      <c r="X27">
+        <v>0.199</v>
+      </c>
+      <c r="Y27">
+        <v>0.229</v>
+      </c>
+      <c r="Z27">
+        <v>0.297</v>
+      </c>
+      <c r="AA27">
+        <v>0.229</v>
+      </c>
+      <c r="AB27">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="AC27">
+        <v>1.07</v>
+      </c>
+      <c r="AD27">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AE27">
+        <v>0.4</v>
+      </c>
+      <c r="AF27">
+        <v>0.285</v>
+      </c>
+      <c r="AG27">
+        <v>0.032</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI27">
+        <v>0.82</v>
+      </c>
+      <c r="AJ27">
+        <v>0.267</v>
+      </c>
+      <c r="AK27">
+        <v>0.852</v>
+      </c>
+      <c r="AL27">
+        <v>2.08</v>
+      </c>
+      <c r="AM27">
+        <v>3.01</v>
+      </c>
+      <c r="AN27">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO27">
+        <v>0.222</v>
+      </c>
+      <c r="AP27">
+        <v>0.377</v>
+      </c>
+      <c r="AQ27">
+        <v>0.401</v>
+      </c>
+      <c r="AR27">
+        <v>0.119</v>
+      </c>
+      <c r="AS27">
+        <v>0.045</v>
+      </c>
+      <c r="AT27">
+        <v>0.327</v>
+      </c>
+      <c r="AU27">
+        <v>0.417</v>
+      </c>
+      <c r="AV27">
+        <v>0.256</v>
+      </c>
+      <c r="AW27">
+        <v>0.155</v>
+      </c>
+      <c r="AX27">
+        <v>0.518</v>
+      </c>
+      <c r="AY27">
+        <v>0.327</v>
+      </c>
+      <c r="AZ27">
+        <v>927</v>
+      </c>
+      <c r="BA27">
+        <v>284</v>
+      </c>
+      <c r="BB27">
+        <v>643</v>
+      </c>
+      <c r="BC27">
+        <v>249</v>
+      </c>
+      <c r="BD27">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="BE27">
+        <v>0.229</v>
+      </c>
+      <c r="BF27">
+        <v>0.297</v>
+      </c>
+      <c r="BG27">
+        <v>0.199</v>
+      </c>
+      <c r="BH27">
+        <v>0.285</v>
+      </c>
+      <c r="BI27">
+        <v>0.032</v>
+      </c>
+      <c r="BJ27">
+        <v>0.267</v>
+      </c>
+      <c r="BK27">
+        <v>2.08</v>
+      </c>
+      <c r="BL27">
+        <v>3.01</v>
+      </c>
+      <c r="BM27">
+        <v>0.377</v>
+      </c>
+      <c r="BN27">
+        <v>0.222</v>
+      </c>
+      <c r="BO27">
+        <v>0.401</v>
+      </c>
+      <c r="BP27">
+        <v>0.045</v>
+      </c>
+      <c r="BQ27">
+        <v>0.155</v>
+      </c>
+      <c r="BR27">
+        <v>0.518</v>
+      </c>
+      <c r="BS27">
+        <v>0.327</v>
+      </c>
+      <c r="BT27">
+        <v>0.09799999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:72">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28">
+        <v>318</v>
+      </c>
+      <c r="N28">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="O28">
+        <v>58</v>
+      </c>
+      <c r="P28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q28">
+        <v>31</v>
+      </c>
+      <c r="R28">
+        <v>29</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>35</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>86</v>
+      </c>
+      <c r="X28">
+        <v>0.209</v>
+      </c>
+      <c r="Y28">
+        <v>0.309</v>
+      </c>
+      <c r="Z28">
+        <v>0.372</v>
+      </c>
+      <c r="AA28">
+        <v>0.303</v>
+      </c>
+      <c r="AB28">
+        <v>10.41</v>
+      </c>
+      <c r="AC28">
+        <v>4.24</v>
+      </c>
+      <c r="AD28">
+        <v>2.46</v>
+      </c>
+      <c r="AE28">
+        <v>1.21</v>
+      </c>
+      <c r="AF28">
+        <v>0.27</v>
+      </c>
+      <c r="AG28">
+        <v>0.11</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI28">
+        <v>1.25</v>
+      </c>
+      <c r="AJ28">
+        <v>0.264</v>
+      </c>
+      <c r="AK28">
+        <v>0.7979999999999999</v>
+      </c>
+      <c r="AL28">
+        <v>4.22</v>
+      </c>
+      <c r="AM28">
+        <v>3.95</v>
+      </c>
+      <c r="AN28">
+        <v>1.04</v>
+      </c>
+      <c r="AO28">
+        <v>0.216</v>
+      </c>
+      <c r="AP28">
+        <v>0.4</v>
+      </c>
+      <c r="AQ28">
+        <v>0.384</v>
+      </c>
+      <c r="AR28">
+        <v>0.11</v>
+      </c>
+      <c r="AS28">
+        <v>0.137</v>
+      </c>
+      <c r="AT28">
+        <v>0.455</v>
+      </c>
+      <c r="AU28">
+        <v>0.293</v>
+      </c>
+      <c r="AV28">
+        <v>0.251</v>
+      </c>
+      <c r="AW28">
+        <v>0.157</v>
+      </c>
+      <c r="AX28">
+        <v>0.545</v>
+      </c>
+      <c r="AY28">
+        <v>0.298</v>
+      </c>
+      <c r="AZ28">
+        <v>1283</v>
+      </c>
+      <c r="BA28">
+        <v>472</v>
+      </c>
+      <c r="BB28">
+        <v>811</v>
+      </c>
+      <c r="BC28">
+        <v>318</v>
+      </c>
+      <c r="BD28">
+        <v>0.03144654088050314</v>
+      </c>
+      <c r="BE28">
+        <v>0.303</v>
+      </c>
+      <c r="BF28">
+        <v>0.372</v>
+      </c>
+      <c r="BG28">
+        <v>0.209</v>
+      </c>
+      <c r="BH28">
+        <v>0.27</v>
+      </c>
+      <c r="BI28">
+        <v>0.11</v>
+      </c>
+      <c r="BJ28">
+        <v>0.264</v>
+      </c>
+      <c r="BK28">
+        <v>4.22</v>
+      </c>
+      <c r="BL28">
+        <v>3.95</v>
+      </c>
+      <c r="BM28">
+        <v>0.4</v>
+      </c>
+      <c r="BN28">
+        <v>0.216</v>
+      </c>
+      <c r="BO28">
+        <v>0.384</v>
+      </c>
+      <c r="BP28">
+        <v>0.137</v>
+      </c>
+      <c r="BQ28">
+        <v>0.157</v>
+      </c>
+      <c r="BR28">
+        <v>0.545</v>
+      </c>
+      <c r="BS28">
+        <v>0.298</v>
+      </c>
+      <c r="BT28">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:72">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" t="s">
+        <v>134</v>
+      </c>
+      <c r="M29">
+        <v>221</v>
+      </c>
+      <c r="N29">
+        <v>55.2</v>
+      </c>
+      <c r="O29">
+        <v>44</v>
+      </c>
+      <c r="P29" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q29">
+        <v>27</v>
+      </c>
+      <c r="R29">
+        <v>23</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>13</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>56</v>
+      </c>
+      <c r="X29">
+        <v>0.216</v>
+      </c>
+      <c r="Y29">
+        <v>0.267</v>
+      </c>
+      <c r="Z29">
+        <v>0.353</v>
+      </c>
+      <c r="AA29">
+        <v>0.271</v>
+      </c>
+      <c r="AB29">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AC29">
+        <v>2.1</v>
+      </c>
+      <c r="AD29">
+        <v>4.31</v>
+      </c>
+      <c r="AE29">
+        <v>1.13</v>
+      </c>
+      <c r="AF29">
+        <v>0.253</v>
+      </c>
+      <c r="AG29">
+        <v>0.059</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI29">
+        <v>1.02</v>
+      </c>
+      <c r="AJ29">
+        <v>0.259</v>
+      </c>
+      <c r="AK29">
+        <v>0.65</v>
+      </c>
+      <c r="AL29">
+        <v>3.6</v>
+      </c>
+      <c r="AM29">
+        <v>4.19</v>
+      </c>
+      <c r="AN29">
+        <v>0.54</v>
+      </c>
+      <c r="AO29">
+        <v>0.16</v>
+      </c>
+      <c r="AP29">
+        <v>0.293</v>
+      </c>
+      <c r="AQ29">
+        <v>0.547</v>
+      </c>
+      <c r="AR29">
+        <v>0.195</v>
+      </c>
+      <c r="AS29">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AT29">
+        <v>0.34</v>
+      </c>
+      <c r="AU29">
+        <v>0.353</v>
+      </c>
+      <c r="AV29">
+        <v>0.307</v>
+      </c>
+      <c r="AW29">
+        <v>0.187</v>
+      </c>
+      <c r="AX29">
+        <v>0.493</v>
+      </c>
+      <c r="AY29">
+        <v>0.32</v>
+      </c>
+      <c r="AZ29">
+        <v>867</v>
+      </c>
+      <c r="BA29">
+        <v>302</v>
+      </c>
+      <c r="BB29">
+        <v>565</v>
+      </c>
+      <c r="BC29">
+        <v>221</v>
+      </c>
+      <c r="BD29">
+        <v>0.03167420814479638</v>
+      </c>
+      <c r="BE29">
+        <v>0.271</v>
+      </c>
+      <c r="BF29">
+        <v>0.353</v>
+      </c>
+      <c r="BG29">
+        <v>0.216</v>
+      </c>
+      <c r="BH29">
+        <v>0.253</v>
+      </c>
+      <c r="BI29">
+        <v>0.059</v>
+      </c>
+      <c r="BJ29">
+        <v>0.259</v>
+      </c>
+      <c r="BK29">
+        <v>3.6</v>
+      </c>
+      <c r="BL29">
+        <v>4.19</v>
+      </c>
+      <c r="BM29">
+        <v>0.293</v>
+      </c>
+      <c r="BN29">
+        <v>0.16</v>
+      </c>
+      <c r="BO29">
+        <v>0.547</v>
+      </c>
+      <c r="BP29">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="BQ29">
+        <v>0.187</v>
+      </c>
+      <c r="BR29">
+        <v>0.493</v>
+      </c>
+      <c r="BS29">
+        <v>0.32</v>
+      </c>
+      <c r="BT29">
+        <v>0.137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:72">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" t="s">
+        <v>134</v>
+      </c>
+      <c r="M30">
+        <v>396</v>
+      </c>
+      <c r="N30">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="O30">
+        <v>76</v>
+      </c>
+      <c r="P30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q30">
+        <v>38</v>
+      </c>
+      <c r="R30">
+        <v>30</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>30</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>8</v>
+      </c>
+      <c r="W30">
+        <v>72</v>
+      </c>
+      <c r="X30">
+        <v>0.215</v>
+      </c>
+      <c r="Y30">
+        <v>0.289</v>
+      </c>
+      <c r="Z30">
         <v>0.3</v>
       </c>
-      <c r="Z17">
-        <v>0.432</v>
-      </c>
-      <c r="AA17">
-        <v>0.315</v>
-      </c>
-      <c r="AB17">
-        <v>6.51</v>
-      </c>
-      <c r="AC17">
-        <v>0.87</v>
-      </c>
-      <c r="AD17">
-        <v>7.5</v>
-      </c>
-      <c r="AE17">
+      <c r="AA30">
+        <v>0.264</v>
+      </c>
+      <c r="AB30">
+        <v>6.73</v>
+      </c>
+      <c r="AC30">
+        <v>2.8</v>
+      </c>
+      <c r="AD30">
+        <v>2.4</v>
+      </c>
+      <c r="AE30">
+        <v>0.47</v>
+      </c>
+      <c r="AF30">
+        <v>0.182</v>
+      </c>
+      <c r="AG30">
+        <v>0.076</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI30">
+        <v>1.1</v>
+      </c>
+      <c r="AJ30">
+        <v>0.253</v>
+      </c>
+      <c r="AK30">
+        <v>0.71</v>
+      </c>
+      <c r="AL30">
+        <v>3.53</v>
+      </c>
+      <c r="AM30">
+        <v>3.86</v>
+      </c>
+      <c r="AN30">
+        <v>2.56</v>
+      </c>
+      <c r="AO30">
+        <v>0.197</v>
+      </c>
+      <c r="AP30">
+        <v>0.5770000000000001</v>
+      </c>
+      <c r="AQ30">
+        <v>0.225</v>
+      </c>
+      <c r="AR30">
+        <v>0.031</v>
+      </c>
+      <c r="AS30">
+        <v>0.078</v>
+      </c>
+      <c r="AT30">
+        <v>0.449</v>
+      </c>
+      <c r="AU30">
+        <v>0.354</v>
+      </c>
+      <c r="AV30">
+        <v>0.196</v>
+      </c>
+      <c r="AW30">
+        <v>0.109</v>
+      </c>
+      <c r="AX30">
+        <v>0.6</v>
+      </c>
+      <c r="AY30">
+        <v>0.291</v>
+      </c>
+      <c r="AZ30">
+        <v>1457</v>
+      </c>
+      <c r="BA30">
+        <v>513</v>
+      </c>
+      <c r="BB30">
+        <v>944</v>
+      </c>
+      <c r="BC30">
+        <v>396</v>
+      </c>
+      <c r="BD30">
+        <v>0.01262626262626263</v>
+      </c>
+      <c r="BE30">
+        <v>0.264</v>
+      </c>
+      <c r="BF30">
+        <v>0.3</v>
+      </c>
+      <c r="BG30">
+        <v>0.215</v>
+      </c>
+      <c r="BH30">
+        <v>0.182</v>
+      </c>
+      <c r="BI30">
+        <v>0.076</v>
+      </c>
+      <c r="BJ30">
+        <v>0.253</v>
+      </c>
+      <c r="BK30">
+        <v>3.53</v>
+      </c>
+      <c r="BL30">
+        <v>3.86</v>
+      </c>
+      <c r="BM30">
+        <v>0.5770000000000001</v>
+      </c>
+      <c r="BN30">
+        <v>0.197</v>
+      </c>
+      <c r="BO30">
+        <v>0.225</v>
+      </c>
+      <c r="BP30">
+        <v>0.078</v>
+      </c>
+      <c r="BQ30">
+        <v>0.109</v>
+      </c>
+      <c r="BR30">
+        <v>0.6</v>
+      </c>
+      <c r="BS30">
+        <v>0.291</v>
+      </c>
+      <c r="BT30">
+        <v>0.08499999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:72">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31">
+        <v>347</v>
+      </c>
+      <c r="N31">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="O31">
+        <v>80</v>
+      </c>
+      <c r="P31" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q31">
+        <v>37</v>
+      </c>
+      <c r="R31">
+        <v>32</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>18</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>8</v>
+      </c>
+      <c r="W31">
+        <v>82</v>
+      </c>
+      <c r="X31">
+        <v>0.249</v>
+      </c>
+      <c r="Y31">
+        <v>0.305</v>
+      </c>
+      <c r="Z31">
+        <v>0.343</v>
+      </c>
+      <c r="AA31">
+        <v>0.289</v>
+      </c>
+      <c r="AB31">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="AC31">
+        <v>1.97</v>
+      </c>
+      <c r="AD31">
+        <v>4.56</v>
+      </c>
+      <c r="AE31">
+        <v>0.66</v>
+      </c>
+      <c r="AF31">
+        <v>0.236</v>
+      </c>
+      <c r="AG31">
+        <v>0.052</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI31">
         <v>1.19</v>
       </c>
-      <c r="AF17">
-        <v>0.171</v>
-      </c>
-      <c r="AG17">
-        <v>0.023</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI17">
-        <v>1.24</v>
-      </c>
-      <c r="AJ17">
+      <c r="AJ31">
+        <v>0.318</v>
+      </c>
+      <c r="AK31">
+        <v>0.7070000000000001</v>
+      </c>
+      <c r="AL31">
+        <v>3.07</v>
+      </c>
+      <c r="AM31">
+        <v>3.24</v>
+      </c>
+      <c r="AN31">
+        <v>2.1</v>
+      </c>
+      <c r="AO31">
+        <v>0.206</v>
+      </c>
+      <c r="AP31">
+        <v>0.5379999999999999</v>
+      </c>
+      <c r="AQ31">
+        <v>0.256</v>
+      </c>
+      <c r="AR31">
+        <v>0.098</v>
+      </c>
+      <c r="AS31">
+        <v>0.098</v>
+      </c>
+      <c r="AT31">
+        <v>0.452</v>
+      </c>
+      <c r="AU31">
+        <v>0.36</v>
+      </c>
+      <c r="AV31">
+        <v>0.188</v>
+      </c>
+      <c r="AW31">
+        <v>0.146</v>
+      </c>
+      <c r="AX31">
+        <v>0.531</v>
+      </c>
+      <c r="AY31">
+        <v>0.322</v>
+      </c>
+      <c r="AZ31">
+        <v>1283</v>
+      </c>
+      <c r="BA31">
+        <v>417</v>
+      </c>
+      <c r="BB31">
+        <v>866</v>
+      </c>
+      <c r="BC31">
+        <v>347</v>
+      </c>
+      <c r="BD31">
+        <v>0.01729106628242075</v>
+      </c>
+      <c r="BE31">
+        <v>0.289</v>
+      </c>
+      <c r="BF31">
+        <v>0.343</v>
+      </c>
+      <c r="BG31">
+        <v>0.249</v>
+      </c>
+      <c r="BH31">
+        <v>0.236</v>
+      </c>
+      <c r="BI31">
+        <v>0.052</v>
+      </c>
+      <c r="BJ31">
+        <v>0.318</v>
+      </c>
+      <c r="BK31">
+        <v>3.07</v>
+      </c>
+      <c r="BL31">
+        <v>3.24</v>
+      </c>
+      <c r="BM31">
+        <v>0.5379999999999999</v>
+      </c>
+      <c r="BN31">
+        <v>0.206</v>
+      </c>
+      <c r="BO31">
+        <v>0.256</v>
+      </c>
+      <c r="BP31">
+        <v>0.098</v>
+      </c>
+      <c r="BQ31">
+        <v>0.146</v>
+      </c>
+      <c r="BR31">
+        <v>0.531</v>
+      </c>
+      <c r="BS31">
+        <v>0.322</v>
+      </c>
+      <c r="BT31">
+        <v>0.09400000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:72">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" t="s">
+        <v>134</v>
+      </c>
+      <c r="M32">
+        <v>172</v>
+      </c>
+      <c r="N32">
+        <v>39.1</v>
+      </c>
+      <c r="O32">
+        <v>34</v>
+      </c>
+      <c r="P32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q32">
+        <v>18</v>
+      </c>
+      <c r="R32">
+        <v>16</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>19</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>50</v>
+      </c>
+      <c r="X32">
+        <v>0.23</v>
+      </c>
+      <c r="Y32">
+        <v>0.322</v>
+      </c>
+      <c r="Z32">
+        <v>0.358</v>
+      </c>
+      <c r="AA32">
+        <v>0.302</v>
+      </c>
+      <c r="AB32">
+        <v>11.44</v>
+      </c>
+      <c r="AC32">
+        <v>4.35</v>
+      </c>
+      <c r="AD32">
+        <v>2.63</v>
+      </c>
+      <c r="AE32">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AF32">
+        <v>0.291</v>
+      </c>
+      <c r="AG32">
+        <v>0.11</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI32">
+        <v>1.35</v>
+      </c>
+      <c r="AJ32">
+        <v>0.316</v>
+      </c>
+      <c r="AK32">
+        <v>0.728</v>
+      </c>
+      <c r="AL32">
+        <v>3.22</v>
+      </c>
+      <c r="AM32">
+        <v>3.8</v>
+      </c>
+      <c r="AN32">
+        <v>1.05</v>
+      </c>
+      <c r="AO32">
+        <v>0.16</v>
+      </c>
+      <c r="AP32">
+        <v>0.43</v>
+      </c>
+      <c r="AQ32">
+        <v>0.41</v>
+      </c>
+      <c r="AR32">
+        <v>0.122</v>
+      </c>
+      <c r="AS32">
+        <v>0.073</v>
+      </c>
+      <c r="AT32">
+        <v>0.36</v>
+      </c>
+      <c r="AU32">
+        <v>0.37</v>
+      </c>
+      <c r="AV32">
+        <v>0.27</v>
+      </c>
+      <c r="AW32">
+        <v>0.16</v>
+      </c>
+      <c r="AX32">
+        <v>0.49</v>
+      </c>
+      <c r="AY32">
+        <v>0.35</v>
+      </c>
+      <c r="AZ32">
+        <v>694</v>
+      </c>
+      <c r="BA32">
+        <v>258</v>
+      </c>
+      <c r="BB32">
+        <v>436</v>
+      </c>
+      <c r="BC32">
+        <v>172</v>
+      </c>
+      <c r="BD32">
+        <v>0.01744186046511628</v>
+      </c>
+      <c r="BE32">
+        <v>0.302</v>
+      </c>
+      <c r="BF32">
+        <v>0.358</v>
+      </c>
+      <c r="BG32">
+        <v>0.23</v>
+      </c>
+      <c r="BH32">
+        <v>0.291</v>
+      </c>
+      <c r="BI32">
+        <v>0.11</v>
+      </c>
+      <c r="BJ32">
+        <v>0.316</v>
+      </c>
+      <c r="BK32">
+        <v>3.22</v>
+      </c>
+      <c r="BL32">
+        <v>3.8</v>
+      </c>
+      <c r="BM32">
+        <v>0.43</v>
+      </c>
+      <c r="BN32">
+        <v>0.16</v>
+      </c>
+      <c r="BO32">
+        <v>0.41</v>
+      </c>
+      <c r="BP32">
+        <v>0.073</v>
+      </c>
+      <c r="BQ32">
+        <v>0.16</v>
+      </c>
+      <c r="BR32">
+        <v>0.49</v>
+      </c>
+      <c r="BS32">
+        <v>0.35</v>
+      </c>
+      <c r="BT32">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:72">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" t="s">
+        <v>134</v>
+      </c>
+      <c r="M33">
+        <v>165</v>
+      </c>
+      <c r="N33">
+        <v>38.2</v>
+      </c>
+      <c r="O33">
+        <v>36</v>
+      </c>
+      <c r="P33" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33">
+        <v>21</v>
+      </c>
+      <c r="R33">
+        <v>19</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>13</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>41</v>
+      </c>
+      <c r="X33">
+        <v>0.24</v>
+      </c>
+      <c r="Y33">
+        <v>0.309</v>
+      </c>
+      <c r="Z33">
+        <v>0.387</v>
+      </c>
+      <c r="AA33">
+        <v>0.307</v>
+      </c>
+      <c r="AB33">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="AC33">
+        <v>3.03</v>
+      </c>
+      <c r="AD33">
+        <v>3.15</v>
+      </c>
+      <c r="AE33">
+        <v>1.16</v>
+      </c>
+      <c r="AF33">
+        <v>0.248</v>
+      </c>
+      <c r="AG33">
+        <v>0.079</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI33">
+        <v>1.27</v>
+      </c>
+      <c r="AJ33">
+        <v>0.298</v>
+      </c>
+      <c r="AK33">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="AL33">
+        <v>3.89</v>
+      </c>
+      <c r="AM33">
+        <v>3.77</v>
+      </c>
+      <c r="AN33">
+        <v>1.03</v>
+      </c>
+      <c r="AO33">
+        <v>0.257</v>
+      </c>
+      <c r="AP33">
+        <v>0.376</v>
+      </c>
+      <c r="AQ33">
+        <v>0.367</v>
+      </c>
+      <c r="AR33">
+        <v>0.1</v>
+      </c>
+      <c r="AS33">
+        <v>0.125</v>
+      </c>
+      <c r="AT33">
+        <v>0.376</v>
+      </c>
+      <c r="AU33">
+        <v>0.367</v>
+      </c>
+      <c r="AV33">
+        <v>0.257</v>
+      </c>
+      <c r="AW33">
+        <v>0.22</v>
+      </c>
+      <c r="AX33">
+        <v>0.468</v>
+      </c>
+      <c r="AY33">
         <v>0.312</v>
       </c>
-      <c r="AK17">
-        <v>0.725</v>
-      </c>
-      <c r="AL17">
-        <v>3.81</v>
-      </c>
-      <c r="AM17">
-        <v>3.78</v>
-      </c>
-      <c r="AN17">
-        <v>1.37</v>
-      </c>
-      <c r="AO17">
-        <v>0.209</v>
-      </c>
-      <c r="AP17">
-        <v>0.457</v>
-      </c>
-      <c r="AQ17">
-        <v>0.335</v>
-      </c>
-      <c r="AR17">
-        <v>0.14</v>
-      </c>
-      <c r="AS17">
-        <v>0.118</v>
-      </c>
-      <c r="AT17">
-        <v>0.45</v>
-      </c>
-      <c r="AU17">
-        <v>0.332</v>
-      </c>
-      <c r="AV17">
-        <v>0.218</v>
-      </c>
-      <c r="AW17">
-        <v>0.186</v>
-      </c>
-      <c r="AX17">
-        <v>0.479</v>
-      </c>
-      <c r="AY17">
+      <c r="AZ33">
+        <v>669</v>
+      </c>
+      <c r="BA33">
+        <v>235</v>
+      </c>
+      <c r="BB33">
+        <v>434</v>
+      </c>
+      <c r="BC33">
+        <v>165</v>
+      </c>
+      <c r="BD33">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="BE33">
+        <v>0.307</v>
+      </c>
+      <c r="BF33">
+        <v>0.387</v>
+      </c>
+      <c r="BG33">
+        <v>0.24</v>
+      </c>
+      <c r="BH33">
+        <v>0.248</v>
+      </c>
+      <c r="BI33">
+        <v>0.079</v>
+      </c>
+      <c r="BJ33">
+        <v>0.298</v>
+      </c>
+      <c r="BK33">
+        <v>3.89</v>
+      </c>
+      <c r="BL33">
+        <v>3.77</v>
+      </c>
+      <c r="BM33">
+        <v>0.376</v>
+      </c>
+      <c r="BN33">
+        <v>0.257</v>
+      </c>
+      <c r="BO33">
+        <v>0.367</v>
+      </c>
+      <c r="BP33">
+        <v>0.125</v>
+      </c>
+      <c r="BQ33">
+        <v>0.22</v>
+      </c>
+      <c r="BR33">
+        <v>0.468</v>
+      </c>
+      <c r="BS33">
+        <v>0.312</v>
+      </c>
+      <c r="BT33">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:72">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" t="s">
+        <v>134</v>
+      </c>
+      <c r="M34">
+        <v>179</v>
+      </c>
+      <c r="N34">
+        <v>45.1</v>
+      </c>
+      <c r="O34">
+        <v>31</v>
+      </c>
+      <c r="P34" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q34">
+        <v>13</v>
+      </c>
+      <c r="R34">
+        <v>12</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>15</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>51</v>
+      </c>
+      <c r="X34">
+        <v>0.193</v>
+      </c>
+      <c r="Y34">
+        <v>0.258</v>
+      </c>
+      <c r="Z34">
+        <v>0.267</v>
+      </c>
+      <c r="AA34">
+        <v>0.237</v>
+      </c>
+      <c r="AB34">
+        <v>10.13</v>
+      </c>
+      <c r="AC34">
+        <v>2.98</v>
+      </c>
+      <c r="AD34">
+        <v>3.4</v>
+      </c>
+      <c r="AE34">
+        <v>0.4</v>
+      </c>
+      <c r="AF34">
+        <v>0.285</v>
+      </c>
+      <c r="AG34">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI34">
+        <v>1.01</v>
+      </c>
+      <c r="AJ34">
+        <v>0.261</v>
+      </c>
+      <c r="AK34">
+        <v>0.764</v>
+      </c>
+      <c r="AL34">
+        <v>2.48</v>
+      </c>
+      <c r="AM34">
+        <v>3.11</v>
+      </c>
+      <c r="AN34">
+        <v>1.47</v>
+      </c>
+      <c r="AO34">
+        <v>0.198</v>
+      </c>
+      <c r="AP34">
+        <v>0.477</v>
+      </c>
+      <c r="AQ34">
+        <v>0.324</v>
+      </c>
+      <c r="AR34">
+        <v>0.028</v>
+      </c>
+      <c r="AS34">
+        <v>0.05599999999999999</v>
+      </c>
+      <c r="AT34">
         <v>0.336</v>
       </c>
-      <c r="AZ17">
-        <v>1226</v>
-      </c>
-      <c r="BA17">
-        <v>369</v>
-      </c>
-      <c r="BB17">
-        <v>857</v>
-      </c>
-      <c r="BC17">
-        <v>350</v>
-      </c>
-      <c r="BD17">
-        <v>0.03142857142857143</v>
-      </c>
-      <c r="BE17">
-        <v>0.315</v>
-      </c>
-      <c r="BF17">
-        <v>0.432</v>
-      </c>
-      <c r="BG17">
-        <v>0.281</v>
-      </c>
-      <c r="BH17">
-        <v>0.171</v>
-      </c>
-      <c r="BI17">
-        <v>0.023</v>
-      </c>
-      <c r="BJ17">
-        <v>0.312</v>
-      </c>
-      <c r="BK17">
-        <v>3.81</v>
-      </c>
-      <c r="BL17">
-        <v>3.78</v>
-      </c>
-      <c r="BM17">
-        <v>0.457</v>
-      </c>
-      <c r="BN17">
-        <v>0.209</v>
-      </c>
-      <c r="BO17">
-        <v>0.335</v>
-      </c>
-      <c r="BP17">
-        <v>0.118</v>
-      </c>
-      <c r="BQ17">
-        <v>0.186</v>
-      </c>
-      <c r="BR17">
-        <v>0.479</v>
-      </c>
-      <c r="BS17">
-        <v>0.336</v>
-      </c>
-      <c r="BT17">
-        <v>0.151</v>
+      <c r="AU34">
+        <v>0.416</v>
+      </c>
+      <c r="AV34">
+        <v>0.248</v>
+      </c>
+      <c r="AW34">
+        <v>0.15</v>
+      </c>
+      <c r="AX34">
+        <v>0.5489999999999999</v>
+      </c>
+      <c r="AY34">
+        <v>0.301</v>
+      </c>
+      <c r="AZ34">
+        <v>729</v>
+      </c>
+      <c r="BA34">
+        <v>255</v>
+      </c>
+      <c r="BB34">
+        <v>474</v>
+      </c>
+      <c r="BC34">
+        <v>188</v>
+      </c>
+      <c r="BD34">
+        <v>0.01063829787234043</v>
+      </c>
+      <c r="BE34">
+        <v>0.2256542553191489</v>
+      </c>
+      <c r="BF34">
+        <v>0.254218085106383</v>
+      </c>
+      <c r="BG34">
+        <v>0.1837606382978723</v>
+      </c>
+      <c r="BH34">
+        <v>0.2713563829787234</v>
+      </c>
+      <c r="BI34">
+        <v>0.07997872340425533</v>
+      </c>
+      <c r="BJ34">
+        <v>0.2485053191489362</v>
+      </c>
+      <c r="BK34">
+        <v>2.361276595744681</v>
+      </c>
+      <c r="BL34">
+        <v>2.961117021276596</v>
+      </c>
+      <c r="BM34">
+        <v>0.4541648936170213</v>
+      </c>
+      <c r="BN34">
+        <v>0.1885212765957447</v>
+      </c>
+      <c r="BO34">
+        <v>0.3084893617021277</v>
+      </c>
+      <c r="BP34">
+        <v>0.05331914893617021</v>
+      </c>
+      <c r="BQ34">
+        <v>0.1428191489361702</v>
+      </c>
+      <c r="BR34">
+        <v>0.522718085106383</v>
+      </c>
+      <c r="BS34">
+        <v>0.2865904255319149</v>
+      </c>
+      <c r="BT34">
+        <v>0.07045744680851065</v>
+      </c>
+    </row>
+    <row r="35" spans="1:72">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" t="s">
+        <v>134</v>
+      </c>
+      <c r="M35">
+        <v>9</v>
+      </c>
+      <c r="N35">
+        <v>2.1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0.125</v>
+      </c>
+      <c r="Y35">
+        <v>0.222</v>
+      </c>
+      <c r="Z35">
+        <v>0.125</v>
+      </c>
+      <c r="AA35">
+        <v>0.177</v>
+      </c>
+      <c r="AB35">
+        <v>3.86</v>
+      </c>
+      <c r="AC35">
+        <v>3.86</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0.111</v>
+      </c>
+      <c r="AG35">
+        <v>0.111</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI35">
+        <v>0.86</v>
+      </c>
+      <c r="AJ35">
+        <v>0.143</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>3.38</v>
+      </c>
+      <c r="AM35">
+        <v>4.19</v>
+      </c>
+      <c r="AN35">
+        <v>6</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0.857</v>
+      </c>
+      <c r="AQ35">
+        <v>0.143</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0.5710000000000001</v>
+      </c>
+      <c r="AU35">
+        <v>0.429</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0.429</v>
+      </c>
+      <c r="AX35">
+        <v>0.429</v>
+      </c>
+      <c r="AY35">
+        <v>0.143</v>
+      </c>
+      <c r="AZ35">
+        <v>38</v>
+      </c>
+      <c r="BA35">
+        <v>14</v>
+      </c>
+      <c r="BB35">
+        <v>24</v>
+      </c>
+      <c r="BC35">
+        <v>188</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0.008473404255319148</v>
+      </c>
+      <c r="BF35">
+        <v>0.005984042553191489</v>
+      </c>
+      <c r="BG35">
+        <v>0.005984042553191489</v>
+      </c>
+      <c r="BH35">
+        <v>0.005313829787234043</v>
+      </c>
+      <c r="BI35">
+        <v>0.005313829787234043</v>
+      </c>
+      <c r="BJ35">
+        <v>0.006845744680851063</v>
+      </c>
+      <c r="BK35">
+        <v>0.1618085106382979</v>
+      </c>
+      <c r="BL35">
+        <v>0.2005851063829787</v>
+      </c>
+      <c r="BM35">
+        <v>0.04102659574468085</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0.006845744680851065</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>0.02053723404255319</v>
+      </c>
+      <c r="BR35">
+        <v>0.02053723404255319</v>
+      </c>
+      <c r="BS35">
+        <v>0.006845744680851065</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:72">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" t="s">
+        <v>134</v>
+      </c>
+      <c r="M36">
+        <v>189</v>
+      </c>
+      <c r="N36">
+        <v>44.2</v>
+      </c>
+      <c r="O36">
+        <v>47</v>
+      </c>
+      <c r="P36" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q36">
+        <v>19</v>
+      </c>
+      <c r="R36">
+        <v>18</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>7</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>54</v>
+      </c>
+      <c r="X36">
+        <v>0.263</v>
+      </c>
+      <c r="Y36">
+        <v>0.291</v>
+      </c>
+      <c r="Z36">
+        <v>0.453</v>
+      </c>
+      <c r="AA36">
+        <v>0.317</v>
+      </c>
+      <c r="AB36">
+        <v>10.88</v>
+      </c>
+      <c r="AC36">
+        <v>1.41</v>
+      </c>
+      <c r="AD36">
+        <v>7.71</v>
+      </c>
+      <c r="AE36">
+        <v>1.01</v>
+      </c>
+      <c r="AF36">
+        <v>0.286</v>
+      </c>
+      <c r="AG36">
+        <v>0.03700000000000001</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI36">
+        <v>1.21</v>
+      </c>
+      <c r="AJ36">
+        <v>0.344</v>
+      </c>
+      <c r="AK36">
+        <v>0.75</v>
+      </c>
+      <c r="AL36">
+        <v>2.74</v>
+      </c>
+      <c r="AM36">
+        <v>2.61</v>
+      </c>
+      <c r="AN36">
+        <v>1.56</v>
+      </c>
+      <c r="AO36">
+        <v>0.213</v>
+      </c>
+      <c r="AP36">
+        <v>0.48</v>
+      </c>
+      <c r="AQ36">
+        <v>0.307</v>
+      </c>
+      <c r="AR36">
+        <v>0.128</v>
+      </c>
+      <c r="AS36">
+        <v>0.128</v>
+      </c>
+      <c r="AT36">
+        <v>0.449</v>
+      </c>
+      <c r="AU36">
+        <v>0.307</v>
+      </c>
+      <c r="AV36">
+        <v>0.244</v>
+      </c>
+      <c r="AW36">
+        <v>0.142</v>
+      </c>
+      <c r="AX36">
+        <v>0.512</v>
+      </c>
+      <c r="AY36">
+        <v>0.346</v>
+      </c>
+      <c r="AZ36">
+        <v>742</v>
+      </c>
+      <c r="BA36">
+        <v>236</v>
+      </c>
+      <c r="BB36">
+        <v>506</v>
+      </c>
+      <c r="BC36">
+        <v>199</v>
+      </c>
+      <c r="BD36">
+        <v>0.02512562814070352</v>
+      </c>
+      <c r="BE36">
+        <v>0.301070351758794</v>
+      </c>
+      <c r="BF36">
+        <v>0.4302361809045226</v>
+      </c>
+      <c r="BG36">
+        <v>0.24978391959799</v>
+      </c>
+      <c r="BH36">
+        <v>0.2716281407035176</v>
+      </c>
+      <c r="BI36">
+        <v>0.03514070351758795</v>
+      </c>
+      <c r="BJ36">
+        <v>0.326713567839196</v>
+      </c>
+      <c r="BK36">
+        <v>2.602311557788945</v>
+      </c>
+      <c r="BL36">
+        <v>2.478844221105528</v>
+      </c>
+      <c r="BM36">
+        <v>0.4558793969849246</v>
+      </c>
+      <c r="BN36">
+        <v>0.2022964824120603</v>
+      </c>
+      <c r="BO36">
+        <v>0.2915728643216081</v>
+      </c>
+      <c r="BP36">
+        <v>0.1215678391959799</v>
+      </c>
+      <c r="BQ36">
+        <v>0.1348643216080402</v>
+      </c>
+      <c r="BR36">
+        <v>0.4862713567839196</v>
+      </c>
+      <c r="BS36">
+        <v>0.3286130653266332</v>
+      </c>
+      <c r="BT36">
+        <v>0.1804522613065327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:72">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" t="s">
+        <v>134</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>2.2</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>3</v>
+      </c>
+      <c r="X37">
+        <v>0.2</v>
+      </c>
+      <c r="Y37">
+        <v>0.2</v>
+      </c>
+      <c r="Z37">
+        <v>0.3</v>
+      </c>
+      <c r="AA37">
+        <v>0.216</v>
+      </c>
+      <c r="AB37">
+        <v>10.13</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>3</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0.3</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI37">
+        <v>0.75</v>
+      </c>
+      <c r="AJ37">
+        <v>0.286</v>
+      </c>
+      <c r="AK37">
+        <v>0.5</v>
+      </c>
+      <c r="AL37">
+        <v>0.7</v>
+      </c>
+      <c r="AM37">
+        <v>1.41</v>
+      </c>
+      <c r="AN37">
+        <v>5</v>
+      </c>
+      <c r="AO37">
+        <v>0.143</v>
+      </c>
+      <c r="AP37">
+        <v>0.7140000000000001</v>
+      </c>
+      <c r="AQ37">
+        <v>0.143</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0.286</v>
+      </c>
+      <c r="AU37">
+        <v>0.5710000000000001</v>
+      </c>
+      <c r="AV37">
+        <v>0.143</v>
+      </c>
+      <c r="AW37">
+        <v>0.286</v>
+      </c>
+      <c r="AX37">
+        <v>0.143</v>
+      </c>
+      <c r="AY37">
+        <v>0.5710000000000001</v>
+      </c>
+      <c r="AZ37">
+        <v>35</v>
+      </c>
+      <c r="BA37">
+        <v>11</v>
+      </c>
+      <c r="BB37">
+        <v>24</v>
+      </c>
+      <c r="BC37">
+        <v>199</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0.01085427135678392</v>
+      </c>
+      <c r="BF37">
+        <v>0.01507537688442211</v>
+      </c>
+      <c r="BG37">
+        <v>0.01005025125628141</v>
+      </c>
+      <c r="BH37">
+        <v>0.01507537688442211</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0.01437185929648241</v>
+      </c>
+      <c r="BK37">
+        <v>0.03517587939698492</v>
+      </c>
+      <c r="BL37">
+        <v>0.07085427135678392</v>
+      </c>
+      <c r="BM37">
+        <v>0.03587939698492463</v>
+      </c>
+      <c r="BN37">
+        <v>0.007185929648241207</v>
+      </c>
+      <c r="BO37">
+        <v>0.007185929648241207</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>0.01437185929648241</v>
+      </c>
+      <c r="BR37">
+        <v>0.007185929648241207</v>
+      </c>
+      <c r="BS37">
+        <v>0.02869346733668342</v>
+      </c>
+      <c r="BT37">
+        <v>0.005025125628140701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:72">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>5</v>
+      </c>
+      <c r="X38">
+        <v>0.133</v>
+      </c>
+      <c r="Y38">
+        <v>0.263</v>
+      </c>
+      <c r="Z38">
+        <v>0.133</v>
+      </c>
+      <c r="AA38">
+        <v>0.202</v>
+      </c>
+      <c r="AB38">
+        <v>9</v>
+      </c>
+      <c r="AC38">
+        <v>5.4</v>
+      </c>
+      <c r="AD38">
+        <v>1.67</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0.263</v>
+      </c>
+      <c r="AG38">
+        <v>0.158</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <v>0.182</v>
+      </c>
+      <c r="AK38">
+        <v>0.6</v>
+      </c>
+      <c r="AL38">
+        <v>2.97</v>
+      </c>
+      <c r="AM38">
+        <v>4.78</v>
+      </c>
+      <c r="AN38">
+        <v>0.67</v>
+      </c>
+      <c r="AO38">
+        <v>0.091</v>
+      </c>
+      <c r="AP38">
+        <v>0.364</v>
+      </c>
+      <c r="AQ38">
+        <v>0.545</v>
+      </c>
+      <c r="AR38">
+        <v>0.333</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0.273</v>
+      </c>
+      <c r="AU38">
+        <v>0.455</v>
+      </c>
+      <c r="AV38">
+        <v>0.273</v>
+      </c>
+      <c r="AW38">
+        <v>0.364</v>
+      </c>
+      <c r="AX38">
+        <v>0.273</v>
+      </c>
+      <c r="AY38">
+        <v>0.364</v>
+      </c>
+      <c r="AZ38">
+        <v>76</v>
+      </c>
+      <c r="BA38">
+        <v>30</v>
+      </c>
+      <c r="BB38">
+        <v>46</v>
+      </c>
+      <c r="BC38">
+        <v>19</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0.202</v>
+      </c>
+      <c r="BF38">
+        <v>0.133</v>
+      </c>
+      <c r="BG38">
+        <v>0.133</v>
+      </c>
+      <c r="BH38">
+        <v>0.263</v>
+      </c>
+      <c r="BI38">
+        <v>0.158</v>
+      </c>
+      <c r="BJ38">
+        <v>0.182</v>
+      </c>
+      <c r="BK38">
+        <v>2.97</v>
+      </c>
+      <c r="BL38">
+        <v>4.78</v>
+      </c>
+      <c r="BM38">
+        <v>0.364</v>
+      </c>
+      <c r="BN38">
+        <v>0.091</v>
+      </c>
+      <c r="BO38">
+        <v>0.545</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>0.364</v>
+      </c>
+      <c r="BR38">
+        <v>0.273</v>
+      </c>
+      <c r="BS38">
+        <v>0.364</v>
+      </c>
+      <c r="BT38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:72">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" t="s">
+        <v>134</v>
+      </c>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>0.182</v>
+      </c>
+      <c r="Y39">
+        <v>0.308</v>
+      </c>
+      <c r="Z39">
+        <v>0.364</v>
+      </c>
+      <c r="AA39">
+        <v>0.299</v>
+      </c>
+      <c r="AB39">
+        <v>9</v>
+      </c>
+      <c r="AC39">
+        <v>6</v>
+      </c>
+      <c r="AD39">
+        <v>1.5</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0.231</v>
+      </c>
+      <c r="AG39">
+        <v>0.154</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI39">
+        <v>1.33</v>
+      </c>
+      <c r="AJ39">
+        <v>0.25</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>3.17</v>
+      </c>
+      <c r="AM39">
+        <v>5.69</v>
+      </c>
+      <c r="AN39">
+        <v>0.4</v>
+      </c>
+      <c r="AO39">
+        <v>0.125</v>
+      </c>
+      <c r="AP39">
+        <v>0.25</v>
+      </c>
+      <c r="AQ39">
+        <v>0.625</v>
+      </c>
+      <c r="AR39">
+        <v>0.4</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0.25</v>
+      </c>
+      <c r="AU39">
+        <v>0.5</v>
+      </c>
+      <c r="AV39">
+        <v>0.25</v>
+      </c>
+      <c r="AW39">
+        <v>0.375</v>
+      </c>
+      <c r="AX39">
+        <v>0.25</v>
+      </c>
+      <c r="AY39">
+        <v>0.375</v>
+      </c>
+      <c r="AZ39">
+        <v>57</v>
+      </c>
+      <c r="BA39">
+        <v>23</v>
+      </c>
+      <c r="BB39">
+        <v>34</v>
+      </c>
+      <c r="BC39">
+        <v>13</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0.299</v>
+      </c>
+      <c r="BF39">
+        <v>0.364</v>
+      </c>
+      <c r="BG39">
+        <v>0.182</v>
+      </c>
+      <c r="BH39">
+        <v>0.231</v>
+      </c>
+      <c r="BI39">
+        <v>0.154</v>
+      </c>
+      <c r="BJ39">
+        <v>0.25</v>
+      </c>
+      <c r="BK39">
+        <v>3.17</v>
+      </c>
+      <c r="BL39">
+        <v>5.69</v>
+      </c>
+      <c r="BM39">
+        <v>0.25</v>
+      </c>
+      <c r="BN39">
+        <v>0.125</v>
+      </c>
+      <c r="BO39">
+        <v>0.625</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>0.375</v>
+      </c>
+      <c r="BR39">
+        <v>0.25</v>
+      </c>
+      <c r="BS39">
+        <v>0.375</v>
+      </c>
+      <c r="BT39">
+        <v>0.182</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Pitcher_Stats.xlsx
+++ b/assets/Pitcher_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="317">
   <si>
     <t>Season</t>
   </si>
@@ -533,9 +533,6 @@
   </si>
   <si>
     <t>José Soriano</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Martín Pérez</t>
@@ -1587,10 +1584,10 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N2">
         <v>239</v>
@@ -1602,7 +1599,7 @@
         <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R2">
         <v>18</v>
@@ -1656,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AJ2">
         <v>1.14</v>
@@ -1808,10 +1805,10 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N3">
         <v>297</v>
@@ -1823,7 +1820,7 @@
         <v>71</v>
       </c>
       <c r="Q3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R3">
         <v>46</v>
@@ -1877,7 +1874,7 @@
         <v>8.1</v>
       </c>
       <c r="AI3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ3">
         <v>1.37</v>
@@ -2029,10 +2026,10 @@
         <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N4">
         <v>270</v>
@@ -2044,7 +2041,7 @@
         <v>65</v>
       </c>
       <c r="Q4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R4">
         <v>37</v>
@@ -2098,7 +2095,7 @@
         <v>8.9</v>
       </c>
       <c r="AI4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ4">
         <v>1.46</v>
@@ -2250,10 +2247,10 @@
         <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N5">
         <v>309</v>
@@ -2265,7 +2262,7 @@
         <v>79</v>
       </c>
       <c r="Q5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R5">
         <v>42</v>
@@ -2319,7 +2316,7 @@
         <v>7.8</v>
       </c>
       <c r="AI5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ5">
         <v>1.48</v>
@@ -2471,10 +2468,10 @@
         <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N6">
         <v>419</v>
@@ -2486,7 +2483,7 @@
         <v>108</v>
       </c>
       <c r="Q6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R6">
         <v>49</v>
@@ -2540,7 +2537,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AI6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ6">
         <v>1.62</v>
@@ -2692,10 +2689,10 @@
         <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N7">
         <v>331</v>
@@ -2707,7 +2704,7 @@
         <v>73</v>
       </c>
       <c r="Q7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R7">
         <v>41</v>
@@ -2761,7 +2758,7 @@
         <v>9.1</v>
       </c>
       <c r="AI7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AJ7">
         <v>1.34</v>
@@ -2913,10 +2910,10 @@
         <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N8">
         <v>343</v>
@@ -2928,7 +2925,7 @@
         <v>67</v>
       </c>
       <c r="Q8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R8">
         <v>28</v>
@@ -2982,7 +2979,7 @@
         <v>4.4</v>
       </c>
       <c r="AI8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ8">
         <v>0.92</v>
@@ -3134,10 +3131,10 @@
         <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N9">
         <v>250</v>
@@ -3149,7 +3146,7 @@
         <v>50</v>
       </c>
       <c r="Q9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R9">
         <v>24</v>
@@ -3203,7 +3200,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AI9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ9">
         <v>1.19</v>
@@ -3355,10 +3352,10 @@
         <v>77</v>
       </c>
       <c r="L10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N10">
         <v>385</v>
@@ -3370,7 +3367,7 @@
         <v>104</v>
       </c>
       <c r="Q10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R10">
         <v>49</v>
@@ -3424,7 +3421,7 @@
         <v>6.2</v>
       </c>
       <c r="AI10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ10">
         <v>1.46</v>
@@ -3576,10 +3573,10 @@
         <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N11">
         <v>348</v>
@@ -3591,7 +3588,7 @@
         <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R11">
         <v>47</v>
@@ -3645,7 +3642,7 @@
         <v>5.5</v>
       </c>
       <c r="AI11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AJ11">
         <v>1.37</v>
@@ -3797,10 +3794,10 @@
         <v>77</v>
       </c>
       <c r="L12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N12">
         <v>375</v>
@@ -3812,7 +3809,7 @@
         <v>79</v>
       </c>
       <c r="Q12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R12">
         <v>54</v>
@@ -3866,7 +3863,7 @@
         <v>4.8</v>
       </c>
       <c r="AI12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ12">
         <v>1.03</v>
@@ -4018,10 +4015,10 @@
         <v>77</v>
       </c>
       <c r="L13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N13">
         <v>279</v>
@@ -4033,7 +4030,7 @@
         <v>76</v>
       </c>
       <c r="Q13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R13">
         <v>39</v>
@@ -4087,7 +4084,7 @@
         <v>4.7</v>
       </c>
       <c r="AI13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ13">
         <v>1.38</v>
@@ -4239,10 +4236,10 @@
         <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N14">
         <v>114</v>
@@ -4254,7 +4251,7 @@
         <v>18</v>
       </c>
       <c r="Q14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R14">
         <v>9</v>
@@ -4308,7 +4305,7 @@
         <v>5.3</v>
       </c>
       <c r="AI14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AJ14">
         <v>0.82</v>
@@ -4460,10 +4457,10 @@
         <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N15">
         <v>78</v>
@@ -4475,7 +4472,7 @@
         <v>13</v>
       </c>
       <c r="Q15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R15">
         <v>8</v>
@@ -4529,7 +4526,7 @@
         <v>7.7</v>
       </c>
       <c r="AI15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ15">
         <v>0.95</v>
@@ -4681,10 +4678,10 @@
         <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N16">
         <v>380</v>
@@ -4696,7 +4693,7 @@
         <v>72</v>
       </c>
       <c r="Q16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R16">
         <v>37</v>
@@ -4750,7 +4747,7 @@
         <v>8.4</v>
       </c>
       <c r="AI16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ16">
         <v>1.1</v>
@@ -4902,10 +4899,10 @@
         <v>79</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N17">
         <v>105</v>
@@ -4917,7 +4914,7 @@
         <v>22</v>
       </c>
       <c r="Q17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R17">
         <v>13</v>
@@ -4971,7 +4968,7 @@
         <v>13.3</v>
       </c>
       <c r="AI17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AJ17">
         <v>1.48</v>
@@ -5123,10 +5120,10 @@
         <v>79</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N18">
         <v>324</v>
@@ -5138,7 +5135,7 @@
         <v>59</v>
       </c>
       <c r="Q18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R18">
         <v>25</v>
@@ -5192,7 +5189,7 @@
         <v>4</v>
       </c>
       <c r="AI18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AJ18">
         <v>0.84</v>
@@ -5344,10 +5341,10 @@
         <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N19">
         <v>154</v>
@@ -5359,7 +5356,7 @@
         <v>40</v>
       </c>
       <c r="Q19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R19">
         <v>26</v>
@@ -5413,7 +5410,7 @@
         <v>7.8</v>
       </c>
       <c r="AI19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ19">
         <v>1.51</v>
@@ -5565,10 +5562,10 @@
         <v>80</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N20">
         <v>379</v>
@@ -5580,7 +5577,7 @@
         <v>71</v>
       </c>
       <c r="Q20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R20">
         <v>38</v>
@@ -5634,7 +5631,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AI20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AJ20">
         <v>1.14</v>
@@ -5786,10 +5783,10 @@
         <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N21">
         <v>319</v>
@@ -5801,7 +5798,7 @@
         <v>55</v>
       </c>
       <c r="Q21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R21">
         <v>28</v>
@@ -5855,7 +5852,7 @@
         <v>10.3</v>
       </c>
       <c r="AI21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AJ21">
         <v>1.1</v>
@@ -6007,10 +6004,10 @@
         <v>80</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N22">
         <v>333</v>
@@ -6022,7 +6019,7 @@
         <v>85</v>
       </c>
       <c r="Q22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R22">
         <v>33</v>
@@ -6076,7 +6073,7 @@
         <v>6.9</v>
       </c>
       <c r="AI22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ22">
         <v>1.43</v>
@@ -6228,10 +6225,10 @@
         <v>80</v>
       </c>
       <c r="L23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N23">
         <v>290</v>
@@ -6243,7 +6240,7 @@
         <v>56</v>
       </c>
       <c r="Q23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R23">
         <v>18</v>
@@ -6297,7 +6294,7 @@
         <v>4.5</v>
       </c>
       <c r="AI23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ23">
         <v>0.91</v>
@@ -6449,10 +6446,10 @@
         <v>81</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N24">
         <v>20</v>
@@ -6464,7 +6461,7 @@
         <v>5</v>
       </c>
       <c r="Q24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R24">
         <v>12</v>
@@ -6518,7 +6515,7 @@
         <v>20</v>
       </c>
       <c r="AI24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AJ24">
         <v>2.25</v>
@@ -6670,10 +6667,10 @@
         <v>81</v>
       </c>
       <c r="L25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N25">
         <v>64</v>
@@ -6685,7 +6682,7 @@
         <v>16</v>
       </c>
       <c r="Q25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R25">
         <v>2</v>
@@ -6739,7 +6736,7 @@
         <v>9.4</v>
       </c>
       <c r="AI25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ25">
         <v>1.47</v>
@@ -6891,10 +6888,10 @@
         <v>81</v>
       </c>
       <c r="L26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N26">
         <v>16</v>
@@ -6906,7 +6903,7 @@
         <v>4</v>
       </c>
       <c r="Q26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -6960,7 +6957,7 @@
         <v>25</v>
       </c>
       <c r="AI26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ26">
         <v>2.67</v>
@@ -7112,10 +7109,10 @@
         <v>81</v>
       </c>
       <c r="L27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N27">
         <v>49</v>
@@ -7127,7 +7124,7 @@
         <v>5</v>
       </c>
       <c r="Q27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -7181,7 +7178,7 @@
         <v>2</v>
       </c>
       <c r="AI27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AJ27">
         <v>0.4</v>
@@ -7348,7 +7345,7 @@
         <v>22</v>
       </c>
       <c r="Q28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R28">
         <v>12</v>
@@ -7402,7 +7399,7 @@
         <v>6.7</v>
       </c>
       <c r="AI28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ28">
         <v>1.56</v>
@@ -7569,7 +7566,7 @@
         <v>43</v>
       </c>
       <c r="Q29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R29">
         <v>21</v>
@@ -7623,7 +7620,7 @@
         <v>10</v>
       </c>
       <c r="AI29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ29">
         <v>1.97</v>
@@ -7790,7 +7787,7 @@
         <v>14</v>
       </c>
       <c r="Q30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R30">
         <v>4</v>
@@ -7844,7 +7841,7 @@
         <v>6</v>
       </c>
       <c r="AI30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ30">
         <v>1.08</v>
@@ -8011,7 +8008,7 @@
         <v>26</v>
       </c>
       <c r="Q31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R31">
         <v>16</v>
@@ -8065,7 +8062,7 @@
         <v>4.9</v>
       </c>
       <c r="AI31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ31">
         <v>0.91</v>
@@ -8217,10 +8214,10 @@
         <v>83</v>
       </c>
       <c r="L32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N32">
         <v>18</v>
@@ -8232,7 +8229,7 @@
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R32">
         <v>1</v>
@@ -8286,7 +8283,7 @@
         <v>5.6</v>
       </c>
       <c r="AI32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AJ32">
         <v>0.64</v>
@@ -8438,10 +8435,10 @@
         <v>83</v>
       </c>
       <c r="L33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N33">
         <v>282</v>
@@ -8453,7 +8450,7 @@
         <v>52</v>
       </c>
       <c r="Q33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R33">
         <v>24</v>
@@ -8507,7 +8504,7 @@
         <v>5.3</v>
       </c>
       <c r="AI33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AJ33">
         <v>0.91</v>
@@ -8659,10 +8656,10 @@
         <v>83</v>
       </c>
       <c r="L34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N34">
         <v>26</v>
@@ -8674,7 +8671,7 @@
         <v>9</v>
       </c>
       <c r="Q34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -8728,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="AI34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AJ34">
         <v>1.5</v>
@@ -8880,10 +8877,10 @@
         <v>83</v>
       </c>
       <c r="L35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N35">
         <v>281</v>
@@ -8895,7 +8892,7 @@
         <v>51</v>
       </c>
       <c r="Q35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R35">
         <v>21</v>
@@ -8949,7 +8946,7 @@
         <v>6</v>
       </c>
       <c r="AI35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AJ35">
         <v>0.95</v>
@@ -9101,10 +9098,10 @@
         <v>84</v>
       </c>
       <c r="L36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N36">
         <v>50</v>
@@ -9116,7 +9113,7 @@
         <v>12</v>
       </c>
       <c r="Q36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R36">
         <v>11</v>
@@ -9170,7 +9167,7 @@
         <v>10</v>
       </c>
       <c r="AI36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ36">
         <v>1.5</v>
@@ -9322,10 +9319,10 @@
         <v>84</v>
       </c>
       <c r="L37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N37">
         <v>140</v>
@@ -9337,7 +9334,7 @@
         <v>25</v>
       </c>
       <c r="Q37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R37">
         <v>8</v>
@@ -9391,7 +9388,7 @@
         <v>5</v>
       </c>
       <c r="AI37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AJ37">
         <v>0.84</v>
@@ -9543,10 +9540,10 @@
         <v>84</v>
       </c>
       <c r="L38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N38">
         <v>224</v>
@@ -9558,7 +9555,7 @@
         <v>49</v>
       </c>
       <c r="Q38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R38">
         <v>26</v>
@@ -9612,7 +9609,7 @@
         <v>7.6</v>
       </c>
       <c r="AI38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ38">
         <v>1.19</v>
@@ -9764,10 +9761,10 @@
         <v>84</v>
       </c>
       <c r="L39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N39">
         <v>490</v>
@@ -9779,7 +9776,7 @@
         <v>121</v>
       </c>
       <c r="Q39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R39">
         <v>66</v>
@@ -9833,7 +9830,7 @@
         <v>9</v>
       </c>
       <c r="AI39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AJ39">
         <v>1.49</v>
@@ -9985,10 +9982,10 @@
         <v>85</v>
       </c>
       <c r="L40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N40">
         <v>255</v>
@@ -10000,7 +9997,7 @@
         <v>49</v>
       </c>
       <c r="Q40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R40">
         <v>29</v>
@@ -10054,7 +10051,7 @@
         <v>4.3</v>
       </c>
       <c r="AI40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ40">
         <v>0.92</v>
@@ -10206,10 +10203,10 @@
         <v>85</v>
       </c>
       <c r="L41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N41">
         <v>293</v>
@@ -10221,7 +10218,7 @@
         <v>65</v>
       </c>
       <c r="Q41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R41">
         <v>28</v>
@@ -10275,7 +10272,7 @@
         <v>4.8</v>
       </c>
       <c r="AI41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AJ41">
         <v>1.1</v>
@@ -10427,10 +10424,10 @@
         <v>85</v>
       </c>
       <c r="L42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N42">
         <v>283</v>
@@ -10442,7 +10439,7 @@
         <v>61</v>
       </c>
       <c r="Q42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R42">
         <v>30</v>
@@ -10496,7 +10493,7 @@
         <v>4.2</v>
       </c>
       <c r="AI42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ42">
         <v>1.05</v>
@@ -10648,10 +10645,10 @@
         <v>85</v>
       </c>
       <c r="L43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N43">
         <v>293</v>
@@ -10663,7 +10660,7 @@
         <v>50</v>
       </c>
       <c r="Q43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R43">
         <v>27</v>
@@ -10717,7 +10714,7 @@
         <v>5.1</v>
       </c>
       <c r="AI43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ43">
         <v>0.85</v>
@@ -10869,10 +10866,10 @@
         <v>172</v>
       </c>
       <c r="L44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N44">
         <v>265</v>
@@ -10884,7 +10881,7 @@
         <v>45</v>
       </c>
       <c r="Q44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R44">
         <v>26</v>
@@ -10938,7 +10935,7 @@
         <v>7.9</v>
       </c>
       <c r="AI44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ44">
         <v>0.97</v>
@@ -11090,10 +11087,10 @@
         <v>172</v>
       </c>
       <c r="L45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N45">
         <v>361</v>
@@ -11105,7 +11102,7 @@
         <v>74</v>
       </c>
       <c r="Q45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R45">
         <v>38</v>
@@ -11159,7 +11156,7 @@
         <v>11.4</v>
       </c>
       <c r="AI45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ45">
         <v>1.35</v>
@@ -11311,10 +11308,10 @@
         <v>172</v>
       </c>
       <c r="L46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N46">
         <v>203</v>
@@ -11326,7 +11323,7 @@
         <v>46</v>
       </c>
       <c r="Q46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R46">
         <v>24</v>
@@ -11380,7 +11377,7 @@
         <v>11.8</v>
       </c>
       <c r="AI46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ46">
         <v>1.56</v>
@@ -11532,10 +11529,10 @@
         <v>172</v>
       </c>
       <c r="L47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N47">
         <v>293</v>
@@ -11547,7 +11544,7 @@
         <v>71</v>
       </c>
       <c r="Q47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R47">
         <v>36</v>
@@ -11601,7 +11598,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AI47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ47">
         <v>1.38</v>
@@ -11753,10 +11750,10 @@
         <v>87</v>
       </c>
       <c r="L48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N48">
         <v>202</v>
@@ -11768,7 +11765,7 @@
         <v>44</v>
       </c>
       <c r="Q48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R48">
         <v>32</v>
@@ -11822,7 +11819,7 @@
         <v>7.4</v>
       </c>
       <c r="AI48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ48">
         <v>1.25</v>
@@ -11974,10 +11971,10 @@
         <v>87</v>
       </c>
       <c r="L49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N49">
         <v>252</v>
@@ -11989,7 +11986,7 @@
         <v>62</v>
       </c>
       <c r="Q49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R49">
         <v>29</v>
@@ -12043,7 +12040,7 @@
         <v>9.5</v>
       </c>
       <c r="AI49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AJ49">
         <v>1.54</v>
@@ -12195,10 +12192,10 @@
         <v>87</v>
       </c>
       <c r="L50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N50">
         <v>194</v>
@@ -12210,7 +12207,7 @@
         <v>54</v>
       </c>
       <c r="Q50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R50">
         <v>24</v>
@@ -12264,7 +12261,7 @@
         <v>6.2</v>
       </c>
       <c r="AI50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AJ50">
         <v>1.53</v>
@@ -12416,10 +12413,10 @@
         <v>87</v>
       </c>
       <c r="L51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N51">
         <v>264</v>
@@ -12431,7 +12428,7 @@
         <v>66</v>
       </c>
       <c r="Q51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R51">
         <v>36</v>
@@ -12485,7 +12482,7 @@
         <v>5.7</v>
       </c>
       <c r="AI51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ51">
         <v>1.33</v>
@@ -12637,10 +12634,10 @@
         <v>88</v>
       </c>
       <c r="L52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N52">
         <v>7</v>
@@ -12652,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -12706,7 +12703,7 @@
         <v>14.3</v>
       </c>
       <c r="AI52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AJ52">
         <v>0.5</v>
@@ -12858,10 +12855,10 @@
         <v>88</v>
       </c>
       <c r="L53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N53">
         <v>254</v>
@@ -12873,7 +12870,7 @@
         <v>50</v>
       </c>
       <c r="Q53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R53">
         <v>23</v>
@@ -12927,7 +12924,7 @@
         <v>13.8</v>
       </c>
       <c r="AI53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AJ53">
         <v>1.48</v>
@@ -13079,10 +13076,10 @@
         <v>88</v>
       </c>
       <c r="L54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N54">
         <v>13</v>
@@ -13094,7 +13091,7 @@
         <v>2</v>
       </c>
       <c r="Q54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -13148,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="AI54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ54">
         <v>0.6</v>
@@ -13300,10 +13297,10 @@
         <v>88</v>
       </c>
       <c r="L55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N55">
         <v>206</v>
@@ -13315,7 +13312,7 @@
         <v>37</v>
       </c>
       <c r="Q55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R55">
         <v>16</v>
@@ -13369,7 +13366,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AI55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AJ55">
         <v>1.07</v>
@@ -13518,13 +13515,13 @@
         <v>89</v>
       </c>
       <c r="K56" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N56">
         <v>36</v>
@@ -13536,7 +13533,7 @@
         <v>6</v>
       </c>
       <c r="Q56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R56">
         <v>2</v>
@@ -13590,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="AI56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ56">
         <v>0.6</v>
@@ -13739,13 +13736,13 @@
         <v>89</v>
       </c>
       <c r="K57" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N57">
         <v>98</v>
@@ -13757,7 +13754,7 @@
         <v>26</v>
       </c>
       <c r="Q57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R57">
         <v>17</v>
@@ -13811,7 +13808,7 @@
         <v>7.1</v>
       </c>
       <c r="AI57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AJ57">
         <v>1.48</v>
@@ -13963,10 +13960,10 @@
         <v>90</v>
       </c>
       <c r="L58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N58">
         <v>241</v>
@@ -13978,7 +13975,7 @@
         <v>47</v>
       </c>
       <c r="Q58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R58">
         <v>25</v>
@@ -14032,7 +14029,7 @@
         <v>9.5</v>
       </c>
       <c r="AI58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AJ58">
         <v>1.19</v>
@@ -14184,10 +14181,10 @@
         <v>90</v>
       </c>
       <c r="L59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N59">
         <v>254</v>
@@ -14199,7 +14196,7 @@
         <v>61</v>
       </c>
       <c r="Q59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R59">
         <v>25</v>
@@ -14253,7 +14250,7 @@
         <v>5.9</v>
       </c>
       <c r="AI59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ59">
         <v>1.25</v>
@@ -14405,10 +14402,10 @@
         <v>91</v>
       </c>
       <c r="L60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N60">
         <v>303</v>
@@ -14420,7 +14417,7 @@
         <v>55</v>
       </c>
       <c r="Q60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R60">
         <v>30</v>
@@ -14474,7 +14471,7 @@
         <v>12.9</v>
       </c>
       <c r="AI60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AJ60">
         <v>1.34</v>
@@ -14626,10 +14623,10 @@
         <v>91</v>
       </c>
       <c r="L61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N61">
         <v>55</v>
@@ -14641,7 +14638,7 @@
         <v>14</v>
       </c>
       <c r="Q61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R61">
         <v>7</v>
@@ -14695,7 +14692,7 @@
         <v>14.5</v>
       </c>
       <c r="AI61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ61">
         <v>1.83</v>
@@ -14847,10 +14844,10 @@
         <v>91</v>
       </c>
       <c r="L62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N62">
         <v>334</v>
@@ -14862,7 +14859,7 @@
         <v>49</v>
       </c>
       <c r="Q62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R62">
         <v>30</v>
@@ -14916,7 +14913,7 @@
         <v>11.4</v>
       </c>
       <c r="AI62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AJ62">
         <v>1.07</v>
@@ -15068,10 +15065,10 @@
         <v>91</v>
       </c>
       <c r="L63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N63">
         <v>52</v>
@@ -15083,7 +15080,7 @@
         <v>10</v>
       </c>
       <c r="Q63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R63">
         <v>4</v>
@@ -15137,7 +15134,7 @@
         <v>17.3</v>
       </c>
       <c r="AI63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ63">
         <v>1.58</v>
@@ -15286,13 +15283,13 @@
         <v>92</v>
       </c>
       <c r="K64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N64">
         <v>128</v>
@@ -15304,7 +15301,7 @@
         <v>33</v>
       </c>
       <c r="Q64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R64">
         <v>13</v>
@@ -15358,7 +15355,7 @@
         <v>6.3</v>
       </c>
       <c r="AI64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AJ64">
         <v>1.37</v>
@@ -15507,13 +15504,13 @@
         <v>92</v>
       </c>
       <c r="K65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N65">
         <v>33</v>
@@ -15525,7 +15522,7 @@
         <v>3</v>
       </c>
       <c r="Q65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -15579,7 +15576,7 @@
         <v>3</v>
       </c>
       <c r="AI65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AJ65">
         <v>0.39</v>
@@ -15728,13 +15725,13 @@
         <v>92</v>
       </c>
       <c r="K66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N66">
         <v>462</v>
@@ -15746,7 +15743,7 @@
         <v>118</v>
       </c>
       <c r="Q66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R66">
         <v>58</v>
@@ -15800,7 +15797,7 @@
         <v>8.9</v>
       </c>
       <c r="AI66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ66">
         <v>1.51</v>
@@ -15949,13 +15946,13 @@
         <v>92</v>
       </c>
       <c r="K67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N67">
         <v>107</v>
@@ -15967,7 +15964,7 @@
         <v>18</v>
       </c>
       <c r="Q67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R67">
         <v>9</v>
@@ -16021,7 +16018,7 @@
         <v>11.2</v>
       </c>
       <c r="AI67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ67">
         <v>1.18</v>
@@ -16173,10 +16170,10 @@
         <v>93</v>
       </c>
       <c r="L68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N68">
         <v>31</v>
@@ -16188,7 +16185,7 @@
         <v>4</v>
       </c>
       <c r="Q68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R68">
         <v>3</v>
@@ -16242,7 +16239,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AI68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ68">
         <v>0.84</v>
@@ -16394,10 +16391,10 @@
         <v>93</v>
       </c>
       <c r="L69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N69">
         <v>162</v>
@@ -16409,7 +16406,7 @@
         <v>34</v>
       </c>
       <c r="Q69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R69">
         <v>8</v>
@@ -16463,7 +16460,7 @@
         <v>4.3</v>
       </c>
       <c r="AI69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AJ69">
         <v>0.98</v>
@@ -16615,10 +16612,10 @@
         <v>93</v>
       </c>
       <c r="L70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N70">
         <v>135</v>
@@ -16630,7 +16627,7 @@
         <v>28</v>
       </c>
       <c r="Q70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R70">
         <v>13</v>
@@ -16684,7 +16681,7 @@
         <v>7.4</v>
       </c>
       <c r="AI70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AJ70">
         <v>1.21</v>
@@ -16836,10 +16833,10 @@
         <v>93</v>
       </c>
       <c r="L71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N71">
         <v>445</v>
@@ -16851,7 +16848,7 @@
         <v>93</v>
       </c>
       <c r="Q71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R71">
         <v>45</v>
@@ -16905,7 +16902,7 @@
         <v>6.5</v>
       </c>
       <c r="AI71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AJ71">
         <v>1.1</v>
@@ -17057,10 +17054,10 @@
         <v>94</v>
       </c>
       <c r="L72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N72">
         <v>84</v>
@@ -17072,7 +17069,7 @@
         <v>19</v>
       </c>
       <c r="Q72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R72">
         <v>9</v>
@@ -17126,7 +17123,7 @@
         <v>10.7</v>
       </c>
       <c r="AI72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AJ72">
         <v>1.45</v>
@@ -17278,10 +17275,10 @@
         <v>94</v>
       </c>
       <c r="L73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N73">
         <v>145</v>
@@ -17293,7 +17290,7 @@
         <v>30</v>
       </c>
       <c r="Q73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R73">
         <v>16</v>
@@ -17347,7 +17344,7 @@
         <v>6.2</v>
       </c>
       <c r="AI73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ73">
         <v>1.06</v>
@@ -17499,10 +17496,10 @@
         <v>94</v>
       </c>
       <c r="L74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N74">
         <v>93</v>
@@ -17514,7 +17511,7 @@
         <v>21</v>
       </c>
       <c r="Q74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R74">
         <v>11</v>
@@ -17568,7 +17565,7 @@
         <v>1.1</v>
       </c>
       <c r="AI74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AJ74">
         <v>0.92</v>
@@ -17720,10 +17717,10 @@
         <v>94</v>
       </c>
       <c r="L75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N75">
         <v>118</v>
@@ -17735,7 +17732,7 @@
         <v>24</v>
       </c>
       <c r="Q75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R75">
         <v>12</v>
@@ -17789,7 +17786,7 @@
         <v>5.9</v>
       </c>
       <c r="AI75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ75">
         <v>1.06</v>
@@ -17941,10 +17938,10 @@
         <v>95</v>
       </c>
       <c r="L76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N76">
         <v>352</v>
@@ -17956,7 +17953,7 @@
         <v>80</v>
       </c>
       <c r="Q76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R76">
         <v>42</v>
@@ -18010,7 +18007,7 @@
         <v>6</v>
       </c>
       <c r="AI76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ76">
         <v>1.15</v>
@@ -18162,10 +18159,10 @@
         <v>95</v>
       </c>
       <c r="L77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N77">
         <v>317</v>
@@ -18177,7 +18174,7 @@
         <v>70</v>
       </c>
       <c r="Q77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R77">
         <v>16</v>
@@ -18231,7 +18228,7 @@
         <v>6.3</v>
       </c>
       <c r="AI77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AJ77">
         <v>1.16</v>
@@ -18383,10 +18380,10 @@
         <v>95</v>
       </c>
       <c r="L78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N78">
         <v>333</v>
@@ -18398,7 +18395,7 @@
         <v>74</v>
       </c>
       <c r="Q78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R78">
         <v>23</v>
@@ -18452,7 +18449,7 @@
         <v>7.2</v>
       </c>
       <c r="AI78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AJ78">
         <v>1.25</v>
@@ -18604,10 +18601,10 @@
         <v>95</v>
       </c>
       <c r="L79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N79">
         <v>293</v>
@@ -18619,7 +18616,7 @@
         <v>68</v>
       </c>
       <c r="Q79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R79">
         <v>40</v>
@@ -18673,7 +18670,7 @@
         <v>6.1</v>
       </c>
       <c r="AI79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AJ79">
         <v>1.21</v>
@@ -18825,10 +18822,10 @@
         <v>96</v>
       </c>
       <c r="L80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N80">
         <v>400</v>
@@ -18840,7 +18837,7 @@
         <v>99</v>
       </c>
       <c r="Q80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R80">
         <v>49</v>
@@ -18894,7 +18891,7 @@
         <v>5.8</v>
       </c>
       <c r="AI80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AJ80">
         <v>1.33</v>
@@ -19046,10 +19043,10 @@
         <v>96</v>
       </c>
       <c r="L81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N81">
         <v>321</v>
@@ -19061,7 +19058,7 @@
         <v>79</v>
       </c>
       <c r="Q81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R81">
         <v>40</v>
@@ -19115,7 +19112,7 @@
         <v>8.4</v>
       </c>
       <c r="AI81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AJ81">
         <v>1.46</v>
@@ -19267,10 +19264,10 @@
         <v>96</v>
       </c>
       <c r="L82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N82">
         <v>373</v>
@@ -19282,7 +19279,7 @@
         <v>83</v>
       </c>
       <c r="Q82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R82">
         <v>41</v>
@@ -19336,7 +19333,7 @@
         <v>7.2</v>
       </c>
       <c r="AI82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AJ82">
         <v>1.28</v>
@@ -19488,10 +19485,10 @@
         <v>96</v>
       </c>
       <c r="L83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N83">
         <v>323</v>
@@ -19503,7 +19500,7 @@
         <v>72</v>
       </c>
       <c r="Q83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R83">
         <v>38</v>
@@ -19557,7 +19554,7 @@
         <v>5</v>
       </c>
       <c r="AI83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AJ83">
         <v>1.12</v>
@@ -19709,10 +19706,10 @@
         <v>97</v>
       </c>
       <c r="L84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N84">
         <v>295</v>
@@ -19724,7 +19721,7 @@
         <v>58</v>
       </c>
       <c r="Q84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R84">
         <v>44</v>
@@ -19778,7 +19775,7 @@
         <v>12.9</v>
       </c>
       <c r="AI84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AJ84">
         <v>1.42</v>
@@ -19930,10 +19927,10 @@
         <v>97</v>
       </c>
       <c r="L85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N85">
         <v>317</v>
@@ -19945,7 +19942,7 @@
         <v>81</v>
       </c>
       <c r="Q85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R85">
         <v>51</v>
@@ -19999,7 +19996,7 @@
         <v>4.1</v>
       </c>
       <c r="AI85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AJ85">
         <v>1.28</v>
@@ -20151,10 +20148,10 @@
         <v>98</v>
       </c>
       <c r="L86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N86">
         <v>394</v>
@@ -20166,7 +20163,7 @@
         <v>95</v>
       </c>
       <c r="Q86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R86">
         <v>42</v>
@@ -20220,7 +20217,7 @@
         <v>7.1</v>
       </c>
       <c r="AI86" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ86">
         <v>1.33</v>
@@ -20372,10 +20369,10 @@
         <v>98</v>
       </c>
       <c r="L87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N87">
         <v>326</v>
@@ -20387,7 +20384,7 @@
         <v>75</v>
       </c>
       <c r="Q87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R87">
         <v>45</v>
@@ -20441,7 +20438,7 @@
         <v>8.6</v>
       </c>
       <c r="AI87" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AJ87">
         <v>1.36</v>
@@ -20593,10 +20590,10 @@
         <v>98</v>
       </c>
       <c r="L88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N88">
         <v>316</v>
@@ -20608,7 +20605,7 @@
         <v>55</v>
       </c>
       <c r="Q88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R88">
         <v>28</v>
@@ -20662,7 +20659,7 @@
         <v>5.1</v>
       </c>
       <c r="AI88" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AJ88">
         <v>0.87</v>
@@ -20814,10 +20811,10 @@
         <v>98</v>
       </c>
       <c r="L89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N89">
         <v>307</v>
@@ -20829,7 +20826,7 @@
         <v>73</v>
       </c>
       <c r="Q89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R89">
         <v>40</v>
@@ -20883,7 +20880,7 @@
         <v>6.2</v>
       </c>
       <c r="AI89" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AJ89">
         <v>1.27</v>
@@ -21035,10 +21032,10 @@
         <v>99</v>
       </c>
       <c r="L90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N90">
         <v>79</v>
@@ -21050,7 +21047,7 @@
         <v>24</v>
       </c>
       <c r="Q90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R90">
         <v>20</v>
@@ -21104,7 +21101,7 @@
         <v>5.1</v>
       </c>
       <c r="AI90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AJ90">
         <v>1.58</v>
@@ -21256,10 +21253,10 @@
         <v>99</v>
       </c>
       <c r="L91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N91">
         <v>119</v>
@@ -21271,7 +21268,7 @@
         <v>31</v>
       </c>
       <c r="Q91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R91">
         <v>22</v>
@@ -21325,7 +21322,7 @@
         <v>6.7</v>
       </c>
       <c r="AI91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AJ91">
         <v>1.46</v>
@@ -21477,10 +21474,10 @@
         <v>99</v>
       </c>
       <c r="L92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N92">
         <v>81</v>
@@ -21492,7 +21489,7 @@
         <v>29</v>
       </c>
       <c r="Q92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R92">
         <v>14</v>
@@ -21546,7 +21543,7 @@
         <v>2.5</v>
       </c>
       <c r="AI92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AJ92">
         <v>1.86</v>
@@ -21698,10 +21695,10 @@
         <v>99</v>
       </c>
       <c r="L93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N93">
         <v>111</v>
@@ -21713,7 +21710,7 @@
         <v>39</v>
       </c>
       <c r="Q93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R93">
         <v>18</v>
@@ -21767,7 +21764,7 @@
         <v>4.5</v>
       </c>
       <c r="AI93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AJ93">
         <v>1.86</v>
@@ -21919,10 +21916,10 @@
         <v>100</v>
       </c>
       <c r="L94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N94">
         <v>122</v>
@@ -21934,7 +21931,7 @@
         <v>21</v>
       </c>
       <c r="Q94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R94">
         <v>7</v>
@@ -21988,7 +21985,7 @@
         <v>4.1</v>
       </c>
       <c r="AI94" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AJ94">
         <v>0.8</v>
@@ -22140,10 +22137,10 @@
         <v>100</v>
       </c>
       <c r="L95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N95">
         <v>123</v>
@@ -22155,7 +22152,7 @@
         <v>26</v>
       </c>
       <c r="Q95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R95">
         <v>6</v>
@@ -22209,7 +22206,7 @@
         <v>1.6</v>
       </c>
       <c r="AI95" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AJ95">
         <v>0.88</v>
@@ -22361,10 +22358,10 @@
         <v>100</v>
       </c>
       <c r="L96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N96">
         <v>631</v>
@@ -22376,7 +22373,7 @@
         <v>121</v>
       </c>
       <c r="Q96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R96">
         <v>47</v>
@@ -22430,7 +22427,7 @@
         <v>4.8</v>
       </c>
       <c r="AI96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ96">
         <v>0.95</v>
@@ -22582,10 +22579,10 @@
         <v>100</v>
       </c>
       <c r="L97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M97" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N97">
         <v>510</v>
@@ -22597,7 +22594,7 @@
         <v>94</v>
       </c>
       <c r="Q97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R97">
         <v>41</v>
@@ -22651,7 +22648,7 @@
         <v>4.5</v>
       </c>
       <c r="AI97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AJ97">
         <v>0.87</v>
@@ -22803,10 +22800,10 @@
         <v>101</v>
       </c>
       <c r="L98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N98">
         <v>179</v>
@@ -22818,7 +22815,7 @@
         <v>31</v>
       </c>
       <c r="Q98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R98">
         <v>13</v>
@@ -22872,7 +22869,7 @@
         <v>8.4</v>
       </c>
       <c r="AI98" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AJ98">
         <v>1.01</v>
@@ -23024,10 +23021,10 @@
         <v>101</v>
       </c>
       <c r="L99" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N99">
         <v>263</v>
@@ -23039,7 +23036,7 @@
         <v>44</v>
       </c>
       <c r="Q99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R99">
         <v>16</v>
@@ -23093,7 +23090,7 @@
         <v>7.6</v>
       </c>
       <c r="AI99" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ99">
         <v>0.9399999999999999</v>
@@ -23245,10 +23242,10 @@
         <v>101</v>
       </c>
       <c r="L100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N100">
         <v>189</v>
@@ -23260,7 +23257,7 @@
         <v>47</v>
       </c>
       <c r="Q100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R100">
         <v>19</v>
@@ -23314,7 +23311,7 @@
         <v>3.7</v>
       </c>
       <c r="AI100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AJ100">
         <v>1.21</v>
@@ -23466,10 +23463,10 @@
         <v>101</v>
       </c>
       <c r="L101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N101">
         <v>299</v>
@@ -23481,7 +23478,7 @@
         <v>58</v>
       </c>
       <c r="Q101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R101">
         <v>34</v>
@@ -23535,7 +23532,7 @@
         <v>9.4</v>
       </c>
       <c r="AI101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ101">
         <v>1.21</v>
@@ -23687,10 +23684,10 @@
         <v>102</v>
       </c>
       <c r="L102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M102" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N102">
         <v>310</v>
@@ -23702,7 +23699,7 @@
         <v>75</v>
       </c>
       <c r="Q102" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R102">
         <v>34</v>
@@ -23756,7 +23753,7 @@
         <v>6.1</v>
       </c>
       <c r="AI102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AJ102">
         <v>1.29</v>
@@ -23908,10 +23905,10 @@
         <v>102</v>
       </c>
       <c r="L103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N103">
         <v>274</v>
@@ -23923,7 +23920,7 @@
         <v>66</v>
       </c>
       <c r="Q103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R103">
         <v>31</v>
@@ -23977,7 +23974,7 @@
         <v>5.5</v>
       </c>
       <c r="AI103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AJ103">
         <v>1.26</v>
@@ -24129,10 +24126,10 @@
         <v>103</v>
       </c>
       <c r="L104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N104">
         <v>203</v>
@@ -24144,7 +24141,7 @@
         <v>48</v>
       </c>
       <c r="Q104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R104">
         <v>27</v>
@@ -24198,7 +24195,7 @@
         <v>9.9</v>
       </c>
       <c r="AI104" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AJ104">
         <v>1.47</v>
@@ -24350,10 +24347,10 @@
         <v>103</v>
       </c>
       <c r="L105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N105">
         <v>217</v>
@@ -24365,7 +24362,7 @@
         <v>49</v>
       </c>
       <c r="Q105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R105">
         <v>18</v>
@@ -24419,7 +24416,7 @@
         <v>6</v>
       </c>
       <c r="AI105" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AJ105">
         <v>1.14</v>
@@ -24571,10 +24568,10 @@
         <v>104</v>
       </c>
       <c r="L106" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N106">
         <v>44</v>
@@ -24586,7 +24583,7 @@
         <v>7</v>
       </c>
       <c r="Q106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R106">
         <v>3</v>
@@ -24640,7 +24637,7 @@
         <v>6.8</v>
       </c>
       <c r="AI106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AJ106">
         <v>0.83</v>
@@ -24792,10 +24789,10 @@
         <v>104</v>
       </c>
       <c r="L107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N107">
         <v>70</v>
@@ -24807,7 +24804,7 @@
         <v>13</v>
       </c>
       <c r="Q107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R107">
         <v>8</v>
@@ -24861,7 +24858,7 @@
         <v>8.6</v>
       </c>
       <c r="AI107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ107">
         <v>1.16</v>
